--- a/TestCasesPaylocity/Binder1 ORIG.xlsx
+++ b/TestCasesPaylocity/Binder1 ORIG.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R291"/>
+  <dimension ref="A1:R299"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3265,39 +3265,39 @@
       <c r="A59" t="inlineStr"/>
       <c r="B59" t="inlineStr">
         <is>
-          <t>Tunnell, Cara</t>
+          <t>Hobbs, Brandy</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>07/16/2023</t>
+          <t>07/17/2023</t>
         </is>
       </c>
       <c r="D59" t="inlineStr"/>
       <c r="E59" t="inlineStr">
         <is>
-          <t>665211</t>
+          <t>713021</t>
         </is>
       </c>
       <c r="F59" t="inlineStr">
         <is>
-          <t>Work</t>
+          <t>Oncall</t>
         </is>
       </c>
       <c r="G59" t="inlineStr">
         <is>
-          <t>07/16/2023 18:45</t>
+          <t xml:space="preserve">07/17/2023 </t>
         </is>
       </c>
       <c r="H59" t="inlineStr">
         <is>
-          <t>07/16/2023 07:00</t>
+          <t xml:space="preserve">07/17/2023 </t>
         </is>
       </c>
       <c r="I59" t="inlineStr"/>
       <c r="J59" t="inlineStr">
         <is>
-          <t>12.25</t>
+          <t>15.00</t>
         </is>
       </c>
       <c r="K59" t="inlineStr"/>
@@ -3313,39 +3313,39 @@
       <c r="A60" t="inlineStr"/>
       <c r="B60" t="inlineStr">
         <is>
-          <t>Tunnell, Cara</t>
+          <t>Hobbs, Brandy</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>07/17/2023</t>
+          <t>07/18/2023</t>
         </is>
       </c>
       <c r="D60" t="inlineStr"/>
       <c r="E60" t="inlineStr">
         <is>
-          <t>665211</t>
+          <t>713021</t>
         </is>
       </c>
       <c r="F60" t="inlineStr">
         <is>
-          <t>Work</t>
+          <t>Oncall</t>
         </is>
       </c>
       <c r="G60" t="inlineStr">
         <is>
-          <t>07/17/2023 18:47</t>
+          <t xml:space="preserve">07/18/2023 </t>
         </is>
       </c>
       <c r="H60" t="inlineStr">
         <is>
-          <t>07/17/2023 03:08</t>
+          <t xml:space="preserve">07/18/2023 </t>
         </is>
       </c>
       <c r="I60" t="inlineStr"/>
       <c r="J60" t="inlineStr">
         <is>
-          <t>8.50</t>
+          <t>15.00</t>
         </is>
       </c>
       <c r="K60" t="inlineStr"/>
@@ -3361,39 +3361,39 @@
       <c r="A61" t="inlineStr"/>
       <c r="B61" t="inlineStr">
         <is>
-          <t>Tunnell, Cara</t>
+          <t>Hobbs, Brandy</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>07/17/2023</t>
+          <t>07/19/2023</t>
         </is>
       </c>
       <c r="D61" t="inlineStr"/>
       <c r="E61" t="inlineStr">
         <is>
-          <t>665211</t>
+          <t>713021</t>
         </is>
       </c>
       <c r="F61" t="inlineStr">
         <is>
-          <t>Lunch</t>
+          <t>Oncall</t>
         </is>
       </c>
       <c r="G61" t="inlineStr">
         <is>
-          <t>07/17/2023 03:08</t>
+          <t xml:space="preserve">07/19/2023 </t>
         </is>
       </c>
       <c r="H61" t="inlineStr">
         <is>
-          <t>07/17/2023 03:39</t>
+          <t xml:space="preserve">07/19/2023 </t>
         </is>
       </c>
       <c r="I61" t="inlineStr"/>
       <c r="J61" t="inlineStr">
         <is>
-          <t>0.00</t>
+          <t>15.00</t>
         </is>
       </c>
       <c r="K61" t="inlineStr"/>
@@ -3409,39 +3409,39 @@
       <c r="A62" t="inlineStr"/>
       <c r="B62" t="inlineStr">
         <is>
-          <t>Tunnell, Cara</t>
+          <t>Hobbs, Brandy</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>07/17/2023</t>
+          <t>07/21/2023</t>
         </is>
       </c>
       <c r="D62" t="inlineStr"/>
       <c r="E62" t="inlineStr">
         <is>
-          <t>665211</t>
+          <t>713021</t>
         </is>
       </c>
       <c r="F62" t="inlineStr">
         <is>
-          <t>Work</t>
+          <t>Oncall</t>
         </is>
       </c>
       <c r="G62" t="inlineStr">
         <is>
-          <t>07/17/2023 03:39</t>
+          <t xml:space="preserve">07/21/2023 </t>
         </is>
       </c>
       <c r="H62" t="inlineStr">
         <is>
-          <t>07/17/2023 07:04</t>
+          <t xml:space="preserve">07/21/2023 </t>
         </is>
       </c>
       <c r="I62" t="inlineStr"/>
       <c r="J62" t="inlineStr">
         <is>
-          <t>3.25</t>
+          <t>15.00</t>
         </is>
       </c>
       <c r="K62" t="inlineStr"/>
@@ -3457,39 +3457,39 @@
       <c r="A63" t="inlineStr"/>
       <c r="B63" t="inlineStr">
         <is>
-          <t>Tunnell, Cara</t>
+          <t>Hobbs, Brandy</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>07/18/2023</t>
+          <t>07/22/2023</t>
         </is>
       </c>
       <c r="D63" t="inlineStr"/>
       <c r="E63" t="inlineStr">
         <is>
-          <t>665211</t>
+          <t>713021</t>
         </is>
       </c>
       <c r="F63" t="inlineStr">
         <is>
-          <t>Unpaid Time Off</t>
+          <t>Oncall</t>
         </is>
       </c>
       <c r="G63" t="inlineStr">
         <is>
-          <t>07/18/2023 00:00</t>
+          <t xml:space="preserve">07/22/2023 </t>
         </is>
       </c>
       <c r="H63" t="inlineStr">
         <is>
-          <t xml:space="preserve">07/18/2023 </t>
+          <t xml:space="preserve">07/22/2023 </t>
         </is>
       </c>
       <c r="I63" t="inlineStr"/>
       <c r="J63" t="inlineStr">
         <is>
-          <t>0.00</t>
+          <t>24.00</t>
         </is>
       </c>
       <c r="K63" t="inlineStr"/>
@@ -3505,39 +3505,39 @@
       <c r="A64" t="inlineStr"/>
       <c r="B64" t="inlineStr">
         <is>
-          <t>Tunnell, Cara</t>
+          <t>Hobbs, Brandy</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>07/25/2023</t>
+          <t>07/23/2023</t>
         </is>
       </c>
       <c r="D64" t="inlineStr"/>
       <c r="E64" t="inlineStr">
         <is>
-          <t>665211</t>
+          <t>713021</t>
         </is>
       </c>
       <c r="F64" t="inlineStr">
         <is>
-          <t>Work</t>
+          <t>Oncall</t>
         </is>
       </c>
       <c r="G64" t="inlineStr">
         <is>
-          <t>07/25/2023 18:50</t>
+          <t xml:space="preserve">07/23/2023 </t>
         </is>
       </c>
       <c r="H64" t="inlineStr">
         <is>
-          <t>07/25/2023 07:07</t>
+          <t xml:space="preserve">07/23/2023 </t>
         </is>
       </c>
       <c r="I64" t="inlineStr"/>
       <c r="J64" t="inlineStr">
         <is>
-          <t>12.25</t>
+          <t>24.00</t>
         </is>
       </c>
       <c r="K64" t="inlineStr"/>
@@ -3553,39 +3553,39 @@
       <c r="A65" t="inlineStr"/>
       <c r="B65" t="inlineStr">
         <is>
-          <t>Tunnell, Cara</t>
+          <t>Hobbs, Brandy</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>07/26/2023</t>
+          <t>07/24/2023</t>
         </is>
       </c>
       <c r="D65" t="inlineStr"/>
       <c r="E65" t="inlineStr">
         <is>
-          <t>665211</t>
+          <t>713021</t>
         </is>
       </c>
       <c r="F65" t="inlineStr">
         <is>
-          <t>Work</t>
+          <t>Oncall</t>
         </is>
       </c>
       <c r="G65" t="inlineStr">
         <is>
-          <t>07/26/2023 18:46</t>
+          <t xml:space="preserve">07/24/2023 </t>
         </is>
       </c>
       <c r="H65" t="inlineStr">
         <is>
-          <t>07/26/2023 07:01</t>
+          <t xml:space="preserve">07/24/2023 </t>
         </is>
       </c>
       <c r="I65" t="inlineStr"/>
       <c r="J65" t="inlineStr">
         <is>
-          <t>12.25</t>
+          <t>15.00</t>
         </is>
       </c>
       <c r="K65" t="inlineStr"/>
@@ -3601,39 +3601,39 @@
       <c r="A66" t="inlineStr"/>
       <c r="B66" t="inlineStr">
         <is>
-          <t>Tunnell, Cara</t>
+          <t>Hobbs, Brandy</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>07/27/2023</t>
+          <t>07/26/2023</t>
         </is>
       </c>
       <c r="D66" t="inlineStr"/>
       <c r="E66" t="inlineStr">
         <is>
-          <t>665211</t>
+          <t>713021</t>
         </is>
       </c>
       <c r="F66" t="inlineStr">
         <is>
-          <t>Work</t>
+          <t>Oncall</t>
         </is>
       </c>
       <c r="G66" t="inlineStr">
         <is>
-          <t>07/27/2023 18:44</t>
+          <t xml:space="preserve">07/26/2023 </t>
         </is>
       </c>
       <c r="H66" t="inlineStr">
         <is>
-          <t>07/27/2023 04:30</t>
+          <t xml:space="preserve">07/26/2023 </t>
         </is>
       </c>
       <c r="I66" t="inlineStr"/>
       <c r="J66" t="inlineStr">
         <is>
-          <t>9.75</t>
+          <t>15.00</t>
         </is>
       </c>
       <c r="K66" t="inlineStr"/>
@@ -3649,18 +3649,18 @@
       <c r="A67" t="inlineStr"/>
       <c r="B67" t="inlineStr">
         <is>
-          <t>Montgomery, Catherine</t>
+          <t>Tunnell, Cara</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>07/17/2023</t>
+          <t>07/16/2023</t>
         </is>
       </c>
       <c r="D67" t="inlineStr"/>
       <c r="E67" t="inlineStr">
         <is>
-          <t>671011</t>
+          <t>665211</t>
         </is>
       </c>
       <c r="F67" t="inlineStr">
@@ -3670,18 +3670,18 @@
       </c>
       <c r="G67" t="inlineStr">
         <is>
-          <t>07/17/2023 08:00</t>
+          <t>07/16/2023 18:45</t>
         </is>
       </c>
       <c r="H67" t="inlineStr">
         <is>
-          <t>07/17/2023 13:30</t>
+          <t>07/16/2023 07:00</t>
         </is>
       </c>
       <c r="I67" t="inlineStr"/>
       <c r="J67" t="inlineStr">
         <is>
-          <t>5.50</t>
+          <t>12.25</t>
         </is>
       </c>
       <c r="K67" t="inlineStr"/>
@@ -3697,7 +3697,7 @@
       <c r="A68" t="inlineStr"/>
       <c r="B68" t="inlineStr">
         <is>
-          <t>Montgomery, Catherine</t>
+          <t>Tunnell, Cara</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
@@ -3708,28 +3708,28 @@
       <c r="D68" t="inlineStr"/>
       <c r="E68" t="inlineStr">
         <is>
-          <t>671011</t>
+          <t>665211</t>
         </is>
       </c>
       <c r="F68" t="inlineStr">
         <is>
-          <t>Lunch</t>
+          <t>Work</t>
         </is>
       </c>
       <c r="G68" t="inlineStr">
         <is>
-          <t>07/17/2023 13:30</t>
+          <t>07/17/2023 18:47</t>
         </is>
       </c>
       <c r="H68" t="inlineStr">
         <is>
-          <t>07/17/2023 14:03</t>
+          <t>07/17/2023 03:08</t>
         </is>
       </c>
       <c r="I68" t="inlineStr"/>
       <c r="J68" t="inlineStr">
         <is>
-          <t>0.00</t>
+          <t>8.50</t>
         </is>
       </c>
       <c r="K68" t="inlineStr"/>
@@ -3745,7 +3745,7 @@
       <c r="A69" t="inlineStr"/>
       <c r="B69" t="inlineStr">
         <is>
-          <t>Montgomery, Catherine</t>
+          <t>Tunnell, Cara</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
@@ -3756,28 +3756,28 @@
       <c r="D69" t="inlineStr"/>
       <c r="E69" t="inlineStr">
         <is>
-          <t>671011</t>
+          <t>665211</t>
         </is>
       </c>
       <c r="F69" t="inlineStr">
         <is>
-          <t>Work</t>
+          <t>Lunch</t>
         </is>
       </c>
       <c r="G69" t="inlineStr">
         <is>
-          <t>07/17/2023 14:00</t>
+          <t>07/17/2023 03:08</t>
         </is>
       </c>
       <c r="H69" t="inlineStr">
         <is>
-          <t>07/17/2023 19:00</t>
+          <t>07/17/2023 03:39</t>
         </is>
       </c>
       <c r="I69" t="inlineStr"/>
       <c r="J69" t="inlineStr">
         <is>
-          <t>5.00</t>
+          <t>0.00</t>
         </is>
       </c>
       <c r="K69" t="inlineStr"/>
@@ -3793,18 +3793,18 @@
       <c r="A70" t="inlineStr"/>
       <c r="B70" t="inlineStr">
         <is>
-          <t>Montgomery, Catherine</t>
+          <t>Tunnell, Cara</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>07/18/2023</t>
+          <t>07/17/2023</t>
         </is>
       </c>
       <c r="D70" t="inlineStr"/>
       <c r="E70" t="inlineStr">
         <is>
-          <t>671011</t>
+          <t>665211</t>
         </is>
       </c>
       <c r="F70" t="inlineStr">
@@ -3814,18 +3814,18 @@
       </c>
       <c r="G70" t="inlineStr">
         <is>
-          <t>07/18/2023 08:30</t>
+          <t>07/17/2023 03:39</t>
         </is>
       </c>
       <c r="H70" t="inlineStr">
         <is>
-          <t>07/18/2023 13:30</t>
+          <t>07/17/2023 07:04</t>
         </is>
       </c>
       <c r="I70" t="inlineStr"/>
       <c r="J70" t="inlineStr">
         <is>
-          <t>5.00</t>
+          <t>3.25</t>
         </is>
       </c>
       <c r="K70" t="inlineStr"/>
@@ -3841,7 +3841,7 @@
       <c r="A71" t="inlineStr"/>
       <c r="B71" t="inlineStr">
         <is>
-          <t>Montgomery, Catherine</t>
+          <t>Tunnell, Cara</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
@@ -3852,22 +3852,22 @@
       <c r="D71" t="inlineStr"/>
       <c r="E71" t="inlineStr">
         <is>
-          <t>671011</t>
+          <t>665211</t>
         </is>
       </c>
       <c r="F71" t="inlineStr">
         <is>
-          <t>Lunch</t>
+          <t>Unpaid Time Off</t>
         </is>
       </c>
       <c r="G71" t="inlineStr">
         <is>
-          <t>07/18/2023 13:29</t>
+          <t>07/18/2023 00:00</t>
         </is>
       </c>
       <c r="H71" t="inlineStr">
         <is>
-          <t>07/18/2023 13:54</t>
+          <t xml:space="preserve">07/18/2023 </t>
         </is>
       </c>
       <c r="I71" t="inlineStr"/>
@@ -3889,18 +3889,18 @@
       <c r="A72" t="inlineStr"/>
       <c r="B72" t="inlineStr">
         <is>
-          <t>Montgomery, Catherine</t>
+          <t>Tunnell, Cara</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>07/18/2023</t>
+          <t>07/25/2023</t>
         </is>
       </c>
       <c r="D72" t="inlineStr"/>
       <c r="E72" t="inlineStr">
         <is>
-          <t>671011</t>
+          <t>665211</t>
         </is>
       </c>
       <c r="F72" t="inlineStr">
@@ -3910,18 +3910,18 @@
       </c>
       <c r="G72" t="inlineStr">
         <is>
-          <t>07/18/2023 14:00</t>
+          <t>07/25/2023 18:50</t>
         </is>
       </c>
       <c r="H72" t="inlineStr">
         <is>
-          <t>07/18/2023 18:30</t>
+          <t>07/25/2023 07:07</t>
         </is>
       </c>
       <c r="I72" t="inlineStr"/>
       <c r="J72" t="inlineStr">
         <is>
-          <t>4.50</t>
+          <t>12.25</t>
         </is>
       </c>
       <c r="K72" t="inlineStr"/>
@@ -3937,18 +3937,18 @@
       <c r="A73" t="inlineStr"/>
       <c r="B73" t="inlineStr">
         <is>
-          <t>Montgomery, Catherine</t>
+          <t>Tunnell, Cara</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>07/19/2023</t>
+          <t>07/26/2023</t>
         </is>
       </c>
       <c r="D73" t="inlineStr"/>
       <c r="E73" t="inlineStr">
         <is>
-          <t>671011</t>
+          <t>665211</t>
         </is>
       </c>
       <c r="F73" t="inlineStr">
@@ -3958,18 +3958,18 @@
       </c>
       <c r="G73" t="inlineStr">
         <is>
-          <t>07/19/2023 08:00</t>
+          <t>07/26/2023 18:46</t>
         </is>
       </c>
       <c r="H73" t="inlineStr">
         <is>
-          <t>07/19/2023 13:45</t>
+          <t>07/26/2023 07:01</t>
         </is>
       </c>
       <c r="I73" t="inlineStr"/>
       <c r="J73" t="inlineStr">
         <is>
-          <t>5.75</t>
+          <t>12.25</t>
         </is>
       </c>
       <c r="K73" t="inlineStr"/>
@@ -3985,39 +3985,39 @@
       <c r="A74" t="inlineStr"/>
       <c r="B74" t="inlineStr">
         <is>
-          <t>Montgomery, Catherine</t>
+          <t>Tunnell, Cara</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>07/19/2023</t>
+          <t>07/27/2023</t>
         </is>
       </c>
       <c r="D74" t="inlineStr"/>
       <c r="E74" t="inlineStr">
         <is>
-          <t>671011</t>
+          <t>665211</t>
         </is>
       </c>
       <c r="F74" t="inlineStr">
         <is>
-          <t>Lunch</t>
+          <t>Work</t>
         </is>
       </c>
       <c r="G74" t="inlineStr">
         <is>
-          <t>07/19/2023 13:38</t>
+          <t>07/27/2023 18:44</t>
         </is>
       </c>
       <c r="H74" t="inlineStr">
         <is>
-          <t>07/19/2023 14:07</t>
+          <t>07/27/2023 04:30</t>
         </is>
       </c>
       <c r="I74" t="inlineStr"/>
       <c r="J74" t="inlineStr">
         <is>
-          <t>0.00</t>
+          <t>9.75</t>
         </is>
       </c>
       <c r="K74" t="inlineStr"/>
@@ -4038,7 +4038,7 @@
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>07/19/2023</t>
+          <t>07/17/2023</t>
         </is>
       </c>
       <c r="D75" t="inlineStr"/>
@@ -4054,18 +4054,18 @@
       </c>
       <c r="G75" t="inlineStr">
         <is>
-          <t>07/19/2023 14:00</t>
+          <t>07/17/2023 08:00</t>
         </is>
       </c>
       <c r="H75" t="inlineStr">
         <is>
-          <t>07/19/2023 18:30</t>
+          <t>07/17/2023 13:30</t>
         </is>
       </c>
       <c r="I75" t="inlineStr"/>
       <c r="J75" t="inlineStr">
         <is>
-          <t>4.50</t>
+          <t>5.50</t>
         </is>
       </c>
       <c r="K75" t="inlineStr"/>
@@ -4086,7 +4086,7 @@
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>07/20/2023</t>
+          <t>07/17/2023</t>
         </is>
       </c>
       <c r="D76" t="inlineStr"/>
@@ -4097,23 +4097,23 @@
       </c>
       <c r="F76" t="inlineStr">
         <is>
-          <t>Work</t>
+          <t>Lunch</t>
         </is>
       </c>
       <c r="G76" t="inlineStr">
         <is>
-          <t>07/20/2023 08:00</t>
+          <t>07/17/2023 13:30</t>
         </is>
       </c>
       <c r="H76" t="inlineStr">
         <is>
-          <t>07/20/2023 15:00</t>
+          <t>07/17/2023 14:03</t>
         </is>
       </c>
       <c r="I76" t="inlineStr"/>
       <c r="J76" t="inlineStr">
         <is>
-          <t>7.00</t>
+          <t>0.00</t>
         </is>
       </c>
       <c r="K76" t="inlineStr"/>
@@ -4134,7 +4134,7 @@
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>07/20/2023</t>
+          <t>07/17/2023</t>
         </is>
       </c>
       <c r="D77" t="inlineStr"/>
@@ -4145,23 +4145,23 @@
       </c>
       <c r="F77" t="inlineStr">
         <is>
-          <t>Lunch</t>
+          <t>Work</t>
         </is>
       </c>
       <c r="G77" t="inlineStr">
         <is>
-          <t>07/20/2023 15:03</t>
+          <t>07/17/2023 14:00</t>
         </is>
       </c>
       <c r="H77" t="inlineStr">
         <is>
-          <t>07/20/2023 15:31</t>
+          <t>07/17/2023 19:00</t>
         </is>
       </c>
       <c r="I77" t="inlineStr"/>
       <c r="J77" t="inlineStr">
         <is>
-          <t>0.00</t>
+          <t>5.00</t>
         </is>
       </c>
       <c r="K77" t="inlineStr"/>
@@ -4182,7 +4182,7 @@
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>07/20/2023</t>
+          <t>07/18/2023</t>
         </is>
       </c>
       <c r="D78" t="inlineStr"/>
@@ -4198,18 +4198,18 @@
       </c>
       <c r="G78" t="inlineStr">
         <is>
-          <t>07/20/2023 15:30</t>
+          <t>07/18/2023 08:30</t>
         </is>
       </c>
       <c r="H78" t="inlineStr">
         <is>
-          <t>07/20/2023 18:30</t>
+          <t>07/18/2023 13:30</t>
         </is>
       </c>
       <c r="I78" t="inlineStr"/>
       <c r="J78" t="inlineStr">
         <is>
-          <t>3.00</t>
+          <t>5.00</t>
         </is>
       </c>
       <c r="K78" t="inlineStr"/>
@@ -4230,7 +4230,7 @@
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>07/24/2023</t>
+          <t>07/18/2023</t>
         </is>
       </c>
       <c r="D79" t="inlineStr"/>
@@ -4241,23 +4241,23 @@
       </c>
       <c r="F79" t="inlineStr">
         <is>
-          <t>Work</t>
+          <t>Lunch</t>
         </is>
       </c>
       <c r="G79" t="inlineStr">
         <is>
-          <t>07/24/2023 08:30</t>
+          <t>07/18/2023 13:29</t>
         </is>
       </c>
       <c r="H79" t="inlineStr">
         <is>
-          <t>07/24/2023 13:30</t>
+          <t>07/18/2023 13:54</t>
         </is>
       </c>
       <c r="I79" t="inlineStr"/>
       <c r="J79" t="inlineStr">
         <is>
-          <t>5.00</t>
+          <t>0.00</t>
         </is>
       </c>
       <c r="K79" t="inlineStr"/>
@@ -4278,7 +4278,7 @@
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>07/24/2023</t>
+          <t>07/18/2023</t>
         </is>
       </c>
       <c r="D80" t="inlineStr"/>
@@ -4289,23 +4289,23 @@
       </c>
       <c r="F80" t="inlineStr">
         <is>
-          <t>Lunch</t>
+          <t>Work</t>
         </is>
       </c>
       <c r="G80" t="inlineStr">
         <is>
-          <t>07/24/2023 13:24</t>
+          <t>07/18/2023 14:00</t>
         </is>
       </c>
       <c r="H80" t="inlineStr">
         <is>
-          <t>07/24/2023 13:48</t>
+          <t>07/18/2023 18:30</t>
         </is>
       </c>
       <c r="I80" t="inlineStr"/>
       <c r="J80" t="inlineStr">
         <is>
-          <t>0.00</t>
+          <t>4.50</t>
         </is>
       </c>
       <c r="K80" t="inlineStr"/>
@@ -4326,7 +4326,7 @@
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>07/24/2023</t>
+          <t>07/19/2023</t>
         </is>
       </c>
       <c r="D81" t="inlineStr"/>
@@ -4342,18 +4342,18 @@
       </c>
       <c r="G81" t="inlineStr">
         <is>
-          <t>07/24/2023 13:45</t>
+          <t>07/19/2023 08:00</t>
         </is>
       </c>
       <c r="H81" t="inlineStr">
         <is>
-          <t>07/24/2023 18:45</t>
+          <t>07/19/2023 13:45</t>
         </is>
       </c>
       <c r="I81" t="inlineStr"/>
       <c r="J81" t="inlineStr">
         <is>
-          <t>5.00</t>
+          <t>5.75</t>
         </is>
       </c>
       <c r="K81" t="inlineStr"/>
@@ -4374,7 +4374,7 @@
       </c>
       <c r="C82" t="inlineStr">
         <is>
-          <t>07/25/2023</t>
+          <t>07/19/2023</t>
         </is>
       </c>
       <c r="D82" t="inlineStr"/>
@@ -4385,23 +4385,23 @@
       </c>
       <c r="F82" t="inlineStr">
         <is>
-          <t>Work</t>
+          <t>Lunch</t>
         </is>
       </c>
       <c r="G82" t="inlineStr">
         <is>
-          <t>07/25/2023 08:00</t>
+          <t>07/19/2023 13:38</t>
         </is>
       </c>
       <c r="H82" t="inlineStr">
         <is>
-          <t>07/25/2023 13:45</t>
+          <t>07/19/2023 14:07</t>
         </is>
       </c>
       <c r="I82" t="inlineStr"/>
       <c r="J82" t="inlineStr">
         <is>
-          <t>5.75</t>
+          <t>0.00</t>
         </is>
       </c>
       <c r="K82" t="inlineStr"/>
@@ -4422,7 +4422,7 @@
       </c>
       <c r="C83" t="inlineStr">
         <is>
-          <t>07/25/2023</t>
+          <t>07/19/2023</t>
         </is>
       </c>
       <c r="D83" t="inlineStr"/>
@@ -4433,23 +4433,23 @@
       </c>
       <c r="F83" t="inlineStr">
         <is>
-          <t>Lunch</t>
+          <t>Work</t>
         </is>
       </c>
       <c r="G83" t="inlineStr">
         <is>
-          <t>07/25/2023 13:49</t>
+          <t>07/19/2023 14:00</t>
         </is>
       </c>
       <c r="H83" t="inlineStr">
         <is>
-          <t>07/25/2023 14:20</t>
+          <t>07/19/2023 18:30</t>
         </is>
       </c>
       <c r="I83" t="inlineStr"/>
       <c r="J83" t="inlineStr">
         <is>
-          <t>0.00</t>
+          <t>4.50</t>
         </is>
       </c>
       <c r="K83" t="inlineStr"/>
@@ -4470,7 +4470,7 @@
       </c>
       <c r="C84" t="inlineStr">
         <is>
-          <t>07/25/2023</t>
+          <t>07/20/2023</t>
         </is>
       </c>
       <c r="D84" t="inlineStr"/>
@@ -4486,18 +4486,18 @@
       </c>
       <c r="G84" t="inlineStr">
         <is>
-          <t>07/25/2023 14:15</t>
+          <t>07/20/2023 08:00</t>
         </is>
       </c>
       <c r="H84" t="inlineStr">
         <is>
-          <t>07/25/2023 18:45</t>
+          <t>07/20/2023 15:00</t>
         </is>
       </c>
       <c r="I84" t="inlineStr"/>
       <c r="J84" t="inlineStr">
         <is>
-          <t>4.50</t>
+          <t>7.00</t>
         </is>
       </c>
       <c r="K84" t="inlineStr"/>
@@ -4518,7 +4518,7 @@
       </c>
       <c r="C85" t="inlineStr">
         <is>
-          <t>07/26/2023</t>
+          <t>07/20/2023</t>
         </is>
       </c>
       <c r="D85" t="inlineStr"/>
@@ -4529,23 +4529,23 @@
       </c>
       <c r="F85" t="inlineStr">
         <is>
-          <t>Work</t>
+          <t>Lunch</t>
         </is>
       </c>
       <c r="G85" t="inlineStr">
         <is>
-          <t>07/26/2023 08:00</t>
+          <t>07/20/2023 15:03</t>
         </is>
       </c>
       <c r="H85" t="inlineStr">
         <is>
-          <t>07/26/2023 14:00</t>
+          <t>07/20/2023 15:31</t>
         </is>
       </c>
       <c r="I85" t="inlineStr"/>
       <c r="J85" t="inlineStr">
         <is>
-          <t>6.00</t>
+          <t>0.00</t>
         </is>
       </c>
       <c r="K85" t="inlineStr"/>
@@ -4566,7 +4566,7 @@
       </c>
       <c r="C86" t="inlineStr">
         <is>
-          <t>07/26/2023</t>
+          <t>07/20/2023</t>
         </is>
       </c>
       <c r="D86" t="inlineStr"/>
@@ -4577,23 +4577,23 @@
       </c>
       <c r="F86" t="inlineStr">
         <is>
-          <t>Lunch</t>
+          <t>Work</t>
         </is>
       </c>
       <c r="G86" t="inlineStr">
         <is>
-          <t>07/26/2023 13:55</t>
+          <t>07/20/2023 15:30</t>
         </is>
       </c>
       <c r="H86" t="inlineStr">
         <is>
-          <t>07/26/2023 14:23</t>
+          <t>07/20/2023 18:30</t>
         </is>
       </c>
       <c r="I86" t="inlineStr"/>
       <c r="J86" t="inlineStr">
         <is>
-          <t>0.00</t>
+          <t>3.00</t>
         </is>
       </c>
       <c r="K86" t="inlineStr"/>
@@ -4614,7 +4614,7 @@
       </c>
       <c r="C87" t="inlineStr">
         <is>
-          <t>07/26/2023</t>
+          <t>07/24/2023</t>
         </is>
       </c>
       <c r="D87" t="inlineStr"/>
@@ -4630,18 +4630,18 @@
       </c>
       <c r="G87" t="inlineStr">
         <is>
-          <t>07/26/2023 14:30</t>
+          <t>07/24/2023 08:30</t>
         </is>
       </c>
       <c r="H87" t="inlineStr">
         <is>
-          <t>07/26/2023 18:30</t>
+          <t>07/24/2023 13:30</t>
         </is>
       </c>
       <c r="I87" t="inlineStr"/>
       <c r="J87" t="inlineStr">
         <is>
-          <t>4.00</t>
+          <t>5.00</t>
         </is>
       </c>
       <c r="K87" t="inlineStr"/>
@@ -4662,7 +4662,7 @@
       </c>
       <c r="C88" t="inlineStr">
         <is>
-          <t>07/27/2023</t>
+          <t>07/24/2023</t>
         </is>
       </c>
       <c r="D88" t="inlineStr"/>
@@ -4673,23 +4673,23 @@
       </c>
       <c r="F88" t="inlineStr">
         <is>
-          <t>Work</t>
+          <t>Lunch</t>
         </is>
       </c>
       <c r="G88" t="inlineStr">
         <is>
-          <t>07/27/2023 08:00</t>
+          <t>07/24/2023 13:24</t>
         </is>
       </c>
       <c r="H88" t="inlineStr">
         <is>
-          <t>07/27/2023 13:45</t>
+          <t>07/24/2023 13:48</t>
         </is>
       </c>
       <c r="I88" t="inlineStr"/>
       <c r="J88" t="inlineStr">
         <is>
-          <t>5.75</t>
+          <t>0.00</t>
         </is>
       </c>
       <c r="K88" t="inlineStr"/>
@@ -4710,7 +4710,7 @@
       </c>
       <c r="C89" t="inlineStr">
         <is>
-          <t>07/27/2023</t>
+          <t>07/24/2023</t>
         </is>
       </c>
       <c r="D89" t="inlineStr"/>
@@ -4721,23 +4721,23 @@
       </c>
       <c r="F89" t="inlineStr">
         <is>
-          <t>Lunch</t>
+          <t>Work</t>
         </is>
       </c>
       <c r="G89" t="inlineStr">
         <is>
-          <t>07/27/2023 13:47</t>
+          <t>07/24/2023 13:45</t>
         </is>
       </c>
       <c r="H89" t="inlineStr">
         <is>
-          <t>07/27/2023 14:19</t>
+          <t>07/24/2023 18:45</t>
         </is>
       </c>
       <c r="I89" t="inlineStr"/>
       <c r="J89" t="inlineStr">
         <is>
-          <t>0.00</t>
+          <t>5.00</t>
         </is>
       </c>
       <c r="K89" t="inlineStr"/>
@@ -4758,7 +4758,7 @@
       </c>
       <c r="C90" t="inlineStr">
         <is>
-          <t>07/27/2023</t>
+          <t>07/25/2023</t>
         </is>
       </c>
       <c r="D90" t="inlineStr"/>
@@ -4774,18 +4774,18 @@
       </c>
       <c r="G90" t="inlineStr">
         <is>
-          <t>07/27/2023 14:15</t>
+          <t>07/25/2023 08:00</t>
         </is>
       </c>
       <c r="H90" t="inlineStr">
         <is>
-          <t>07/27/2023 18:15</t>
+          <t>07/25/2023 13:45</t>
         </is>
       </c>
       <c r="I90" t="inlineStr"/>
       <c r="J90" t="inlineStr">
         <is>
-          <t>4.00</t>
+          <t>5.75</t>
         </is>
       </c>
       <c r="K90" t="inlineStr"/>
@@ -4801,33 +4801,33 @@
       <c r="A91" t="inlineStr"/>
       <c r="B91" t="inlineStr">
         <is>
-          <t>Leight, Corey</t>
+          <t>Montgomery, Catherine</t>
         </is>
       </c>
       <c r="C91" t="inlineStr">
         <is>
-          <t>07/24/2023</t>
+          <t>07/25/2023</t>
         </is>
       </c>
       <c r="D91" t="inlineStr"/>
       <c r="E91" t="inlineStr">
         <is>
-          <t>693511</t>
+          <t>671011</t>
         </is>
       </c>
       <c r="F91" t="inlineStr">
         <is>
-          <t>Work</t>
+          <t>Lunch</t>
         </is>
       </c>
       <c r="G91" t="inlineStr">
         <is>
-          <t>07/24/2023 07:00</t>
+          <t>07/25/2023 13:49</t>
         </is>
       </c>
       <c r="H91" t="inlineStr">
         <is>
-          <t>07/24/2023 12:00</t>
+          <t>07/25/2023 14:20</t>
         </is>
       </c>
       <c r="I91" t="inlineStr"/>
@@ -4849,39 +4849,39 @@
       <c r="A92" t="inlineStr"/>
       <c r="B92" t="inlineStr">
         <is>
-          <t>Leight, Corey</t>
+          <t>Montgomery, Catherine</t>
         </is>
       </c>
       <c r="C92" t="inlineStr">
         <is>
-          <t>07/24/2023</t>
+          <t>07/25/2023</t>
         </is>
       </c>
       <c r="D92" t="inlineStr"/>
       <c r="E92" t="inlineStr">
         <is>
-          <t>693511</t>
+          <t>671011</t>
         </is>
       </c>
       <c r="F92" t="inlineStr">
         <is>
-          <t>Lunch</t>
+          <t>Work</t>
         </is>
       </c>
       <c r="G92" t="inlineStr">
         <is>
-          <t>07/24/2023 12:00</t>
+          <t>07/25/2023 14:15</t>
         </is>
       </c>
       <c r="H92" t="inlineStr">
         <is>
-          <t>07/24/2023 12:30</t>
+          <t>07/25/2023 18:45</t>
         </is>
       </c>
       <c r="I92" t="inlineStr"/>
       <c r="J92" t="inlineStr">
         <is>
-          <t>0.00</t>
+          <t>4.50</t>
         </is>
       </c>
       <c r="K92" t="inlineStr"/>
@@ -4897,18 +4897,18 @@
       <c r="A93" t="inlineStr"/>
       <c r="B93" t="inlineStr">
         <is>
-          <t>Leight, Corey</t>
+          <t>Montgomery, Catherine</t>
         </is>
       </c>
       <c r="C93" t="inlineStr">
         <is>
-          <t>07/24/2023</t>
+          <t>07/26/2023</t>
         </is>
       </c>
       <c r="D93" t="inlineStr"/>
       <c r="E93" t="inlineStr">
         <is>
-          <t>693511</t>
+          <t>671011</t>
         </is>
       </c>
       <c r="F93" t="inlineStr">
@@ -4918,18 +4918,18 @@
       </c>
       <c r="G93" t="inlineStr">
         <is>
-          <t>07/24/2023 12:30</t>
+          <t>07/26/2023 08:00</t>
         </is>
       </c>
       <c r="H93" t="inlineStr">
         <is>
-          <t>07/24/2023 16:00</t>
+          <t>07/26/2023 14:00</t>
         </is>
       </c>
       <c r="I93" t="inlineStr"/>
       <c r="J93" t="inlineStr">
         <is>
-          <t>0.00</t>
+          <t>6.00</t>
         </is>
       </c>
       <c r="K93" t="inlineStr"/>
@@ -4945,33 +4945,33 @@
       <c r="A94" t="inlineStr"/>
       <c r="B94" t="inlineStr">
         <is>
-          <t>Leight, Corey</t>
+          <t>Montgomery, Catherine</t>
         </is>
       </c>
       <c r="C94" t="inlineStr">
         <is>
-          <t>07/25/2023</t>
+          <t>07/26/2023</t>
         </is>
       </c>
       <c r="D94" t="inlineStr"/>
       <c r="E94" t="inlineStr">
         <is>
-          <t>693511</t>
+          <t>671011</t>
         </is>
       </c>
       <c r="F94" t="inlineStr">
         <is>
-          <t>Work</t>
+          <t>Lunch</t>
         </is>
       </c>
       <c r="G94" t="inlineStr">
         <is>
-          <t>07/25/2023 08:00</t>
+          <t>07/26/2023 13:55</t>
         </is>
       </c>
       <c r="H94" t="inlineStr">
         <is>
-          <t>07/25/2023 16:30</t>
+          <t>07/26/2023 14:23</t>
         </is>
       </c>
       <c r="I94" t="inlineStr"/>
@@ -4993,7 +4993,7 @@
       <c r="A95" t="inlineStr"/>
       <c r="B95" t="inlineStr">
         <is>
-          <t>Leight, Corey</t>
+          <t>Montgomery, Catherine</t>
         </is>
       </c>
       <c r="C95" t="inlineStr">
@@ -5004,7 +5004,7 @@
       <c r="D95" t="inlineStr"/>
       <c r="E95" t="inlineStr">
         <is>
-          <t>693511</t>
+          <t>671011</t>
         </is>
       </c>
       <c r="F95" t="inlineStr">
@@ -5014,18 +5014,18 @@
       </c>
       <c r="G95" t="inlineStr">
         <is>
-          <t>07/26/2023 07:30</t>
+          <t>07/26/2023 14:30</t>
         </is>
       </c>
       <c r="H95" t="inlineStr">
         <is>
-          <t>07/26/2023 16:09</t>
+          <t>07/26/2023 18:30</t>
         </is>
       </c>
       <c r="I95" t="inlineStr"/>
       <c r="J95" t="inlineStr">
         <is>
-          <t>0.00</t>
+          <t>4.00</t>
         </is>
       </c>
       <c r="K95" t="inlineStr"/>
@@ -5041,7 +5041,7 @@
       <c r="A96" t="inlineStr"/>
       <c r="B96" t="inlineStr">
         <is>
-          <t>Leight, Corey</t>
+          <t>Montgomery, Catherine</t>
         </is>
       </c>
       <c r="C96" t="inlineStr">
@@ -5052,7 +5052,7 @@
       <c r="D96" t="inlineStr"/>
       <c r="E96" t="inlineStr">
         <is>
-          <t>693511</t>
+          <t>671011</t>
         </is>
       </c>
       <c r="F96" t="inlineStr">
@@ -5062,18 +5062,18 @@
       </c>
       <c r="G96" t="inlineStr">
         <is>
-          <t>07/27/2023 07:21</t>
+          <t>07/27/2023 08:00</t>
         </is>
       </c>
       <c r="H96" t="inlineStr">
         <is>
-          <t>07/27/2023 16:45</t>
+          <t>07/27/2023 13:45</t>
         </is>
       </c>
       <c r="I96" t="inlineStr"/>
       <c r="J96" t="inlineStr">
         <is>
-          <t>0.00</t>
+          <t>5.75</t>
         </is>
       </c>
       <c r="K96" t="inlineStr"/>
@@ -5089,33 +5089,33 @@
       <c r="A97" t="inlineStr"/>
       <c r="B97" t="inlineStr">
         <is>
-          <t>Leight, Corey</t>
+          <t>Montgomery, Catherine</t>
         </is>
       </c>
       <c r="C97" t="inlineStr">
         <is>
-          <t>07/28/2023</t>
+          <t>07/27/2023</t>
         </is>
       </c>
       <c r="D97" t="inlineStr"/>
       <c r="E97" t="inlineStr">
         <is>
-          <t>693511</t>
+          <t>671011</t>
         </is>
       </c>
       <c r="F97" t="inlineStr">
         <is>
-          <t>Work</t>
+          <t>Lunch</t>
         </is>
       </c>
       <c r="G97" t="inlineStr">
         <is>
-          <t>07/28/2023 07:15</t>
+          <t>07/27/2023 13:47</t>
         </is>
       </c>
       <c r="H97" t="inlineStr">
         <is>
-          <t>07/28/2023 16:15</t>
+          <t>07/27/2023 14:19</t>
         </is>
       </c>
       <c r="I97" t="inlineStr"/>
@@ -5137,18 +5137,18 @@
       <c r="A98" t="inlineStr"/>
       <c r="B98" t="inlineStr">
         <is>
-          <t>Kelley, Elise</t>
+          <t>Montgomery, Catherine</t>
         </is>
       </c>
       <c r="C98" t="inlineStr">
         <is>
-          <t>07/20/2023</t>
+          <t>07/27/2023</t>
         </is>
       </c>
       <c r="D98" t="inlineStr"/>
       <c r="E98" t="inlineStr">
         <is>
-          <t>622511</t>
+          <t>671011</t>
         </is>
       </c>
       <c r="F98" t="inlineStr">
@@ -5158,18 +5158,18 @@
       </c>
       <c r="G98" t="inlineStr">
         <is>
-          <t>07/20/2023 18:30</t>
+          <t>07/27/2023 14:15</t>
         </is>
       </c>
       <c r="H98" t="inlineStr">
         <is>
-          <t>07/20/2023 19:00</t>
+          <t>07/27/2023 18:15</t>
         </is>
       </c>
       <c r="I98" t="inlineStr"/>
       <c r="J98" t="inlineStr">
         <is>
-          <t>0.50</t>
+          <t>4.00</t>
         </is>
       </c>
       <c r="K98" t="inlineStr"/>
@@ -5185,18 +5185,18 @@
       <c r="A99" t="inlineStr"/>
       <c r="B99" t="inlineStr">
         <is>
-          <t>Kelley, Elise</t>
+          <t>Leight, Corey</t>
         </is>
       </c>
       <c r="C99" t="inlineStr">
         <is>
-          <t>07/20/2023</t>
+          <t>07/24/2023</t>
         </is>
       </c>
       <c r="D99" t="inlineStr"/>
       <c r="E99" t="inlineStr">
         <is>
-          <t>622511</t>
+          <t>693511</t>
         </is>
       </c>
       <c r="F99" t="inlineStr">
@@ -5206,18 +5206,18 @@
       </c>
       <c r="G99" t="inlineStr">
         <is>
-          <t>07/20/2023 19:00</t>
+          <t>07/24/2023 07:00</t>
         </is>
       </c>
       <c r="H99" t="inlineStr">
         <is>
-          <t>07/20/2023 07:00</t>
+          <t>07/24/2023 12:00</t>
         </is>
       </c>
       <c r="I99" t="inlineStr"/>
       <c r="J99" t="inlineStr">
         <is>
-          <t>12.00</t>
+          <t>0.00</t>
         </is>
       </c>
       <c r="K99" t="inlineStr"/>
@@ -5233,39 +5233,39 @@
       <c r="A100" t="inlineStr"/>
       <c r="B100" t="inlineStr">
         <is>
-          <t>Kelley, Elise</t>
+          <t>Leight, Corey</t>
         </is>
       </c>
       <c r="C100" t="inlineStr">
         <is>
-          <t>07/21/2023</t>
+          <t>07/24/2023</t>
         </is>
       </c>
       <c r="D100" t="inlineStr"/>
       <c r="E100" t="inlineStr">
         <is>
-          <t>622511</t>
+          <t>693511</t>
         </is>
       </c>
       <c r="F100" t="inlineStr">
         <is>
-          <t>Work</t>
+          <t>Lunch</t>
         </is>
       </c>
       <c r="G100" t="inlineStr">
         <is>
-          <t>07/21/2023 18:30</t>
+          <t>07/24/2023 12:00</t>
         </is>
       </c>
       <c r="H100" t="inlineStr">
         <is>
-          <t>07/21/2023 19:00</t>
+          <t>07/24/2023 12:30</t>
         </is>
       </c>
       <c r="I100" t="inlineStr"/>
       <c r="J100" t="inlineStr">
         <is>
-          <t>0.50</t>
+          <t>0.00</t>
         </is>
       </c>
       <c r="K100" t="inlineStr"/>
@@ -5281,18 +5281,18 @@
       <c r="A101" t="inlineStr"/>
       <c r="B101" t="inlineStr">
         <is>
-          <t>Kelley, Elise</t>
+          <t>Leight, Corey</t>
         </is>
       </c>
       <c r="C101" t="inlineStr">
         <is>
-          <t>07/21/2023</t>
+          <t>07/24/2023</t>
         </is>
       </c>
       <c r="D101" t="inlineStr"/>
       <c r="E101" t="inlineStr">
         <is>
-          <t>622511</t>
+          <t>693511</t>
         </is>
       </c>
       <c r="F101" t="inlineStr">
@@ -5302,18 +5302,18 @@
       </c>
       <c r="G101" t="inlineStr">
         <is>
-          <t>07/21/2023 19:00</t>
+          <t>07/24/2023 12:30</t>
         </is>
       </c>
       <c r="H101" t="inlineStr">
         <is>
-          <t>07/21/2023 01:45</t>
+          <t>07/24/2023 16:00</t>
         </is>
       </c>
       <c r="I101" t="inlineStr"/>
       <c r="J101" t="inlineStr">
         <is>
-          <t>6.75</t>
+          <t>0.00</t>
         </is>
       </c>
       <c r="K101" t="inlineStr"/>
@@ -5329,33 +5329,33 @@
       <c r="A102" t="inlineStr"/>
       <c r="B102" t="inlineStr">
         <is>
-          <t>Kelley, Elise</t>
+          <t>Leight, Corey</t>
         </is>
       </c>
       <c r="C102" t="inlineStr">
         <is>
-          <t>07/21/2023</t>
+          <t>07/25/2023</t>
         </is>
       </c>
       <c r="D102" t="inlineStr"/>
       <c r="E102" t="inlineStr">
         <is>
-          <t>622511</t>
+          <t>693511</t>
         </is>
       </c>
       <c r="F102" t="inlineStr">
         <is>
-          <t>Lunch</t>
+          <t>Work</t>
         </is>
       </c>
       <c r="G102" t="inlineStr">
         <is>
-          <t>07/21/2023 01:40</t>
+          <t>07/25/2023 08:00</t>
         </is>
       </c>
       <c r="H102" t="inlineStr">
         <is>
-          <t>07/21/2023 02:10</t>
+          <t>07/25/2023 16:30</t>
         </is>
       </c>
       <c r="I102" t="inlineStr"/>
@@ -5377,18 +5377,18 @@
       <c r="A103" t="inlineStr"/>
       <c r="B103" t="inlineStr">
         <is>
-          <t>Kelley, Elise</t>
+          <t>Leight, Corey</t>
         </is>
       </c>
       <c r="C103" t="inlineStr">
         <is>
-          <t>07/21/2023</t>
+          <t>07/26/2023</t>
         </is>
       </c>
       <c r="D103" t="inlineStr"/>
       <c r="E103" t="inlineStr">
         <is>
-          <t>622511</t>
+          <t>693511</t>
         </is>
       </c>
       <c r="F103" t="inlineStr">
@@ -5398,18 +5398,18 @@
       </c>
       <c r="G103" t="inlineStr">
         <is>
-          <t>07/21/2023 02:15</t>
+          <t>07/26/2023 07:30</t>
         </is>
       </c>
       <c r="H103" t="inlineStr">
         <is>
-          <t>07/21/2023 07:00</t>
+          <t>07/26/2023 16:09</t>
         </is>
       </c>
       <c r="I103" t="inlineStr"/>
       <c r="J103" t="inlineStr">
         <is>
-          <t>4.75</t>
+          <t>0.00</t>
         </is>
       </c>
       <c r="K103" t="inlineStr"/>
@@ -5425,18 +5425,18 @@
       <c r="A104" t="inlineStr"/>
       <c r="B104" t="inlineStr">
         <is>
-          <t>Kelley, Elise</t>
+          <t>Leight, Corey</t>
         </is>
       </c>
       <c r="C104" t="inlineStr">
         <is>
-          <t>07/22/2023</t>
+          <t>07/27/2023</t>
         </is>
       </c>
       <c r="D104" t="inlineStr"/>
       <c r="E104" t="inlineStr">
         <is>
-          <t>622511</t>
+          <t>693511</t>
         </is>
       </c>
       <c r="F104" t="inlineStr">
@@ -5446,18 +5446,18 @@
       </c>
       <c r="G104" t="inlineStr">
         <is>
-          <t>07/22/2023 18:30</t>
+          <t>07/27/2023 07:21</t>
         </is>
       </c>
       <c r="H104" t="inlineStr">
         <is>
-          <t>07/22/2023 19:00</t>
+          <t>07/27/2023 16:45</t>
         </is>
       </c>
       <c r="I104" t="inlineStr"/>
       <c r="J104" t="inlineStr">
         <is>
-          <t>0.50</t>
+          <t>0.00</t>
         </is>
       </c>
       <c r="K104" t="inlineStr"/>
@@ -5473,18 +5473,18 @@
       <c r="A105" t="inlineStr"/>
       <c r="B105" t="inlineStr">
         <is>
-          <t>Kelley, Elise</t>
+          <t>Leight, Corey</t>
         </is>
       </c>
       <c r="C105" t="inlineStr">
         <is>
-          <t>07/22/2023</t>
+          <t>07/28/2023</t>
         </is>
       </c>
       <c r="D105" t="inlineStr"/>
       <c r="E105" t="inlineStr">
         <is>
-          <t>622511</t>
+          <t>693511</t>
         </is>
       </c>
       <c r="F105" t="inlineStr">
@@ -5494,18 +5494,18 @@
       </c>
       <c r="G105" t="inlineStr">
         <is>
-          <t>07/22/2023 19:00</t>
+          <t>07/28/2023 07:15</t>
         </is>
       </c>
       <c r="H105" t="inlineStr">
         <is>
-          <t>07/22/2023 04:00</t>
+          <t>07/28/2023 16:15</t>
         </is>
       </c>
       <c r="I105" t="inlineStr"/>
       <c r="J105" t="inlineStr">
         <is>
-          <t>9.00</t>
+          <t>0.00</t>
         </is>
       </c>
       <c r="K105" t="inlineStr"/>
@@ -5526,7 +5526,7 @@
       </c>
       <c r="C106" t="inlineStr">
         <is>
-          <t>07/22/2023</t>
+          <t>07/20/2023</t>
         </is>
       </c>
       <c r="D106" t="inlineStr"/>
@@ -5542,18 +5542,18 @@
       </c>
       <c r="G106" t="inlineStr">
         <is>
-          <t>07/22/2023 04:00</t>
+          <t>07/20/2023 18:30</t>
         </is>
       </c>
       <c r="H106" t="inlineStr">
         <is>
-          <t>07/22/2023 07:00</t>
+          <t>07/20/2023 19:00</t>
         </is>
       </c>
       <c r="I106" t="inlineStr"/>
       <c r="J106" t="inlineStr">
         <is>
-          <t>3.00</t>
+          <t>0.50</t>
         </is>
       </c>
       <c r="K106" t="inlineStr"/>
@@ -5574,7 +5574,7 @@
       </c>
       <c r="C107" t="inlineStr">
         <is>
-          <t>07/23/2023</t>
+          <t>07/20/2023</t>
         </is>
       </c>
       <c r="D107" t="inlineStr"/>
@@ -5590,18 +5590,18 @@
       </c>
       <c r="G107" t="inlineStr">
         <is>
-          <t>07/23/2023 18:30</t>
+          <t>07/20/2023 19:00</t>
         </is>
       </c>
       <c r="H107" t="inlineStr">
         <is>
-          <t>07/23/2023 19:00</t>
+          <t>07/20/2023 07:00</t>
         </is>
       </c>
       <c r="I107" t="inlineStr"/>
       <c r="J107" t="inlineStr">
         <is>
-          <t>0.50</t>
+          <t>12.00</t>
         </is>
       </c>
       <c r="K107" t="inlineStr"/>
@@ -5622,7 +5622,7 @@
       </c>
       <c r="C108" t="inlineStr">
         <is>
-          <t>07/23/2023</t>
+          <t>07/21/2023</t>
         </is>
       </c>
       <c r="D108" t="inlineStr"/>
@@ -5638,18 +5638,18 @@
       </c>
       <c r="G108" t="inlineStr">
         <is>
-          <t>07/23/2023 19:00</t>
+          <t>07/21/2023 18:30</t>
         </is>
       </c>
       <c r="H108" t="inlineStr">
         <is>
-          <t>07/23/2023 07:00</t>
+          <t>07/21/2023 19:00</t>
         </is>
       </c>
       <c r="I108" t="inlineStr"/>
       <c r="J108" t="inlineStr">
         <is>
-          <t>12.00</t>
+          <t>0.50</t>
         </is>
       </c>
       <c r="K108" t="inlineStr"/>
@@ -5670,7 +5670,7 @@
       </c>
       <c r="C109" t="inlineStr">
         <is>
-          <t>07/23/2023</t>
+          <t>07/21/2023</t>
         </is>
       </c>
       <c r="D109" t="inlineStr"/>
@@ -5686,18 +5686,18 @@
       </c>
       <c r="G109" t="inlineStr">
         <is>
-          <t>07/23/2023 07:00</t>
+          <t>07/21/2023 19:00</t>
         </is>
       </c>
       <c r="H109" t="inlineStr">
         <is>
-          <t>07/23/2023 07:30</t>
+          <t>07/21/2023 01:45</t>
         </is>
       </c>
       <c r="I109" t="inlineStr"/>
       <c r="J109" t="inlineStr">
         <is>
-          <t>0.50</t>
+          <t>6.75</t>
         </is>
       </c>
       <c r="K109" t="inlineStr"/>
@@ -5718,7 +5718,7 @@
       </c>
       <c r="C110" t="inlineStr">
         <is>
-          <t>07/28/2023</t>
+          <t>07/21/2023</t>
         </is>
       </c>
       <c r="D110" t="inlineStr"/>
@@ -5729,23 +5729,23 @@
       </c>
       <c r="F110" t="inlineStr">
         <is>
-          <t>Work</t>
+          <t>Lunch</t>
         </is>
       </c>
       <c r="G110" t="inlineStr">
         <is>
-          <t>07/28/2023 18:30</t>
+          <t>07/21/2023 01:40</t>
         </is>
       </c>
       <c r="H110" t="inlineStr">
         <is>
-          <t>07/28/2023 19:00</t>
+          <t>07/21/2023 02:10</t>
         </is>
       </c>
       <c r="I110" t="inlineStr"/>
       <c r="J110" t="inlineStr">
         <is>
-          <t>0.50</t>
+          <t>0.00</t>
         </is>
       </c>
       <c r="K110" t="inlineStr"/>
@@ -5766,7 +5766,7 @@
       </c>
       <c r="C111" t="inlineStr">
         <is>
-          <t>07/28/2023</t>
+          <t>07/21/2023</t>
         </is>
       </c>
       <c r="D111" t="inlineStr"/>
@@ -5782,18 +5782,18 @@
       </c>
       <c r="G111" t="inlineStr">
         <is>
-          <t>07/28/2023 19:00</t>
+          <t>07/21/2023 02:15</t>
         </is>
       </c>
       <c r="H111" t="inlineStr">
         <is>
-          <t>07/28/2023 07:00</t>
+          <t>07/21/2023 07:00</t>
         </is>
       </c>
       <c r="I111" t="inlineStr"/>
       <c r="J111" t="inlineStr">
         <is>
-          <t>12.00</t>
+          <t>4.75</t>
         </is>
       </c>
       <c r="K111" t="inlineStr"/>
@@ -5814,7 +5814,7 @@
       </c>
       <c r="C112" t="inlineStr">
         <is>
-          <t>07/28/2023</t>
+          <t>07/22/2023</t>
         </is>
       </c>
       <c r="D112" t="inlineStr"/>
@@ -5830,18 +5830,18 @@
       </c>
       <c r="G112" t="inlineStr">
         <is>
-          <t>07/28/2023 07:00</t>
+          <t>07/22/2023 18:30</t>
         </is>
       </c>
       <c r="H112" t="inlineStr">
         <is>
-          <t>07/28/2023 07:15</t>
+          <t>07/22/2023 19:00</t>
         </is>
       </c>
       <c r="I112" t="inlineStr"/>
       <c r="J112" t="inlineStr">
         <is>
-          <t>0.25</t>
+          <t>0.50</t>
         </is>
       </c>
       <c r="K112" t="inlineStr"/>
@@ -5862,7 +5862,7 @@
       </c>
       <c r="C113" t="inlineStr">
         <is>
-          <t>07/29/2023</t>
+          <t>07/22/2023</t>
         </is>
       </c>
       <c r="D113" t="inlineStr"/>
@@ -5878,18 +5878,18 @@
       </c>
       <c r="G113" t="inlineStr">
         <is>
-          <t>07/29/2023 18:30</t>
+          <t>07/22/2023 19:00</t>
         </is>
       </c>
       <c r="H113" t="inlineStr">
         <is>
-          <t>07/29/2023 19:00</t>
+          <t>07/22/2023 04:00</t>
         </is>
       </c>
       <c r="I113" t="inlineStr"/>
       <c r="J113" t="inlineStr">
         <is>
-          <t>0.50</t>
+          <t>9.00</t>
         </is>
       </c>
       <c r="K113" t="inlineStr"/>
@@ -5910,7 +5910,7 @@
       </c>
       <c r="C114" t="inlineStr">
         <is>
-          <t>07/29/2023</t>
+          <t>07/22/2023</t>
         </is>
       </c>
       <c r="D114" t="inlineStr"/>
@@ -5926,18 +5926,18 @@
       </c>
       <c r="G114" t="inlineStr">
         <is>
-          <t>07/29/2023 19:00</t>
+          <t>07/22/2023 04:00</t>
         </is>
       </c>
       <c r="H114" t="inlineStr">
         <is>
-          <t>07/29/2023 07:00</t>
+          <t>07/22/2023 07:00</t>
         </is>
       </c>
       <c r="I114" t="inlineStr"/>
       <c r="J114" t="inlineStr">
         <is>
-          <t>12.00</t>
+          <t>3.00</t>
         </is>
       </c>
       <c r="K114" t="inlineStr"/>
@@ -5958,7 +5958,7 @@
       </c>
       <c r="C115" t="inlineStr">
         <is>
-          <t>07/29/2023</t>
+          <t>07/23/2023</t>
         </is>
       </c>
       <c r="D115" t="inlineStr"/>
@@ -5974,18 +5974,18 @@
       </c>
       <c r="G115" t="inlineStr">
         <is>
-          <t>07/29/2023 07:00</t>
+          <t>07/23/2023 18:30</t>
         </is>
       </c>
       <c r="H115" t="inlineStr">
         <is>
-          <t>07/29/2023 07:15</t>
+          <t>07/23/2023 19:00</t>
         </is>
       </c>
       <c r="I115" t="inlineStr"/>
       <c r="J115" t="inlineStr">
         <is>
-          <t>0.25</t>
+          <t>0.50</t>
         </is>
       </c>
       <c r="K115" t="inlineStr"/>
@@ -6001,12 +6001,12 @@
       <c r="A116" t="inlineStr"/>
       <c r="B116" t="inlineStr">
         <is>
-          <t>Kirkland, Georgina</t>
+          <t>Kelley, Elise</t>
         </is>
       </c>
       <c r="C116" t="inlineStr">
         <is>
-          <t>07/20/2023</t>
+          <t>07/23/2023</t>
         </is>
       </c>
       <c r="D116" t="inlineStr"/>
@@ -6022,18 +6022,18 @@
       </c>
       <c r="G116" t="inlineStr">
         <is>
-          <t>07/20/2023 18:13</t>
+          <t>07/23/2023 19:00</t>
         </is>
       </c>
       <c r="H116" t="inlineStr">
         <is>
-          <t>07/20/2023 07:16</t>
+          <t>07/23/2023 07:00</t>
         </is>
       </c>
       <c r="I116" t="inlineStr"/>
       <c r="J116" t="inlineStr">
         <is>
-          <t>13.00</t>
+          <t>12.00</t>
         </is>
       </c>
       <c r="K116" t="inlineStr"/>
@@ -6049,12 +6049,12 @@
       <c r="A117" t="inlineStr"/>
       <c r="B117" t="inlineStr">
         <is>
-          <t>Kirkland, Georgina</t>
+          <t>Kelley, Elise</t>
         </is>
       </c>
       <c r="C117" t="inlineStr">
         <is>
-          <t>07/21/2023</t>
+          <t>07/23/2023</t>
         </is>
       </c>
       <c r="D117" t="inlineStr"/>
@@ -6070,18 +6070,18 @@
       </c>
       <c r="G117" t="inlineStr">
         <is>
-          <t>07/21/2023 18:41</t>
+          <t>07/23/2023 07:00</t>
         </is>
       </c>
       <c r="H117" t="inlineStr">
         <is>
-          <t>07/21/2023 00:25</t>
+          <t>07/23/2023 07:30</t>
         </is>
       </c>
       <c r="I117" t="inlineStr"/>
       <c r="J117" t="inlineStr">
         <is>
-          <t>5.75</t>
+          <t>0.50</t>
         </is>
       </c>
       <c r="K117" t="inlineStr"/>
@@ -6097,12 +6097,12 @@
       <c r="A118" t="inlineStr"/>
       <c r="B118" t="inlineStr">
         <is>
-          <t>Kirkland, Georgina</t>
+          <t>Kelley, Elise</t>
         </is>
       </c>
       <c r="C118" t="inlineStr">
         <is>
-          <t>07/21/2023</t>
+          <t>07/28/2023</t>
         </is>
       </c>
       <c r="D118" t="inlineStr"/>
@@ -6113,23 +6113,23 @@
       </c>
       <c r="F118" t="inlineStr">
         <is>
-          <t>Lunch</t>
+          <t>Work</t>
         </is>
       </c>
       <c r="G118" t="inlineStr">
         <is>
-          <t>07/21/2023 00:25</t>
+          <t>07/28/2023 18:30</t>
         </is>
       </c>
       <c r="H118" t="inlineStr">
         <is>
-          <t>07/21/2023 00:53</t>
+          <t>07/28/2023 19:00</t>
         </is>
       </c>
       <c r="I118" t="inlineStr"/>
       <c r="J118" t="inlineStr">
         <is>
-          <t>0.00</t>
+          <t>0.50</t>
         </is>
       </c>
       <c r="K118" t="inlineStr"/>
@@ -6145,12 +6145,12 @@
       <c r="A119" t="inlineStr"/>
       <c r="B119" t="inlineStr">
         <is>
-          <t>Kirkland, Georgina</t>
+          <t>Kelley, Elise</t>
         </is>
       </c>
       <c r="C119" t="inlineStr">
         <is>
-          <t>07/21/2023</t>
+          <t>07/28/2023</t>
         </is>
       </c>
       <c r="D119" t="inlineStr"/>
@@ -6166,18 +6166,18 @@
       </c>
       <c r="G119" t="inlineStr">
         <is>
-          <t>07/21/2023 00:53</t>
+          <t>07/28/2023 19:00</t>
         </is>
       </c>
       <c r="H119" t="inlineStr">
         <is>
-          <t>07/21/2023 07:19</t>
+          <t>07/28/2023 07:00</t>
         </is>
       </c>
       <c r="I119" t="inlineStr"/>
       <c r="J119" t="inlineStr">
         <is>
-          <t>6.25</t>
+          <t>12.00</t>
         </is>
       </c>
       <c r="K119" t="inlineStr"/>
@@ -6193,12 +6193,12 @@
       <c r="A120" t="inlineStr"/>
       <c r="B120" t="inlineStr">
         <is>
-          <t>Kirkland, Georgina</t>
+          <t>Kelley, Elise</t>
         </is>
       </c>
       <c r="C120" t="inlineStr">
         <is>
-          <t>07/22/2023</t>
+          <t>07/28/2023</t>
         </is>
       </c>
       <c r="D120" t="inlineStr"/>
@@ -6214,18 +6214,18 @@
       </c>
       <c r="G120" t="inlineStr">
         <is>
-          <t>07/22/2023 18:40</t>
+          <t>07/28/2023 07:00</t>
         </is>
       </c>
       <c r="H120" t="inlineStr">
         <is>
-          <t>07/22/2023 07:19</t>
+          <t>07/28/2023 07:15</t>
         </is>
       </c>
       <c r="I120" t="inlineStr"/>
       <c r="J120" t="inlineStr">
         <is>
-          <t>12.50</t>
+          <t>0.25</t>
         </is>
       </c>
       <c r="K120" t="inlineStr"/>
@@ -6241,12 +6241,12 @@
       <c r="A121" t="inlineStr"/>
       <c r="B121" t="inlineStr">
         <is>
-          <t>Kirkland, Georgina</t>
+          <t>Kelley, Elise</t>
         </is>
       </c>
       <c r="C121" t="inlineStr">
         <is>
-          <t>07/26/2023</t>
+          <t>07/29/2023</t>
         </is>
       </c>
       <c r="D121" t="inlineStr"/>
@@ -6262,18 +6262,18 @@
       </c>
       <c r="G121" t="inlineStr">
         <is>
-          <t>07/26/2023 18:38</t>
+          <t>07/29/2023 18:30</t>
         </is>
       </c>
       <c r="H121" t="inlineStr">
         <is>
-          <t>07/26/2023 07:11</t>
+          <t>07/29/2023 19:00</t>
         </is>
       </c>
       <c r="I121" t="inlineStr"/>
       <c r="J121" t="inlineStr">
         <is>
-          <t>12.50</t>
+          <t>0.50</t>
         </is>
       </c>
       <c r="K121" t="inlineStr"/>
@@ -6289,12 +6289,12 @@
       <c r="A122" t="inlineStr"/>
       <c r="B122" t="inlineStr">
         <is>
-          <t>Kirkland, Georgina</t>
+          <t>Kelley, Elise</t>
         </is>
       </c>
       <c r="C122" t="inlineStr">
         <is>
-          <t>07/27/2023</t>
+          <t>07/29/2023</t>
         </is>
       </c>
       <c r="D122" t="inlineStr"/>
@@ -6310,18 +6310,18 @@
       </c>
       <c r="G122" t="inlineStr">
         <is>
-          <t>07/27/2023 18:31</t>
+          <t>07/29/2023 19:00</t>
         </is>
       </c>
       <c r="H122" t="inlineStr">
         <is>
-          <t>07/27/2023 07:19</t>
+          <t>07/29/2023 07:00</t>
         </is>
       </c>
       <c r="I122" t="inlineStr"/>
       <c r="J122" t="inlineStr">
         <is>
-          <t>12.75</t>
+          <t>12.00</t>
         </is>
       </c>
       <c r="K122" t="inlineStr"/>
@@ -6337,12 +6337,12 @@
       <c r="A123" t="inlineStr"/>
       <c r="B123" t="inlineStr">
         <is>
-          <t>Kirkland, Georgina</t>
+          <t>Kelley, Elise</t>
         </is>
       </c>
       <c r="C123" t="inlineStr">
         <is>
-          <t>07/28/2023</t>
+          <t>07/29/2023</t>
         </is>
       </c>
       <c r="D123" t="inlineStr"/>
@@ -6358,18 +6358,18 @@
       </c>
       <c r="G123" t="inlineStr">
         <is>
-          <t>07/28/2023 18:44</t>
+          <t>07/29/2023 07:00</t>
         </is>
       </c>
       <c r="H123" t="inlineStr">
         <is>
-          <t>07/28/2023 07:13</t>
+          <t>07/29/2023 07:15</t>
         </is>
       </c>
       <c r="I123" t="inlineStr"/>
       <c r="J123" t="inlineStr">
         <is>
-          <t>12.50</t>
+          <t>0.25</t>
         </is>
       </c>
       <c r="K123" t="inlineStr"/>
@@ -6385,18 +6385,18 @@
       <c r="A124" t="inlineStr"/>
       <c r="B124" t="inlineStr">
         <is>
-          <t>Troxell, Holly</t>
+          <t>Kirkland, Georgina</t>
         </is>
       </c>
       <c r="C124" t="inlineStr">
         <is>
-          <t>07/17/2023</t>
+          <t>07/20/2023</t>
         </is>
       </c>
       <c r="D124" t="inlineStr"/>
       <c r="E124" t="inlineStr">
         <is>
-          <t>622011</t>
+          <t>622511</t>
         </is>
       </c>
       <c r="F124" t="inlineStr">
@@ -6406,18 +6406,18 @@
       </c>
       <c r="G124" t="inlineStr">
         <is>
-          <t>07/17/2023 18:45</t>
+          <t>07/20/2023 18:13</t>
         </is>
       </c>
       <c r="H124" t="inlineStr">
         <is>
-          <t>07/17/2023 19:00</t>
+          <t>07/20/2023 07:16</t>
         </is>
       </c>
       <c r="I124" t="inlineStr"/>
       <c r="J124" t="inlineStr">
         <is>
-          <t>0.25</t>
+          <t>13.00</t>
         </is>
       </c>
       <c r="K124" t="inlineStr"/>
@@ -6433,18 +6433,18 @@
       <c r="A125" t="inlineStr"/>
       <c r="B125" t="inlineStr">
         <is>
-          <t>Troxell, Holly</t>
+          <t>Kirkland, Georgina</t>
         </is>
       </c>
       <c r="C125" t="inlineStr">
         <is>
-          <t>07/17/2023</t>
+          <t>07/21/2023</t>
         </is>
       </c>
       <c r="D125" t="inlineStr"/>
       <c r="E125" t="inlineStr">
         <is>
-          <t>622011</t>
+          <t>622511</t>
         </is>
       </c>
       <c r="F125" t="inlineStr">
@@ -6454,18 +6454,18 @@
       </c>
       <c r="G125" t="inlineStr">
         <is>
-          <t>07/17/2023 19:00</t>
+          <t>07/21/2023 18:41</t>
         </is>
       </c>
       <c r="H125" t="inlineStr">
         <is>
-          <t>07/17/2023 04:15</t>
+          <t>07/21/2023 00:25</t>
         </is>
       </c>
       <c r="I125" t="inlineStr"/>
       <c r="J125" t="inlineStr">
         <is>
-          <t>9.25</t>
+          <t>5.75</t>
         </is>
       </c>
       <c r="K125" t="inlineStr"/>
@@ -6481,18 +6481,18 @@
       <c r="A126" t="inlineStr"/>
       <c r="B126" t="inlineStr">
         <is>
-          <t>Troxell, Holly</t>
+          <t>Kirkland, Georgina</t>
         </is>
       </c>
       <c r="C126" t="inlineStr">
         <is>
-          <t>07/17/2023</t>
+          <t>07/21/2023</t>
         </is>
       </c>
       <c r="D126" t="inlineStr"/>
       <c r="E126" t="inlineStr">
         <is>
-          <t>622011</t>
+          <t>622511</t>
         </is>
       </c>
       <c r="F126" t="inlineStr">
@@ -6502,12 +6502,12 @@
       </c>
       <c r="G126" t="inlineStr">
         <is>
-          <t>07/17/2023 04:20</t>
+          <t>07/21/2023 00:25</t>
         </is>
       </c>
       <c r="H126" t="inlineStr">
         <is>
-          <t>07/17/2023 04:50</t>
+          <t>07/21/2023 00:53</t>
         </is>
       </c>
       <c r="I126" t="inlineStr"/>
@@ -6529,18 +6529,18 @@
       <c r="A127" t="inlineStr"/>
       <c r="B127" t="inlineStr">
         <is>
-          <t>Troxell, Holly</t>
+          <t>Kirkland, Georgina</t>
         </is>
       </c>
       <c r="C127" t="inlineStr">
         <is>
-          <t>07/17/2023</t>
+          <t>07/21/2023</t>
         </is>
       </c>
       <c r="D127" t="inlineStr"/>
       <c r="E127" t="inlineStr">
         <is>
-          <t>622011</t>
+          <t>622511</t>
         </is>
       </c>
       <c r="F127" t="inlineStr">
@@ -6550,18 +6550,18 @@
       </c>
       <c r="G127" t="inlineStr">
         <is>
-          <t>07/17/2023 04:45</t>
+          <t>07/21/2023 00:53</t>
         </is>
       </c>
       <c r="H127" t="inlineStr">
         <is>
-          <t>07/17/2023 07:00</t>
+          <t>07/21/2023 07:19</t>
         </is>
       </c>
       <c r="I127" t="inlineStr"/>
       <c r="J127" t="inlineStr">
         <is>
-          <t>2.25</t>
+          <t>6.25</t>
         </is>
       </c>
       <c r="K127" t="inlineStr"/>
@@ -6577,18 +6577,18 @@
       <c r="A128" t="inlineStr"/>
       <c r="B128" t="inlineStr">
         <is>
-          <t>Troxell, Holly</t>
+          <t>Kirkland, Georgina</t>
         </is>
       </c>
       <c r="C128" t="inlineStr">
         <is>
-          <t>07/17/2023</t>
+          <t>07/22/2023</t>
         </is>
       </c>
       <c r="D128" t="inlineStr"/>
       <c r="E128" t="inlineStr">
         <is>
-          <t>622011</t>
+          <t>622511</t>
         </is>
       </c>
       <c r="F128" t="inlineStr">
@@ -6598,18 +6598,18 @@
       </c>
       <c r="G128" t="inlineStr">
         <is>
-          <t>07/17/2023 07:00</t>
+          <t>07/22/2023 18:40</t>
         </is>
       </c>
       <c r="H128" t="inlineStr">
         <is>
-          <t>07/17/2023 07:30</t>
+          <t>07/22/2023 07:19</t>
         </is>
       </c>
       <c r="I128" t="inlineStr"/>
       <c r="J128" t="inlineStr">
         <is>
-          <t>0.50</t>
+          <t>12.50</t>
         </is>
       </c>
       <c r="K128" t="inlineStr"/>
@@ -6625,18 +6625,18 @@
       <c r="A129" t="inlineStr"/>
       <c r="B129" t="inlineStr">
         <is>
-          <t>Troxell, Holly</t>
+          <t>Kirkland, Georgina</t>
         </is>
       </c>
       <c r="C129" t="inlineStr">
         <is>
-          <t>07/18/2023</t>
+          <t>07/26/2023</t>
         </is>
       </c>
       <c r="D129" t="inlineStr"/>
       <c r="E129" t="inlineStr">
         <is>
-          <t>622011</t>
+          <t>622511</t>
         </is>
       </c>
       <c r="F129" t="inlineStr">
@@ -6646,18 +6646,18 @@
       </c>
       <c r="G129" t="inlineStr">
         <is>
-          <t>07/18/2023 18:45</t>
+          <t>07/26/2023 18:38</t>
         </is>
       </c>
       <c r="H129" t="inlineStr">
         <is>
-          <t>07/18/2023 19:00</t>
+          <t>07/26/2023 07:11</t>
         </is>
       </c>
       <c r="I129" t="inlineStr"/>
       <c r="J129" t="inlineStr">
         <is>
-          <t>0.25</t>
+          <t>12.50</t>
         </is>
       </c>
       <c r="K129" t="inlineStr"/>
@@ -6673,18 +6673,18 @@
       <c r="A130" t="inlineStr"/>
       <c r="B130" t="inlineStr">
         <is>
-          <t>Troxell, Holly</t>
+          <t>Kirkland, Georgina</t>
         </is>
       </c>
       <c r="C130" t="inlineStr">
         <is>
-          <t>07/18/2023</t>
+          <t>07/27/2023</t>
         </is>
       </c>
       <c r="D130" t="inlineStr"/>
       <c r="E130" t="inlineStr">
         <is>
-          <t>622011</t>
+          <t>622511</t>
         </is>
       </c>
       <c r="F130" t="inlineStr">
@@ -6694,18 +6694,18 @@
       </c>
       <c r="G130" t="inlineStr">
         <is>
-          <t>07/18/2023 19:00</t>
+          <t>07/27/2023 18:31</t>
         </is>
       </c>
       <c r="H130" t="inlineStr">
         <is>
-          <t>07/18/2023 07:00</t>
+          <t>07/27/2023 07:19</t>
         </is>
       </c>
       <c r="I130" t="inlineStr"/>
       <c r="J130" t="inlineStr">
         <is>
-          <t>12.00</t>
+          <t>12.75</t>
         </is>
       </c>
       <c r="K130" t="inlineStr"/>
@@ -6721,18 +6721,18 @@
       <c r="A131" t="inlineStr"/>
       <c r="B131" t="inlineStr">
         <is>
-          <t>Troxell, Holly</t>
+          <t>Kirkland, Georgina</t>
         </is>
       </c>
       <c r="C131" t="inlineStr">
         <is>
-          <t>07/18/2023</t>
+          <t>07/28/2023</t>
         </is>
       </c>
       <c r="D131" t="inlineStr"/>
       <c r="E131" t="inlineStr">
         <is>
-          <t>622011</t>
+          <t>622511</t>
         </is>
       </c>
       <c r="F131" t="inlineStr">
@@ -6742,18 +6742,18 @@
       </c>
       <c r="G131" t="inlineStr">
         <is>
-          <t>07/18/2023 07:00</t>
+          <t>07/28/2023 18:44</t>
         </is>
       </c>
       <c r="H131" t="inlineStr">
         <is>
-          <t>07/18/2023 07:15</t>
+          <t>07/28/2023 07:13</t>
         </is>
       </c>
       <c r="I131" t="inlineStr"/>
       <c r="J131" t="inlineStr">
         <is>
-          <t>0.25</t>
+          <t>12.50</t>
         </is>
       </c>
       <c r="K131" t="inlineStr"/>
@@ -6774,7 +6774,7 @@
       </c>
       <c r="C132" t="inlineStr">
         <is>
-          <t>07/19/2023</t>
+          <t>07/17/2023</t>
         </is>
       </c>
       <c r="D132" t="inlineStr"/>
@@ -6790,18 +6790,18 @@
       </c>
       <c r="G132" t="inlineStr">
         <is>
-          <t>07/19/2023 18:30</t>
+          <t>07/17/2023 18:45</t>
         </is>
       </c>
       <c r="H132" t="inlineStr">
         <is>
-          <t>07/19/2023 19:00</t>
+          <t>07/17/2023 19:00</t>
         </is>
       </c>
       <c r="I132" t="inlineStr"/>
       <c r="J132" t="inlineStr">
         <is>
-          <t>0.50</t>
+          <t>0.25</t>
         </is>
       </c>
       <c r="K132" t="inlineStr"/>
@@ -6822,7 +6822,7 @@
       </c>
       <c r="C133" t="inlineStr">
         <is>
-          <t>07/19/2023</t>
+          <t>07/17/2023</t>
         </is>
       </c>
       <c r="D133" t="inlineStr"/>
@@ -6838,18 +6838,18 @@
       </c>
       <c r="G133" t="inlineStr">
         <is>
-          <t>07/19/2023 19:00</t>
+          <t>07/17/2023 19:00</t>
         </is>
       </c>
       <c r="H133" t="inlineStr">
         <is>
-          <t>07/19/2023 02:45</t>
+          <t>07/17/2023 04:15</t>
         </is>
       </c>
       <c r="I133" t="inlineStr"/>
       <c r="J133" t="inlineStr">
         <is>
-          <t>7.75</t>
+          <t>9.25</t>
         </is>
       </c>
       <c r="K133" t="inlineStr"/>
@@ -6870,7 +6870,7 @@
       </c>
       <c r="C134" t="inlineStr">
         <is>
-          <t>07/19/2023</t>
+          <t>07/17/2023</t>
         </is>
       </c>
       <c r="D134" t="inlineStr"/>
@@ -6886,12 +6886,12 @@
       </c>
       <c r="G134" t="inlineStr">
         <is>
-          <t>07/19/2023 02:50</t>
+          <t>07/17/2023 04:20</t>
         </is>
       </c>
       <c r="H134" t="inlineStr">
         <is>
-          <t>07/19/2023 03:20</t>
+          <t>07/17/2023 04:50</t>
         </is>
       </c>
       <c r="I134" t="inlineStr"/>
@@ -6918,7 +6918,7 @@
       </c>
       <c r="C135" t="inlineStr">
         <is>
-          <t>07/19/2023</t>
+          <t>07/17/2023</t>
         </is>
       </c>
       <c r="D135" t="inlineStr"/>
@@ -6934,18 +6934,18 @@
       </c>
       <c r="G135" t="inlineStr">
         <is>
-          <t>07/19/2023 03:15</t>
+          <t>07/17/2023 04:45</t>
         </is>
       </c>
       <c r="H135" t="inlineStr">
         <is>
-          <t>07/19/2023 07:00</t>
+          <t>07/17/2023 07:00</t>
         </is>
       </c>
       <c r="I135" t="inlineStr"/>
       <c r="J135" t="inlineStr">
         <is>
-          <t>3.75</t>
+          <t>2.25</t>
         </is>
       </c>
       <c r="K135" t="inlineStr"/>
@@ -6966,7 +6966,7 @@
       </c>
       <c r="C136" t="inlineStr">
         <is>
-          <t>07/19/2023</t>
+          <t>07/17/2023</t>
         </is>
       </c>
       <c r="D136" t="inlineStr"/>
@@ -6982,12 +6982,12 @@
       </c>
       <c r="G136" t="inlineStr">
         <is>
-          <t>07/19/2023 07:00</t>
+          <t>07/17/2023 07:00</t>
         </is>
       </c>
       <c r="H136" t="inlineStr">
         <is>
-          <t>07/19/2023 07:30</t>
+          <t>07/17/2023 07:30</t>
         </is>
       </c>
       <c r="I136" t="inlineStr"/>
@@ -7014,7 +7014,7 @@
       </c>
       <c r="C137" t="inlineStr">
         <is>
-          <t>07/25/2023</t>
+          <t>07/18/2023</t>
         </is>
       </c>
       <c r="D137" t="inlineStr"/>
@@ -7030,12 +7030,12 @@
       </c>
       <c r="G137" t="inlineStr">
         <is>
-          <t>07/25/2023 18:45</t>
+          <t>07/18/2023 18:45</t>
         </is>
       </c>
       <c r="H137" t="inlineStr">
         <is>
-          <t>07/25/2023 19:00</t>
+          <t>07/18/2023 19:00</t>
         </is>
       </c>
       <c r="I137" t="inlineStr"/>
@@ -7062,7 +7062,7 @@
       </c>
       <c r="C138" t="inlineStr">
         <is>
-          <t>07/25/2023</t>
+          <t>07/18/2023</t>
         </is>
       </c>
       <c r="D138" t="inlineStr"/>
@@ -7078,18 +7078,18 @@
       </c>
       <c r="G138" t="inlineStr">
         <is>
-          <t>07/25/2023 19:00</t>
+          <t>07/18/2023 19:00</t>
         </is>
       </c>
       <c r="H138" t="inlineStr">
         <is>
-          <t>07/25/2023 05:00</t>
+          <t>07/18/2023 07:00</t>
         </is>
       </c>
       <c r="I138" t="inlineStr"/>
       <c r="J138" t="inlineStr">
         <is>
-          <t>10.00</t>
+          <t>12.00</t>
         </is>
       </c>
       <c r="K138" t="inlineStr"/>
@@ -7110,7 +7110,7 @@
       </c>
       <c r="C139" t="inlineStr">
         <is>
-          <t>07/25/2023</t>
+          <t>07/18/2023</t>
         </is>
       </c>
       <c r="D139" t="inlineStr"/>
@@ -7121,23 +7121,23 @@
       </c>
       <c r="F139" t="inlineStr">
         <is>
-          <t>Lunch</t>
+          <t>Work</t>
         </is>
       </c>
       <c r="G139" t="inlineStr">
         <is>
-          <t>07/25/2023 05:01</t>
+          <t>07/18/2023 07:00</t>
         </is>
       </c>
       <c r="H139" t="inlineStr">
         <is>
-          <t>07/25/2023 05:31</t>
+          <t>07/18/2023 07:15</t>
         </is>
       </c>
       <c r="I139" t="inlineStr"/>
       <c r="J139" t="inlineStr">
         <is>
-          <t>0.00</t>
+          <t>0.25</t>
         </is>
       </c>
       <c r="K139" t="inlineStr"/>
@@ -7158,7 +7158,7 @@
       </c>
       <c r="C140" t="inlineStr">
         <is>
-          <t>07/25/2023</t>
+          <t>07/19/2023</t>
         </is>
       </c>
       <c r="D140" t="inlineStr"/>
@@ -7174,18 +7174,18 @@
       </c>
       <c r="G140" t="inlineStr">
         <is>
-          <t>07/25/2023 05:30</t>
+          <t>07/19/2023 18:30</t>
         </is>
       </c>
       <c r="H140" t="inlineStr">
         <is>
-          <t>07/25/2023 07:00</t>
+          <t>07/19/2023 19:00</t>
         </is>
       </c>
       <c r="I140" t="inlineStr"/>
       <c r="J140" t="inlineStr">
         <is>
-          <t>1.50</t>
+          <t>0.50</t>
         </is>
       </c>
       <c r="K140" t="inlineStr"/>
@@ -7206,7 +7206,7 @@
       </c>
       <c r="C141" t="inlineStr">
         <is>
-          <t>07/25/2023</t>
+          <t>07/19/2023</t>
         </is>
       </c>
       <c r="D141" t="inlineStr"/>
@@ -7222,18 +7222,18 @@
       </c>
       <c r="G141" t="inlineStr">
         <is>
-          <t>07/25/2023 07:00</t>
+          <t>07/19/2023 19:00</t>
         </is>
       </c>
       <c r="H141" t="inlineStr">
         <is>
-          <t>07/25/2023 07:30</t>
+          <t>07/19/2023 02:45</t>
         </is>
       </c>
       <c r="I141" t="inlineStr"/>
       <c r="J141" t="inlineStr">
         <is>
-          <t>0.50</t>
+          <t>7.75</t>
         </is>
       </c>
       <c r="K141" t="inlineStr"/>
@@ -7254,7 +7254,7 @@
       </c>
       <c r="C142" t="inlineStr">
         <is>
-          <t>07/26/2023</t>
+          <t>07/19/2023</t>
         </is>
       </c>
       <c r="D142" t="inlineStr"/>
@@ -7265,23 +7265,23 @@
       </c>
       <c r="F142" t="inlineStr">
         <is>
-          <t>Work</t>
+          <t>Lunch</t>
         </is>
       </c>
       <c r="G142" t="inlineStr">
         <is>
-          <t>07/26/2023 18:45</t>
+          <t>07/19/2023 02:50</t>
         </is>
       </c>
       <c r="H142" t="inlineStr">
         <is>
-          <t>07/26/2023 19:00</t>
+          <t>07/19/2023 03:20</t>
         </is>
       </c>
       <c r="I142" t="inlineStr"/>
       <c r="J142" t="inlineStr">
         <is>
-          <t>0.25</t>
+          <t>0.00</t>
         </is>
       </c>
       <c r="K142" t="inlineStr"/>
@@ -7302,7 +7302,7 @@
       </c>
       <c r="C143" t="inlineStr">
         <is>
-          <t>07/26/2023</t>
+          <t>07/19/2023</t>
         </is>
       </c>
       <c r="D143" t="inlineStr"/>
@@ -7318,18 +7318,18 @@
       </c>
       <c r="G143" t="inlineStr">
         <is>
-          <t>07/26/2023 19:00</t>
+          <t>07/19/2023 03:15</t>
         </is>
       </c>
       <c r="H143" t="inlineStr">
         <is>
-          <t>07/26/2023 04:15</t>
+          <t>07/19/2023 07:00</t>
         </is>
       </c>
       <c r="I143" t="inlineStr"/>
       <c r="J143" t="inlineStr">
         <is>
-          <t>9.25</t>
+          <t>3.75</t>
         </is>
       </c>
       <c r="K143" t="inlineStr"/>
@@ -7350,7 +7350,7 @@
       </c>
       <c r="C144" t="inlineStr">
         <is>
-          <t>07/26/2023</t>
+          <t>07/19/2023</t>
         </is>
       </c>
       <c r="D144" t="inlineStr"/>
@@ -7361,23 +7361,23 @@
       </c>
       <c r="F144" t="inlineStr">
         <is>
-          <t>Lunch</t>
+          <t>Work</t>
         </is>
       </c>
       <c r="G144" t="inlineStr">
         <is>
-          <t>07/26/2023 04:10</t>
+          <t>07/19/2023 07:00</t>
         </is>
       </c>
       <c r="H144" t="inlineStr">
         <is>
-          <t>07/26/2023 04:40</t>
+          <t>07/19/2023 07:30</t>
         </is>
       </c>
       <c r="I144" t="inlineStr"/>
       <c r="J144" t="inlineStr">
         <is>
-          <t>0.00</t>
+          <t>0.50</t>
         </is>
       </c>
       <c r="K144" t="inlineStr"/>
@@ -7398,7 +7398,7 @@
       </c>
       <c r="C145" t="inlineStr">
         <is>
-          <t>07/26/2023</t>
+          <t>07/25/2023</t>
         </is>
       </c>
       <c r="D145" t="inlineStr"/>
@@ -7414,18 +7414,18 @@
       </c>
       <c r="G145" t="inlineStr">
         <is>
-          <t>07/26/2023 04:45</t>
+          <t>07/25/2023 18:45</t>
         </is>
       </c>
       <c r="H145" t="inlineStr">
         <is>
-          <t>07/26/2023 07:00</t>
+          <t>07/25/2023 19:00</t>
         </is>
       </c>
       <c r="I145" t="inlineStr"/>
       <c r="J145" t="inlineStr">
         <is>
-          <t>2.25</t>
+          <t>0.25</t>
         </is>
       </c>
       <c r="K145" t="inlineStr"/>
@@ -7446,7 +7446,7 @@
       </c>
       <c r="C146" t="inlineStr">
         <is>
-          <t>07/26/2023</t>
+          <t>07/25/2023</t>
         </is>
       </c>
       <c r="D146" t="inlineStr"/>
@@ -7462,18 +7462,18 @@
       </c>
       <c r="G146" t="inlineStr">
         <is>
-          <t>07/26/2023 07:00</t>
+          <t>07/25/2023 19:00</t>
         </is>
       </c>
       <c r="H146" t="inlineStr">
         <is>
-          <t>07/26/2023 07:30</t>
+          <t>07/25/2023 05:00</t>
         </is>
       </c>
       <c r="I146" t="inlineStr"/>
       <c r="J146" t="inlineStr">
         <is>
-          <t>0.50</t>
+          <t>10.00</t>
         </is>
       </c>
       <c r="K146" t="inlineStr"/>
@@ -7494,7 +7494,7 @@
       </c>
       <c r="C147" t="inlineStr">
         <is>
-          <t>07/29/2023</t>
+          <t>07/25/2023</t>
         </is>
       </c>
       <c r="D147" t="inlineStr"/>
@@ -7505,23 +7505,23 @@
       </c>
       <c r="F147" t="inlineStr">
         <is>
-          <t>Work</t>
+          <t>Lunch</t>
         </is>
       </c>
       <c r="G147" t="inlineStr">
         <is>
-          <t>07/29/2023 18:45</t>
+          <t>07/25/2023 05:01</t>
         </is>
       </c>
       <c r="H147" t="inlineStr">
         <is>
-          <t>07/29/2023 19:00</t>
+          <t>07/25/2023 05:31</t>
         </is>
       </c>
       <c r="I147" t="inlineStr"/>
       <c r="J147" t="inlineStr">
         <is>
-          <t>0.25</t>
+          <t>0.00</t>
         </is>
       </c>
       <c r="K147" t="inlineStr"/>
@@ -7542,7 +7542,7 @@
       </c>
       <c r="C148" t="inlineStr">
         <is>
-          <t>07/29/2023</t>
+          <t>07/25/2023</t>
         </is>
       </c>
       <c r="D148" t="inlineStr"/>
@@ -7558,18 +7558,18 @@
       </c>
       <c r="G148" t="inlineStr">
         <is>
-          <t>07/29/2023 19:00</t>
+          <t>07/25/2023 05:30</t>
         </is>
       </c>
       <c r="H148" t="inlineStr">
         <is>
-          <t>07/29/2023 03:00</t>
+          <t>07/25/2023 07:00</t>
         </is>
       </c>
       <c r="I148" t="inlineStr"/>
       <c r="J148" t="inlineStr">
         <is>
-          <t>8.00</t>
+          <t>1.50</t>
         </is>
       </c>
       <c r="K148" t="inlineStr"/>
@@ -7590,7 +7590,7 @@
       </c>
       <c r="C149" t="inlineStr">
         <is>
-          <t>07/29/2023</t>
+          <t>07/25/2023</t>
         </is>
       </c>
       <c r="D149" t="inlineStr"/>
@@ -7601,23 +7601,23 @@
       </c>
       <c r="F149" t="inlineStr">
         <is>
-          <t>Lunch</t>
+          <t>Work</t>
         </is>
       </c>
       <c r="G149" t="inlineStr">
         <is>
-          <t>07/29/2023 03:00</t>
+          <t>07/25/2023 07:00</t>
         </is>
       </c>
       <c r="H149" t="inlineStr">
         <is>
-          <t>07/29/2023 03:30</t>
+          <t>07/25/2023 07:30</t>
         </is>
       </c>
       <c r="I149" t="inlineStr"/>
       <c r="J149" t="inlineStr">
         <is>
-          <t>0.00</t>
+          <t>0.50</t>
         </is>
       </c>
       <c r="K149" t="inlineStr"/>
@@ -7638,7 +7638,7 @@
       </c>
       <c r="C150" t="inlineStr">
         <is>
-          <t>07/29/2023</t>
+          <t>07/26/2023</t>
         </is>
       </c>
       <c r="D150" t="inlineStr"/>
@@ -7654,18 +7654,18 @@
       </c>
       <c r="G150" t="inlineStr">
         <is>
-          <t>07/29/2023 03:30</t>
+          <t>07/26/2023 18:45</t>
         </is>
       </c>
       <c r="H150" t="inlineStr">
         <is>
-          <t>07/29/2023 07:00</t>
+          <t>07/26/2023 19:00</t>
         </is>
       </c>
       <c r="I150" t="inlineStr"/>
       <c r="J150" t="inlineStr">
         <is>
-          <t>3.50</t>
+          <t>0.25</t>
         </is>
       </c>
       <c r="K150" t="inlineStr"/>
@@ -7686,7 +7686,7 @@
       </c>
       <c r="C151" t="inlineStr">
         <is>
-          <t>07/29/2023</t>
+          <t>07/26/2023</t>
         </is>
       </c>
       <c r="D151" t="inlineStr"/>
@@ -7702,18 +7702,18 @@
       </c>
       <c r="G151" t="inlineStr">
         <is>
-          <t>07/29/2023 07:00</t>
+          <t>07/26/2023 19:00</t>
         </is>
       </c>
       <c r="H151" t="inlineStr">
         <is>
-          <t>07/29/2023 07:30</t>
+          <t>07/26/2023 04:15</t>
         </is>
       </c>
       <c r="I151" t="inlineStr"/>
       <c r="J151" t="inlineStr">
         <is>
-          <t>0.50</t>
+          <t>9.25</t>
         </is>
       </c>
       <c r="K151" t="inlineStr"/>
@@ -7729,39 +7729,39 @@
       <c r="A152" t="inlineStr"/>
       <c r="B152" t="inlineStr">
         <is>
-          <t>Kennedy, Jason</t>
+          <t>Troxell, Holly</t>
         </is>
       </c>
       <c r="C152" t="inlineStr">
         <is>
-          <t>07/17/2023</t>
+          <t>07/26/2023</t>
         </is>
       </c>
       <c r="D152" t="inlineStr"/>
       <c r="E152" t="inlineStr">
         <is>
-          <t>631011</t>
+          <t>622011</t>
         </is>
       </c>
       <c r="F152" t="inlineStr">
         <is>
-          <t>Work</t>
+          <t>Lunch</t>
         </is>
       </c>
       <c r="G152" t="inlineStr">
         <is>
-          <t>07/17/2023 06:45</t>
+          <t>07/26/2023 04:10</t>
         </is>
       </c>
       <c r="H152" t="inlineStr">
         <is>
-          <t>07/17/2023 07:00</t>
+          <t>07/26/2023 04:40</t>
         </is>
       </c>
       <c r="I152" t="inlineStr"/>
       <c r="J152" t="inlineStr">
         <is>
-          <t>0.25</t>
+          <t>0.00</t>
         </is>
       </c>
       <c r="K152" t="inlineStr"/>
@@ -7777,18 +7777,18 @@
       <c r="A153" t="inlineStr"/>
       <c r="B153" t="inlineStr">
         <is>
-          <t>Kennedy, Jason</t>
+          <t>Troxell, Holly</t>
         </is>
       </c>
       <c r="C153" t="inlineStr">
         <is>
-          <t>07/17/2023</t>
+          <t>07/26/2023</t>
         </is>
       </c>
       <c r="D153" t="inlineStr"/>
       <c r="E153" t="inlineStr">
         <is>
-          <t>631011</t>
+          <t>622011</t>
         </is>
       </c>
       <c r="F153" t="inlineStr">
@@ -7798,18 +7798,18 @@
       </c>
       <c r="G153" t="inlineStr">
         <is>
-          <t>07/17/2023 07:00</t>
+          <t>07/26/2023 04:45</t>
         </is>
       </c>
       <c r="H153" t="inlineStr">
         <is>
-          <t>07/17/2023 19:00</t>
+          <t>07/26/2023 07:00</t>
         </is>
       </c>
       <c r="I153" t="inlineStr"/>
       <c r="J153" t="inlineStr">
         <is>
-          <t>12.00</t>
+          <t>2.25</t>
         </is>
       </c>
       <c r="K153" t="inlineStr"/>
@@ -7825,18 +7825,18 @@
       <c r="A154" t="inlineStr"/>
       <c r="B154" t="inlineStr">
         <is>
-          <t>Kennedy, Jason</t>
+          <t>Troxell, Holly</t>
         </is>
       </c>
       <c r="C154" t="inlineStr">
         <is>
-          <t>07/18/2023</t>
+          <t>07/26/2023</t>
         </is>
       </c>
       <c r="D154" t="inlineStr"/>
       <c r="E154" t="inlineStr">
         <is>
-          <t>631011</t>
+          <t>622011</t>
         </is>
       </c>
       <c r="F154" t="inlineStr">
@@ -7846,18 +7846,18 @@
       </c>
       <c r="G154" t="inlineStr">
         <is>
-          <t>07/18/2023 06:45</t>
+          <t>07/26/2023 07:00</t>
         </is>
       </c>
       <c r="H154" t="inlineStr">
         <is>
-          <t>07/18/2023 07:00</t>
+          <t>07/26/2023 07:30</t>
         </is>
       </c>
       <c r="I154" t="inlineStr"/>
       <c r="J154" t="inlineStr">
         <is>
-          <t>0.25</t>
+          <t>0.50</t>
         </is>
       </c>
       <c r="K154" t="inlineStr"/>
@@ -7873,18 +7873,18 @@
       <c r="A155" t="inlineStr"/>
       <c r="B155" t="inlineStr">
         <is>
-          <t>Kennedy, Jason</t>
+          <t>Troxell, Holly</t>
         </is>
       </c>
       <c r="C155" t="inlineStr">
         <is>
-          <t>07/18/2023</t>
+          <t>07/29/2023</t>
         </is>
       </c>
       <c r="D155" t="inlineStr"/>
       <c r="E155" t="inlineStr">
         <is>
-          <t>631011</t>
+          <t>622011</t>
         </is>
       </c>
       <c r="F155" t="inlineStr">
@@ -7894,18 +7894,18 @@
       </c>
       <c r="G155" t="inlineStr">
         <is>
-          <t>07/18/2023 07:00</t>
+          <t>07/29/2023 18:45</t>
         </is>
       </c>
       <c r="H155" t="inlineStr">
         <is>
-          <t>07/18/2023 19:00</t>
+          <t>07/29/2023 19:00</t>
         </is>
       </c>
       <c r="I155" t="inlineStr"/>
       <c r="J155" t="inlineStr">
         <is>
-          <t>12.00</t>
+          <t>0.25</t>
         </is>
       </c>
       <c r="K155" t="inlineStr"/>
@@ -7921,18 +7921,18 @@
       <c r="A156" t="inlineStr"/>
       <c r="B156" t="inlineStr">
         <is>
-          <t>Kennedy, Jason</t>
+          <t>Troxell, Holly</t>
         </is>
       </c>
       <c r="C156" t="inlineStr">
         <is>
-          <t>07/19/2023</t>
+          <t>07/29/2023</t>
         </is>
       </c>
       <c r="D156" t="inlineStr"/>
       <c r="E156" t="inlineStr">
         <is>
-          <t>631011</t>
+          <t>622011</t>
         </is>
       </c>
       <c r="F156" t="inlineStr">
@@ -7942,18 +7942,18 @@
       </c>
       <c r="G156" t="inlineStr">
         <is>
-          <t>07/19/2023 08:45</t>
+          <t>07/29/2023 19:00</t>
         </is>
       </c>
       <c r="H156" t="inlineStr">
         <is>
-          <t>07/19/2023 19:00</t>
+          <t>07/29/2023 03:00</t>
         </is>
       </c>
       <c r="I156" t="inlineStr"/>
       <c r="J156" t="inlineStr">
         <is>
-          <t>10.25</t>
+          <t>8.00</t>
         </is>
       </c>
       <c r="K156" t="inlineStr"/>
@@ -7969,39 +7969,39 @@
       <c r="A157" t="inlineStr"/>
       <c r="B157" t="inlineStr">
         <is>
-          <t>Kennedy, Jason</t>
+          <t>Troxell, Holly</t>
         </is>
       </c>
       <c r="C157" t="inlineStr">
         <is>
-          <t>07/19/2023</t>
+          <t>07/29/2023</t>
         </is>
       </c>
       <c r="D157" t="inlineStr"/>
       <c r="E157" t="inlineStr">
         <is>
-          <t>631011</t>
+          <t>622011</t>
         </is>
       </c>
       <c r="F157" t="inlineStr">
         <is>
-          <t>Work</t>
+          <t>Lunch</t>
         </is>
       </c>
       <c r="G157" t="inlineStr">
         <is>
-          <t>07/19/2023 19:00</t>
+          <t>07/29/2023 03:00</t>
         </is>
       </c>
       <c r="H157" t="inlineStr">
         <is>
-          <t>07/19/2023 21:00</t>
+          <t>07/29/2023 03:30</t>
         </is>
       </c>
       <c r="I157" t="inlineStr"/>
       <c r="J157" t="inlineStr">
         <is>
-          <t>2.00</t>
+          <t>0.00</t>
         </is>
       </c>
       <c r="K157" t="inlineStr"/>
@@ -8017,18 +8017,18 @@
       <c r="A158" t="inlineStr"/>
       <c r="B158" t="inlineStr">
         <is>
-          <t>Kennedy, Jason</t>
+          <t>Troxell, Holly</t>
         </is>
       </c>
       <c r="C158" t="inlineStr">
         <is>
-          <t>07/24/2023</t>
+          <t>07/29/2023</t>
         </is>
       </c>
       <c r="D158" t="inlineStr"/>
       <c r="E158" t="inlineStr">
         <is>
-          <t>631011</t>
+          <t>622011</t>
         </is>
       </c>
       <c r="F158" t="inlineStr">
@@ -8038,18 +8038,18 @@
       </c>
       <c r="G158" t="inlineStr">
         <is>
-          <t>07/24/2023 06:45</t>
+          <t>07/29/2023 03:30</t>
         </is>
       </c>
       <c r="H158" t="inlineStr">
         <is>
-          <t>07/24/2023 07:00</t>
+          <t>07/29/2023 07:00</t>
         </is>
       </c>
       <c r="I158" t="inlineStr"/>
       <c r="J158" t="inlineStr">
         <is>
-          <t>0.25</t>
+          <t>3.50</t>
         </is>
       </c>
       <c r="K158" t="inlineStr"/>
@@ -8065,18 +8065,18 @@
       <c r="A159" t="inlineStr"/>
       <c r="B159" t="inlineStr">
         <is>
-          <t>Kennedy, Jason</t>
+          <t>Troxell, Holly</t>
         </is>
       </c>
       <c r="C159" t="inlineStr">
         <is>
-          <t>07/24/2023</t>
+          <t>07/29/2023</t>
         </is>
       </c>
       <c r="D159" t="inlineStr"/>
       <c r="E159" t="inlineStr">
         <is>
-          <t>631011</t>
+          <t>622011</t>
         </is>
       </c>
       <c r="F159" t="inlineStr">
@@ -8086,18 +8086,18 @@
       </c>
       <c r="G159" t="inlineStr">
         <is>
-          <t>07/24/2023 07:00</t>
+          <t>07/29/2023 07:00</t>
         </is>
       </c>
       <c r="H159" t="inlineStr">
         <is>
-          <t>07/24/2023 19:00</t>
+          <t>07/29/2023 07:30</t>
         </is>
       </c>
       <c r="I159" t="inlineStr"/>
       <c r="J159" t="inlineStr">
         <is>
-          <t>12.00</t>
+          <t>0.50</t>
         </is>
       </c>
       <c r="K159" t="inlineStr"/>
@@ -8118,7 +8118,7 @@
       </c>
       <c r="C160" t="inlineStr">
         <is>
-          <t>07/25/2023</t>
+          <t>07/17/2023</t>
         </is>
       </c>
       <c r="D160" t="inlineStr"/>
@@ -8134,12 +8134,12 @@
       </c>
       <c r="G160" t="inlineStr">
         <is>
-          <t>07/25/2023 06:45</t>
+          <t>07/17/2023 06:45</t>
         </is>
       </c>
       <c r="H160" t="inlineStr">
         <is>
-          <t>07/25/2023 07:00</t>
+          <t>07/17/2023 07:00</t>
         </is>
       </c>
       <c r="I160" t="inlineStr"/>
@@ -8166,7 +8166,7 @@
       </c>
       <c r="C161" t="inlineStr">
         <is>
-          <t>07/25/2023</t>
+          <t>07/17/2023</t>
         </is>
       </c>
       <c r="D161" t="inlineStr"/>
@@ -8182,18 +8182,18 @@
       </c>
       <c r="G161" t="inlineStr">
         <is>
-          <t>07/25/2023 07:00</t>
+          <t>07/17/2023 07:00</t>
         </is>
       </c>
       <c r="H161" t="inlineStr">
         <is>
-          <t>07/25/2023 16:45</t>
+          <t>07/17/2023 19:00</t>
         </is>
       </c>
       <c r="I161" t="inlineStr"/>
       <c r="J161" t="inlineStr">
         <is>
-          <t>9.75</t>
+          <t>12.00</t>
         </is>
       </c>
       <c r="K161" t="inlineStr"/>
@@ -8214,7 +8214,7 @@
       </c>
       <c r="C162" t="inlineStr">
         <is>
-          <t>07/26/2023</t>
+          <t>07/18/2023</t>
         </is>
       </c>
       <c r="D162" t="inlineStr"/>
@@ -8230,12 +8230,12 @@
       </c>
       <c r="G162" t="inlineStr">
         <is>
-          <t>07/26/2023 06:45</t>
+          <t>07/18/2023 06:45</t>
         </is>
       </c>
       <c r="H162" t="inlineStr">
         <is>
-          <t>07/26/2023 07:00</t>
+          <t>07/18/2023 07:00</t>
         </is>
       </c>
       <c r="I162" t="inlineStr"/>
@@ -8262,7 +8262,7 @@
       </c>
       <c r="C163" t="inlineStr">
         <is>
-          <t>07/26/2023</t>
+          <t>07/18/2023</t>
         </is>
       </c>
       <c r="D163" t="inlineStr"/>
@@ -8278,12 +8278,12 @@
       </c>
       <c r="G163" t="inlineStr">
         <is>
-          <t>07/26/2023 07:00</t>
+          <t>07/18/2023 07:00</t>
         </is>
       </c>
       <c r="H163" t="inlineStr">
         <is>
-          <t>07/26/2023 19:00</t>
+          <t>07/18/2023 19:00</t>
         </is>
       </c>
       <c r="I163" t="inlineStr"/>
@@ -8305,12 +8305,12 @@
       <c r="A164" t="inlineStr"/>
       <c r="B164" t="inlineStr">
         <is>
-          <t>Olinghouse, Josh</t>
+          <t>Kennedy, Jason</t>
         </is>
       </c>
       <c r="C164" t="inlineStr">
         <is>
-          <t>07/20/2023</t>
+          <t>07/19/2023</t>
         </is>
       </c>
       <c r="D164" t="inlineStr"/>
@@ -8326,18 +8326,18 @@
       </c>
       <c r="G164" t="inlineStr">
         <is>
-          <t>07/20/2023 18:30</t>
+          <t>07/19/2023 08:45</t>
         </is>
       </c>
       <c r="H164" t="inlineStr">
         <is>
-          <t>07/20/2023 19:00</t>
+          <t>07/19/2023 19:00</t>
         </is>
       </c>
       <c r="I164" t="inlineStr"/>
       <c r="J164" t="inlineStr">
         <is>
-          <t>0.50</t>
+          <t>10.25</t>
         </is>
       </c>
       <c r="K164" t="inlineStr"/>
@@ -8353,12 +8353,12 @@
       <c r="A165" t="inlineStr"/>
       <c r="B165" t="inlineStr">
         <is>
-          <t>Olinghouse, Josh</t>
+          <t>Kennedy, Jason</t>
         </is>
       </c>
       <c r="C165" t="inlineStr">
         <is>
-          <t>07/20/2023</t>
+          <t>07/19/2023</t>
         </is>
       </c>
       <c r="D165" t="inlineStr"/>
@@ -8374,18 +8374,18 @@
       </c>
       <c r="G165" t="inlineStr">
         <is>
-          <t>07/20/2023 19:00</t>
+          <t>07/19/2023 19:00</t>
         </is>
       </c>
       <c r="H165" t="inlineStr">
         <is>
-          <t>07/20/2023 06:45</t>
+          <t>07/19/2023 21:00</t>
         </is>
       </c>
       <c r="I165" t="inlineStr"/>
       <c r="J165" t="inlineStr">
         <is>
-          <t>11.75</t>
+          <t>2.00</t>
         </is>
       </c>
       <c r="K165" t="inlineStr"/>
@@ -8401,12 +8401,12 @@
       <c r="A166" t="inlineStr"/>
       <c r="B166" t="inlineStr">
         <is>
-          <t>Olinghouse, Josh</t>
+          <t>Kennedy, Jason</t>
         </is>
       </c>
       <c r="C166" t="inlineStr">
         <is>
-          <t>07/21/2023</t>
+          <t>07/24/2023</t>
         </is>
       </c>
       <c r="D166" t="inlineStr"/>
@@ -8422,12 +8422,12 @@
       </c>
       <c r="G166" t="inlineStr">
         <is>
-          <t>07/21/2023 18:45</t>
+          <t>07/24/2023 06:45</t>
         </is>
       </c>
       <c r="H166" t="inlineStr">
         <is>
-          <t>07/21/2023 19:00</t>
+          <t>07/24/2023 07:00</t>
         </is>
       </c>
       <c r="I166" t="inlineStr"/>
@@ -8449,12 +8449,12 @@
       <c r="A167" t="inlineStr"/>
       <c r="B167" t="inlineStr">
         <is>
-          <t>Olinghouse, Josh</t>
+          <t>Kennedy, Jason</t>
         </is>
       </c>
       <c r="C167" t="inlineStr">
         <is>
-          <t>07/21/2023</t>
+          <t>07/24/2023</t>
         </is>
       </c>
       <c r="D167" t="inlineStr"/>
@@ -8470,18 +8470,18 @@
       </c>
       <c r="G167" t="inlineStr">
         <is>
-          <t>07/21/2023 19:00</t>
+          <t>07/24/2023 07:00</t>
         </is>
       </c>
       <c r="H167" t="inlineStr">
         <is>
-          <t>07/21/2023 06:45</t>
+          <t>07/24/2023 19:00</t>
         </is>
       </c>
       <c r="I167" t="inlineStr"/>
       <c r="J167" t="inlineStr">
         <is>
-          <t>11.75</t>
+          <t>12.00</t>
         </is>
       </c>
       <c r="K167" t="inlineStr"/>
@@ -8497,12 +8497,12 @@
       <c r="A168" t="inlineStr"/>
       <c r="B168" t="inlineStr">
         <is>
-          <t>Olinghouse, Josh</t>
+          <t>Kennedy, Jason</t>
         </is>
       </c>
       <c r="C168" t="inlineStr">
         <is>
-          <t>07/22/2023</t>
+          <t>07/25/2023</t>
         </is>
       </c>
       <c r="D168" t="inlineStr"/>
@@ -8518,18 +8518,18 @@
       </c>
       <c r="G168" t="inlineStr">
         <is>
-          <t>07/22/2023 18:30</t>
+          <t>07/25/2023 06:45</t>
         </is>
       </c>
       <c r="H168" t="inlineStr">
         <is>
-          <t>07/22/2023 19:00</t>
+          <t>07/25/2023 07:00</t>
         </is>
       </c>
       <c r="I168" t="inlineStr"/>
       <c r="J168" t="inlineStr">
         <is>
-          <t>0.50</t>
+          <t>0.25</t>
         </is>
       </c>
       <c r="K168" t="inlineStr"/>
@@ -8545,12 +8545,12 @@
       <c r="A169" t="inlineStr"/>
       <c r="B169" t="inlineStr">
         <is>
-          <t>Olinghouse, Josh</t>
+          <t>Kennedy, Jason</t>
         </is>
       </c>
       <c r="C169" t="inlineStr">
         <is>
-          <t>07/22/2023</t>
+          <t>07/25/2023</t>
         </is>
       </c>
       <c r="D169" t="inlineStr"/>
@@ -8566,18 +8566,18 @@
       </c>
       <c r="G169" t="inlineStr">
         <is>
-          <t>07/22/2023 19:00</t>
+          <t>07/25/2023 07:00</t>
         </is>
       </c>
       <c r="H169" t="inlineStr">
         <is>
-          <t>07/22/2023 06:45</t>
+          <t>07/25/2023 16:45</t>
         </is>
       </c>
       <c r="I169" t="inlineStr"/>
       <c r="J169" t="inlineStr">
         <is>
-          <t>11.75</t>
+          <t>9.75</t>
         </is>
       </c>
       <c r="K169" t="inlineStr"/>
@@ -8593,7 +8593,7 @@
       <c r="A170" t="inlineStr"/>
       <c r="B170" t="inlineStr">
         <is>
-          <t>Olinghouse, Josh</t>
+          <t>Kennedy, Jason</t>
         </is>
       </c>
       <c r="C170" t="inlineStr">
@@ -8614,18 +8614,18 @@
       </c>
       <c r="G170" t="inlineStr">
         <is>
-          <t>07/26/2023 18:30</t>
+          <t>07/26/2023 06:45</t>
         </is>
       </c>
       <c r="H170" t="inlineStr">
         <is>
-          <t>07/26/2023 19:00</t>
+          <t>07/26/2023 07:00</t>
         </is>
       </c>
       <c r="I170" t="inlineStr"/>
       <c r="J170" t="inlineStr">
         <is>
-          <t>0.50</t>
+          <t>0.25</t>
         </is>
       </c>
       <c r="K170" t="inlineStr"/>
@@ -8641,7 +8641,7 @@
       <c r="A171" t="inlineStr"/>
       <c r="B171" t="inlineStr">
         <is>
-          <t>Olinghouse, Josh</t>
+          <t>Kennedy, Jason</t>
         </is>
       </c>
       <c r="C171" t="inlineStr">
@@ -8662,12 +8662,12 @@
       </c>
       <c r="G171" t="inlineStr">
         <is>
+          <t>07/26/2023 07:00</t>
+        </is>
+      </c>
+      <c r="H171" t="inlineStr">
+        <is>
           <t>07/26/2023 19:00</t>
-        </is>
-      </c>
-      <c r="H171" t="inlineStr">
-        <is>
-          <t>07/26/2023 07:00</t>
         </is>
       </c>
       <c r="I171" t="inlineStr"/>
@@ -8694,7 +8694,7 @@
       </c>
       <c r="C172" t="inlineStr">
         <is>
-          <t>07/27/2023</t>
+          <t>07/20/2023</t>
         </is>
       </c>
       <c r="D172" t="inlineStr"/>
@@ -8710,18 +8710,18 @@
       </c>
       <c r="G172" t="inlineStr">
         <is>
-          <t>07/27/2023 18:45</t>
+          <t>07/20/2023 18:30</t>
         </is>
       </c>
       <c r="H172" t="inlineStr">
         <is>
-          <t>07/27/2023 19:00</t>
+          <t>07/20/2023 19:00</t>
         </is>
       </c>
       <c r="I172" t="inlineStr"/>
       <c r="J172" t="inlineStr">
         <is>
-          <t>0.25</t>
+          <t>0.50</t>
         </is>
       </c>
       <c r="K172" t="inlineStr"/>
@@ -8742,7 +8742,7 @@
       </c>
       <c r="C173" t="inlineStr">
         <is>
-          <t>07/27/2023</t>
+          <t>07/20/2023</t>
         </is>
       </c>
       <c r="D173" t="inlineStr"/>
@@ -8758,18 +8758,18 @@
       </c>
       <c r="G173" t="inlineStr">
         <is>
-          <t>07/27/2023 19:00</t>
+          <t>07/20/2023 19:00</t>
         </is>
       </c>
       <c r="H173" t="inlineStr">
         <is>
-          <t>07/27/2023 07:00</t>
+          <t>07/20/2023 06:45</t>
         </is>
       </c>
       <c r="I173" t="inlineStr"/>
       <c r="J173" t="inlineStr">
         <is>
-          <t>12.00</t>
+          <t>11.75</t>
         </is>
       </c>
       <c r="K173" t="inlineStr"/>
@@ -8790,7 +8790,7 @@
       </c>
       <c r="C174" t="inlineStr">
         <is>
-          <t>07/28/2023</t>
+          <t>07/21/2023</t>
         </is>
       </c>
       <c r="D174" t="inlineStr"/>
@@ -8806,12 +8806,12 @@
       </c>
       <c r="G174" t="inlineStr">
         <is>
-          <t>07/28/2023 18:45</t>
+          <t>07/21/2023 18:45</t>
         </is>
       </c>
       <c r="H174" t="inlineStr">
         <is>
-          <t>07/28/2023 19:00</t>
+          <t>07/21/2023 19:00</t>
         </is>
       </c>
       <c r="I174" t="inlineStr"/>
@@ -8838,7 +8838,7 @@
       </c>
       <c r="C175" t="inlineStr">
         <is>
-          <t>07/28/2023</t>
+          <t>07/21/2023</t>
         </is>
       </c>
       <c r="D175" t="inlineStr"/>
@@ -8854,18 +8854,18 @@
       </c>
       <c r="G175" t="inlineStr">
         <is>
-          <t>07/28/2023 19:00</t>
+          <t>07/21/2023 19:00</t>
         </is>
       </c>
       <c r="H175" t="inlineStr">
         <is>
-          <t>07/28/2023 04:30</t>
+          <t>07/21/2023 06:45</t>
         </is>
       </c>
       <c r="I175" t="inlineStr"/>
       <c r="J175" t="inlineStr">
         <is>
-          <t>9.50</t>
+          <t>11.75</t>
         </is>
       </c>
       <c r="K175" t="inlineStr"/>
@@ -8886,7 +8886,7 @@
       </c>
       <c r="C176" t="inlineStr">
         <is>
-          <t>07/29/2023</t>
+          <t>07/22/2023</t>
         </is>
       </c>
       <c r="D176" t="inlineStr"/>
@@ -8902,12 +8902,12 @@
       </c>
       <c r="G176" t="inlineStr">
         <is>
-          <t>07/29/2023 18:30</t>
+          <t>07/22/2023 18:30</t>
         </is>
       </c>
       <c r="H176" t="inlineStr">
         <is>
-          <t>07/29/2023 19:00</t>
+          <t>07/22/2023 19:00</t>
         </is>
       </c>
       <c r="I176" t="inlineStr"/>
@@ -8934,7 +8934,7 @@
       </c>
       <c r="C177" t="inlineStr">
         <is>
-          <t>07/29/2023</t>
+          <t>07/22/2023</t>
         </is>
       </c>
       <c r="D177" t="inlineStr"/>
@@ -8950,12 +8950,12 @@
       </c>
       <c r="G177" t="inlineStr">
         <is>
-          <t>07/29/2023 19:00</t>
+          <t>07/22/2023 19:00</t>
         </is>
       </c>
       <c r="H177" t="inlineStr">
         <is>
-          <t>07/29/2023 06:45</t>
+          <t>07/22/2023 06:45</t>
         </is>
       </c>
       <c r="I177" t="inlineStr"/>
@@ -8977,12 +8977,12 @@
       <c r="A178" t="inlineStr"/>
       <c r="B178" t="inlineStr">
         <is>
-          <t>Barker, Joshua</t>
+          <t>Olinghouse, Josh</t>
         </is>
       </c>
       <c r="C178" t="inlineStr">
         <is>
-          <t>07/16/2023</t>
+          <t>07/26/2023</t>
         </is>
       </c>
       <c r="D178" t="inlineStr"/>
@@ -8998,18 +8998,18 @@
       </c>
       <c r="G178" t="inlineStr">
         <is>
-          <t>07/16/2023 18:45</t>
+          <t>07/26/2023 18:30</t>
         </is>
       </c>
       <c r="H178" t="inlineStr">
         <is>
-          <t>07/16/2023 19:00</t>
+          <t>07/26/2023 19:00</t>
         </is>
       </c>
       <c r="I178" t="inlineStr"/>
       <c r="J178" t="inlineStr">
         <is>
-          <t>0.25</t>
+          <t>0.50</t>
         </is>
       </c>
       <c r="K178" t="inlineStr"/>
@@ -9025,12 +9025,12 @@
       <c r="A179" t="inlineStr"/>
       <c r="B179" t="inlineStr">
         <is>
-          <t>Barker, Joshua</t>
+          <t>Olinghouse, Josh</t>
         </is>
       </c>
       <c r="C179" t="inlineStr">
         <is>
-          <t>07/16/2023</t>
+          <t>07/26/2023</t>
         </is>
       </c>
       <c r="D179" t="inlineStr"/>
@@ -9046,18 +9046,18 @@
       </c>
       <c r="G179" t="inlineStr">
         <is>
-          <t>07/16/2023 19:00</t>
+          <t>07/26/2023 19:00</t>
         </is>
       </c>
       <c r="H179" t="inlineStr">
         <is>
-          <t>07/16/2023 06:45</t>
+          <t>07/26/2023 07:00</t>
         </is>
       </c>
       <c r="I179" t="inlineStr"/>
       <c r="J179" t="inlineStr">
         <is>
-          <t>11.75</t>
+          <t>12.00</t>
         </is>
       </c>
       <c r="K179" t="inlineStr"/>
@@ -9073,12 +9073,12 @@
       <c r="A180" t="inlineStr"/>
       <c r="B180" t="inlineStr">
         <is>
-          <t>Barker, Joshua</t>
+          <t>Olinghouse, Josh</t>
         </is>
       </c>
       <c r="C180" t="inlineStr">
         <is>
-          <t>07/17/2023</t>
+          <t>07/27/2023</t>
         </is>
       </c>
       <c r="D180" t="inlineStr"/>
@@ -9094,12 +9094,12 @@
       </c>
       <c r="G180" t="inlineStr">
         <is>
-          <t>07/17/2023 18:45</t>
+          <t>07/27/2023 18:45</t>
         </is>
       </c>
       <c r="H180" t="inlineStr">
         <is>
-          <t>07/17/2023 19:00</t>
+          <t>07/27/2023 19:00</t>
         </is>
       </c>
       <c r="I180" t="inlineStr"/>
@@ -9121,12 +9121,12 @@
       <c r="A181" t="inlineStr"/>
       <c r="B181" t="inlineStr">
         <is>
-          <t>Barker, Joshua</t>
+          <t>Olinghouse, Josh</t>
         </is>
       </c>
       <c r="C181" t="inlineStr">
         <is>
-          <t>07/17/2023</t>
+          <t>07/27/2023</t>
         </is>
       </c>
       <c r="D181" t="inlineStr"/>
@@ -9142,12 +9142,12 @@
       </c>
       <c r="G181" t="inlineStr">
         <is>
-          <t>07/17/2023 19:00</t>
+          <t>07/27/2023 19:00</t>
         </is>
       </c>
       <c r="H181" t="inlineStr">
         <is>
-          <t>07/17/2023 07:00</t>
+          <t>07/27/2023 07:00</t>
         </is>
       </c>
       <c r="I181" t="inlineStr"/>
@@ -9169,12 +9169,12 @@
       <c r="A182" t="inlineStr"/>
       <c r="B182" t="inlineStr">
         <is>
-          <t>Barker, Joshua</t>
+          <t>Olinghouse, Josh</t>
         </is>
       </c>
       <c r="C182" t="inlineStr">
         <is>
-          <t>07/18/2023</t>
+          <t>07/28/2023</t>
         </is>
       </c>
       <c r="D182" t="inlineStr"/>
@@ -9190,12 +9190,12 @@
       </c>
       <c r="G182" t="inlineStr">
         <is>
-          <t>07/18/2023 18:45</t>
+          <t>07/28/2023 18:45</t>
         </is>
       </c>
       <c r="H182" t="inlineStr">
         <is>
-          <t>07/18/2023 19:00</t>
+          <t>07/28/2023 19:00</t>
         </is>
       </c>
       <c r="I182" t="inlineStr"/>
@@ -9217,12 +9217,12 @@
       <c r="A183" t="inlineStr"/>
       <c r="B183" t="inlineStr">
         <is>
-          <t>Barker, Joshua</t>
+          <t>Olinghouse, Josh</t>
         </is>
       </c>
       <c r="C183" t="inlineStr">
         <is>
-          <t>07/18/2023</t>
+          <t>07/28/2023</t>
         </is>
       </c>
       <c r="D183" t="inlineStr"/>
@@ -9238,18 +9238,18 @@
       </c>
       <c r="G183" t="inlineStr">
         <is>
-          <t>07/18/2023 19:00</t>
+          <t>07/28/2023 19:00</t>
         </is>
       </c>
       <c r="H183" t="inlineStr">
         <is>
-          <t>07/18/2023 06:45</t>
+          <t>07/28/2023 04:30</t>
         </is>
       </c>
       <c r="I183" t="inlineStr"/>
       <c r="J183" t="inlineStr">
         <is>
-          <t>11.75</t>
+          <t>9.50</t>
         </is>
       </c>
       <c r="K183" t="inlineStr"/>
@@ -9265,12 +9265,12 @@
       <c r="A184" t="inlineStr"/>
       <c r="B184" t="inlineStr">
         <is>
-          <t>Barker, Joshua</t>
+          <t>Olinghouse, Josh</t>
         </is>
       </c>
       <c r="C184" t="inlineStr">
         <is>
-          <t>07/25/2023</t>
+          <t>07/29/2023</t>
         </is>
       </c>
       <c r="D184" t="inlineStr"/>
@@ -9286,18 +9286,18 @@
       </c>
       <c r="G184" t="inlineStr">
         <is>
-          <t>07/25/2023 18:45</t>
+          <t>07/29/2023 18:30</t>
         </is>
       </c>
       <c r="H184" t="inlineStr">
         <is>
-          <t>07/25/2023 19:00</t>
+          <t>07/29/2023 19:00</t>
         </is>
       </c>
       <c r="I184" t="inlineStr"/>
       <c r="J184" t="inlineStr">
         <is>
-          <t>0.25</t>
+          <t>0.50</t>
         </is>
       </c>
       <c r="K184" t="inlineStr"/>
@@ -9313,12 +9313,12 @@
       <c r="A185" t="inlineStr"/>
       <c r="B185" t="inlineStr">
         <is>
-          <t>Barker, Joshua</t>
+          <t>Olinghouse, Josh</t>
         </is>
       </c>
       <c r="C185" t="inlineStr">
         <is>
-          <t>07/25/2023</t>
+          <t>07/29/2023</t>
         </is>
       </c>
       <c r="D185" t="inlineStr"/>
@@ -9334,18 +9334,18 @@
       </c>
       <c r="G185" t="inlineStr">
         <is>
-          <t>07/25/2023 19:00</t>
+          <t>07/29/2023 19:00</t>
         </is>
       </c>
       <c r="H185" t="inlineStr">
         <is>
-          <t>07/25/2023 07:00</t>
+          <t>07/29/2023 06:45</t>
         </is>
       </c>
       <c r="I185" t="inlineStr"/>
       <c r="J185" t="inlineStr">
         <is>
-          <t>12.00</t>
+          <t>11.75</t>
         </is>
       </c>
       <c r="K185" t="inlineStr"/>
@@ -9366,7 +9366,7 @@
       </c>
       <c r="C186" t="inlineStr">
         <is>
-          <t>07/26/2023</t>
+          <t>07/16/2023</t>
         </is>
       </c>
       <c r="D186" t="inlineStr"/>
@@ -9382,12 +9382,12 @@
       </c>
       <c r="G186" t="inlineStr">
         <is>
-          <t>07/26/2023 18:45</t>
+          <t>07/16/2023 18:45</t>
         </is>
       </c>
       <c r="H186" t="inlineStr">
         <is>
-          <t>07/26/2023 19:00</t>
+          <t>07/16/2023 19:00</t>
         </is>
       </c>
       <c r="I186" t="inlineStr"/>
@@ -9414,7 +9414,7 @@
       </c>
       <c r="C187" t="inlineStr">
         <is>
-          <t>07/26/2023</t>
+          <t>07/16/2023</t>
         </is>
       </c>
       <c r="D187" t="inlineStr"/>
@@ -9430,18 +9430,18 @@
       </c>
       <c r="G187" t="inlineStr">
         <is>
-          <t>07/26/2023 19:00</t>
+          <t>07/16/2023 19:00</t>
         </is>
       </c>
       <c r="H187" t="inlineStr">
         <is>
-          <t>07/26/2023 07:00</t>
+          <t>07/16/2023 06:45</t>
         </is>
       </c>
       <c r="I187" t="inlineStr"/>
       <c r="J187" t="inlineStr">
         <is>
-          <t>12.00</t>
+          <t>11.75</t>
         </is>
       </c>
       <c r="K187" t="inlineStr"/>
@@ -9462,7 +9462,7 @@
       </c>
       <c r="C188" t="inlineStr">
         <is>
-          <t>07/27/2023</t>
+          <t>07/17/2023</t>
         </is>
       </c>
       <c r="D188" t="inlineStr"/>
@@ -9478,12 +9478,12 @@
       </c>
       <c r="G188" t="inlineStr">
         <is>
-          <t>07/27/2023 18:45</t>
+          <t>07/17/2023 18:45</t>
         </is>
       </c>
       <c r="H188" t="inlineStr">
         <is>
-          <t>07/27/2023 19:00</t>
+          <t>07/17/2023 19:00</t>
         </is>
       </c>
       <c r="I188" t="inlineStr"/>
@@ -9510,7 +9510,7 @@
       </c>
       <c r="C189" t="inlineStr">
         <is>
-          <t>07/27/2023</t>
+          <t>07/17/2023</t>
         </is>
       </c>
       <c r="D189" t="inlineStr"/>
@@ -9526,12 +9526,12 @@
       </c>
       <c r="G189" t="inlineStr">
         <is>
-          <t>07/27/2023 19:00</t>
+          <t>07/17/2023 19:00</t>
         </is>
       </c>
       <c r="H189" t="inlineStr">
         <is>
-          <t>07/27/2023 07:00</t>
+          <t>07/17/2023 07:00</t>
         </is>
       </c>
       <c r="I189" t="inlineStr"/>
@@ -9553,12 +9553,12 @@
       <c r="A190" t="inlineStr"/>
       <c r="B190" t="inlineStr">
         <is>
-          <t>Perry, Lisa</t>
+          <t>Barker, Joshua</t>
         </is>
       </c>
       <c r="C190" t="inlineStr">
         <is>
-          <t>07/20/2023</t>
+          <t>07/18/2023</t>
         </is>
       </c>
       <c r="D190" t="inlineStr"/>
@@ -9574,18 +9574,18 @@
       </c>
       <c r="G190" t="inlineStr">
         <is>
-          <t>07/20/2023 09:00</t>
+          <t>07/18/2023 18:45</t>
         </is>
       </c>
       <c r="H190" t="inlineStr">
         <is>
-          <t>07/20/2023 19:00</t>
+          <t>07/18/2023 19:00</t>
         </is>
       </c>
       <c r="I190" t="inlineStr"/>
       <c r="J190" t="inlineStr">
         <is>
-          <t>10.00</t>
+          <t>0.25</t>
         </is>
       </c>
       <c r="K190" t="inlineStr"/>
@@ -9601,12 +9601,12 @@
       <c r="A191" t="inlineStr"/>
       <c r="B191" t="inlineStr">
         <is>
-          <t>Perry, Lisa</t>
+          <t>Barker, Joshua</t>
         </is>
       </c>
       <c r="C191" t="inlineStr">
         <is>
-          <t>07/20/2023</t>
+          <t>07/18/2023</t>
         </is>
       </c>
       <c r="D191" t="inlineStr"/>
@@ -9622,18 +9622,18 @@
       </c>
       <c r="G191" t="inlineStr">
         <is>
-          <t>07/20/2023 19:00</t>
+          <t>07/18/2023 19:00</t>
         </is>
       </c>
       <c r="H191" t="inlineStr">
         <is>
-          <t>07/20/2023 21:15</t>
+          <t>07/18/2023 06:45</t>
         </is>
       </c>
       <c r="I191" t="inlineStr"/>
       <c r="J191" t="inlineStr">
         <is>
-          <t>2.25</t>
+          <t>11.75</t>
         </is>
       </c>
       <c r="K191" t="inlineStr"/>
@@ -9649,12 +9649,12 @@
       <c r="A192" t="inlineStr"/>
       <c r="B192" t="inlineStr">
         <is>
-          <t>Perry, Lisa</t>
+          <t>Barker, Joshua</t>
         </is>
       </c>
       <c r="C192" t="inlineStr">
         <is>
-          <t>07/21/2023</t>
+          <t>07/25/2023</t>
         </is>
       </c>
       <c r="D192" t="inlineStr"/>
@@ -9670,18 +9670,18 @@
       </c>
       <c r="G192" t="inlineStr">
         <is>
-          <t>07/21/2023 09:00</t>
+          <t>07/25/2023 18:45</t>
         </is>
       </c>
       <c r="H192" t="inlineStr">
         <is>
-          <t>07/21/2023 19:00</t>
+          <t>07/25/2023 19:00</t>
         </is>
       </c>
       <c r="I192" t="inlineStr"/>
       <c r="J192" t="inlineStr">
         <is>
-          <t>10.00</t>
+          <t>0.25</t>
         </is>
       </c>
       <c r="K192" t="inlineStr"/>
@@ -9697,12 +9697,12 @@
       <c r="A193" t="inlineStr"/>
       <c r="B193" t="inlineStr">
         <is>
-          <t>Perry, Lisa</t>
+          <t>Barker, Joshua</t>
         </is>
       </c>
       <c r="C193" t="inlineStr">
         <is>
-          <t>07/21/2023</t>
+          <t>07/25/2023</t>
         </is>
       </c>
       <c r="D193" t="inlineStr"/>
@@ -9718,18 +9718,18 @@
       </c>
       <c r="G193" t="inlineStr">
         <is>
-          <t>07/21/2023 19:00</t>
+          <t>07/25/2023 19:00</t>
         </is>
       </c>
       <c r="H193" t="inlineStr">
         <is>
-          <t>07/21/2023 21:00</t>
+          <t>07/25/2023 07:00</t>
         </is>
       </c>
       <c r="I193" t="inlineStr"/>
       <c r="J193" t="inlineStr">
         <is>
-          <t>2.00</t>
+          <t>12.00</t>
         </is>
       </c>
       <c r="K193" t="inlineStr"/>
@@ -9745,12 +9745,12 @@
       <c r="A194" t="inlineStr"/>
       <c r="B194" t="inlineStr">
         <is>
-          <t>Perry, Lisa</t>
+          <t>Barker, Joshua</t>
         </is>
       </c>
       <c r="C194" t="inlineStr">
         <is>
-          <t>07/22/2023</t>
+          <t>07/26/2023</t>
         </is>
       </c>
       <c r="D194" t="inlineStr"/>
@@ -9766,18 +9766,18 @@
       </c>
       <c r="G194" t="inlineStr">
         <is>
-          <t>07/22/2023 09:00</t>
+          <t>07/26/2023 18:45</t>
         </is>
       </c>
       <c r="H194" t="inlineStr">
         <is>
-          <t>07/22/2023 19:00</t>
+          <t>07/26/2023 19:00</t>
         </is>
       </c>
       <c r="I194" t="inlineStr"/>
       <c r="J194" t="inlineStr">
         <is>
-          <t>10.00</t>
+          <t>0.25</t>
         </is>
       </c>
       <c r="K194" t="inlineStr"/>
@@ -9793,12 +9793,12 @@
       <c r="A195" t="inlineStr"/>
       <c r="B195" t="inlineStr">
         <is>
-          <t>Perry, Lisa</t>
+          <t>Barker, Joshua</t>
         </is>
       </c>
       <c r="C195" t="inlineStr">
         <is>
-          <t>07/22/2023</t>
+          <t>07/26/2023</t>
         </is>
       </c>
       <c r="D195" t="inlineStr"/>
@@ -9814,18 +9814,18 @@
       </c>
       <c r="G195" t="inlineStr">
         <is>
-          <t>07/22/2023 19:00</t>
+          <t>07/26/2023 19:00</t>
         </is>
       </c>
       <c r="H195" t="inlineStr">
         <is>
-          <t>07/22/2023 21:00</t>
+          <t>07/26/2023 07:00</t>
         </is>
       </c>
       <c r="I195" t="inlineStr"/>
       <c r="J195" t="inlineStr">
         <is>
-          <t>2.00</t>
+          <t>12.00</t>
         </is>
       </c>
       <c r="K195" t="inlineStr"/>
@@ -9841,12 +9841,12 @@
       <c r="A196" t="inlineStr"/>
       <c r="B196" t="inlineStr">
         <is>
-          <t>Perry, Lisa</t>
+          <t>Barker, Joshua</t>
         </is>
       </c>
       <c r="C196" t="inlineStr">
         <is>
-          <t>07/25/2023</t>
+          <t>07/27/2023</t>
         </is>
       </c>
       <c r="D196" t="inlineStr"/>
@@ -9862,18 +9862,18 @@
       </c>
       <c r="G196" t="inlineStr">
         <is>
-          <t>07/25/2023 09:00</t>
+          <t>07/27/2023 18:45</t>
         </is>
       </c>
       <c r="H196" t="inlineStr">
         <is>
-          <t>07/25/2023 19:00</t>
+          <t>07/27/2023 19:00</t>
         </is>
       </c>
       <c r="I196" t="inlineStr"/>
       <c r="J196" t="inlineStr">
         <is>
-          <t>10.00</t>
+          <t>0.25</t>
         </is>
       </c>
       <c r="K196" t="inlineStr"/>
@@ -9889,12 +9889,12 @@
       <c r="A197" t="inlineStr"/>
       <c r="B197" t="inlineStr">
         <is>
-          <t>Perry, Lisa</t>
+          <t>Barker, Joshua</t>
         </is>
       </c>
       <c r="C197" t="inlineStr">
         <is>
-          <t>07/25/2023</t>
+          <t>07/27/2023</t>
         </is>
       </c>
       <c r="D197" t="inlineStr"/>
@@ -9910,18 +9910,18 @@
       </c>
       <c r="G197" t="inlineStr">
         <is>
-          <t>07/25/2023 19:00</t>
+          <t>07/27/2023 19:00</t>
         </is>
       </c>
       <c r="H197" t="inlineStr">
         <is>
-          <t>07/25/2023 21:15</t>
+          <t>07/27/2023 07:00</t>
         </is>
       </c>
       <c r="I197" t="inlineStr"/>
       <c r="J197" t="inlineStr">
         <is>
-          <t>2.25</t>
+          <t>12.00</t>
         </is>
       </c>
       <c r="K197" t="inlineStr"/>
@@ -9942,7 +9942,7 @@
       </c>
       <c r="C198" t="inlineStr">
         <is>
-          <t>07/26/2023</t>
+          <t>07/20/2023</t>
         </is>
       </c>
       <c r="D198" t="inlineStr"/>
@@ -9958,12 +9958,12 @@
       </c>
       <c r="G198" t="inlineStr">
         <is>
-          <t>07/26/2023 09:00</t>
+          <t>07/20/2023 09:00</t>
         </is>
       </c>
       <c r="H198" t="inlineStr">
         <is>
-          <t>07/26/2023 19:00</t>
+          <t>07/20/2023 19:00</t>
         </is>
       </c>
       <c r="I198" t="inlineStr"/>
@@ -9990,7 +9990,7 @@
       </c>
       <c r="C199" t="inlineStr">
         <is>
-          <t>07/26/2023</t>
+          <t>07/20/2023</t>
         </is>
       </c>
       <c r="D199" t="inlineStr"/>
@@ -10006,12 +10006,12 @@
       </c>
       <c r="G199" t="inlineStr">
         <is>
-          <t>07/26/2023 19:00</t>
+          <t>07/20/2023 19:00</t>
         </is>
       </c>
       <c r="H199" t="inlineStr">
         <is>
-          <t>07/26/2023 21:15</t>
+          <t>07/20/2023 21:15</t>
         </is>
       </c>
       <c r="I199" t="inlineStr"/>
@@ -10038,7 +10038,7 @@
       </c>
       <c r="C200" t="inlineStr">
         <is>
-          <t>07/27/2023</t>
+          <t>07/21/2023</t>
         </is>
       </c>
       <c r="D200" t="inlineStr"/>
@@ -10054,12 +10054,12 @@
       </c>
       <c r="G200" t="inlineStr">
         <is>
-          <t>07/27/2023 09:00</t>
+          <t>07/21/2023 09:00</t>
         </is>
       </c>
       <c r="H200" t="inlineStr">
         <is>
-          <t>07/27/2023 19:00</t>
+          <t>07/21/2023 19:00</t>
         </is>
       </c>
       <c r="I200" t="inlineStr"/>
@@ -10086,7 +10086,7 @@
       </c>
       <c r="C201" t="inlineStr">
         <is>
-          <t>07/27/2023</t>
+          <t>07/21/2023</t>
         </is>
       </c>
       <c r="D201" t="inlineStr"/>
@@ -10102,18 +10102,18 @@
       </c>
       <c r="G201" t="inlineStr">
         <is>
-          <t>07/27/2023 19:00</t>
+          <t>07/21/2023 19:00</t>
         </is>
       </c>
       <c r="H201" t="inlineStr">
         <is>
-          <t>07/27/2023 20:45</t>
+          <t>07/21/2023 21:00</t>
         </is>
       </c>
       <c r="I201" t="inlineStr"/>
       <c r="J201" t="inlineStr">
         <is>
-          <t>1.75</t>
+          <t>2.00</t>
         </is>
       </c>
       <c r="K201" t="inlineStr"/>
@@ -10129,18 +10129,18 @@
       <c r="A202" t="inlineStr"/>
       <c r="B202" t="inlineStr">
         <is>
-          <t>Haynie, Nathan</t>
+          <t>Perry, Lisa</t>
         </is>
       </c>
       <c r="C202" t="inlineStr">
         <is>
-          <t>07/16/2023</t>
+          <t>07/22/2023</t>
         </is>
       </c>
       <c r="D202" t="inlineStr"/>
       <c r="E202" t="inlineStr">
         <is>
-          <t>694011</t>
+          <t>631011</t>
         </is>
       </c>
       <c r="F202" t="inlineStr">
@@ -10150,18 +10150,18 @@
       </c>
       <c r="G202" t="inlineStr">
         <is>
-          <t>07/16/2023 01:03</t>
+          <t>07/22/2023 09:00</t>
         </is>
       </c>
       <c r="H202" t="inlineStr">
         <is>
-          <t>07/16/2023 01:51</t>
+          <t>07/22/2023 19:00</t>
         </is>
       </c>
       <c r="I202" t="inlineStr"/>
       <c r="J202" t="inlineStr">
         <is>
-          <t>0.75</t>
+          <t>10.00</t>
         </is>
       </c>
       <c r="K202" t="inlineStr"/>
@@ -10177,18 +10177,18 @@
       <c r="A203" t="inlineStr"/>
       <c r="B203" t="inlineStr">
         <is>
-          <t>Haynie, Nathan</t>
+          <t>Perry, Lisa</t>
         </is>
       </c>
       <c r="C203" t="inlineStr">
         <is>
-          <t>07/16/2023</t>
+          <t>07/22/2023</t>
         </is>
       </c>
       <c r="D203" t="inlineStr"/>
       <c r="E203" t="inlineStr">
         <is>
-          <t>694011</t>
+          <t>631011</t>
         </is>
       </c>
       <c r="F203" t="inlineStr">
@@ -10198,18 +10198,18 @@
       </c>
       <c r="G203" t="inlineStr">
         <is>
-          <t>07/16/2023 08:54</t>
+          <t>07/22/2023 19:00</t>
         </is>
       </c>
       <c r="H203" t="inlineStr">
         <is>
-          <t>07/16/2023 22:30</t>
+          <t>07/22/2023 21:00</t>
         </is>
       </c>
       <c r="I203" t="inlineStr"/>
       <c r="J203" t="inlineStr">
         <is>
-          <t>13.50</t>
+          <t>2.00</t>
         </is>
       </c>
       <c r="K203" t="inlineStr"/>
@@ -10225,18 +10225,18 @@
       <c r="A204" t="inlineStr"/>
       <c r="B204" t="inlineStr">
         <is>
-          <t>Haynie, Nathan</t>
+          <t>Perry, Lisa</t>
         </is>
       </c>
       <c r="C204" t="inlineStr">
         <is>
-          <t>07/16/2023</t>
+          <t>07/25/2023</t>
         </is>
       </c>
       <c r="D204" t="inlineStr"/>
       <c r="E204" t="inlineStr">
         <is>
-          <t>694011</t>
+          <t>631011</t>
         </is>
       </c>
       <c r="F204" t="inlineStr">
@@ -10246,18 +10246,18 @@
       </c>
       <c r="G204" t="inlineStr">
         <is>
-          <t>07/16/2023 23:02</t>
+          <t>07/25/2023 09:00</t>
         </is>
       </c>
       <c r="H204" t="inlineStr">
         <is>
-          <t>07/16/2023 23:50</t>
+          <t>07/25/2023 19:00</t>
         </is>
       </c>
       <c r="I204" t="inlineStr"/>
       <c r="J204" t="inlineStr">
         <is>
-          <t>0.75</t>
+          <t>10.00</t>
         </is>
       </c>
       <c r="K204" t="inlineStr"/>
@@ -10273,18 +10273,18 @@
       <c r="A205" t="inlineStr"/>
       <c r="B205" t="inlineStr">
         <is>
-          <t>Haynie, Nathan</t>
+          <t>Perry, Lisa</t>
         </is>
       </c>
       <c r="C205" t="inlineStr">
         <is>
-          <t>07/28/2023</t>
+          <t>07/25/2023</t>
         </is>
       </c>
       <c r="D205" t="inlineStr"/>
       <c r="E205" t="inlineStr">
         <is>
-          <t>694011</t>
+          <t>631011</t>
         </is>
       </c>
       <c r="F205" t="inlineStr">
@@ -10294,18 +10294,18 @@
       </c>
       <c r="G205" t="inlineStr">
         <is>
-          <t>07/28/2023 10:16</t>
+          <t>07/25/2023 19:00</t>
         </is>
       </c>
       <c r="H205" t="inlineStr">
         <is>
-          <t>07/28/2023 21:57</t>
+          <t>07/25/2023 21:15</t>
         </is>
       </c>
       <c r="I205" t="inlineStr"/>
       <c r="J205" t="inlineStr">
         <is>
-          <t>11.75</t>
+          <t>2.25</t>
         </is>
       </c>
       <c r="K205" t="inlineStr"/>
@@ -10321,18 +10321,18 @@
       <c r="A206" t="inlineStr"/>
       <c r="B206" t="inlineStr">
         <is>
-          <t>Haynie, Nathan</t>
+          <t>Perry, Lisa</t>
         </is>
       </c>
       <c r="C206" t="inlineStr">
         <is>
-          <t>07/28/2023</t>
+          <t>07/26/2023</t>
         </is>
       </c>
       <c r="D206" t="inlineStr"/>
       <c r="E206" t="inlineStr">
         <is>
-          <t>694011</t>
+          <t>631011</t>
         </is>
       </c>
       <c r="F206" t="inlineStr">
@@ -10342,18 +10342,18 @@
       </c>
       <c r="G206" t="inlineStr">
         <is>
-          <t>07/28/2023 22:23</t>
+          <t>07/26/2023 09:00</t>
         </is>
       </c>
       <c r="H206" t="inlineStr">
         <is>
-          <t>07/28/2023 23:14</t>
+          <t>07/26/2023 19:00</t>
         </is>
       </c>
       <c r="I206" t="inlineStr"/>
       <c r="J206" t="inlineStr">
         <is>
-          <t>0.75</t>
+          <t>10.00</t>
         </is>
       </c>
       <c r="K206" t="inlineStr"/>
@@ -10369,18 +10369,18 @@
       <c r="A207" t="inlineStr"/>
       <c r="B207" t="inlineStr">
         <is>
-          <t>Haynie, Nathan</t>
+          <t>Perry, Lisa</t>
         </is>
       </c>
       <c r="C207" t="inlineStr">
         <is>
-          <t>07/29/2023</t>
+          <t>07/26/2023</t>
         </is>
       </c>
       <c r="D207" t="inlineStr"/>
       <c r="E207" t="inlineStr">
         <is>
-          <t>694011</t>
+          <t>631011</t>
         </is>
       </c>
       <c r="F207" t="inlineStr">
@@ -10390,18 +10390,18 @@
       </c>
       <c r="G207" t="inlineStr">
         <is>
-          <t>07/29/2023 09:31</t>
+          <t>07/26/2023 19:00</t>
         </is>
       </c>
       <c r="H207" t="inlineStr">
         <is>
-          <t>07/29/2023 22:45</t>
+          <t>07/26/2023 21:15</t>
         </is>
       </c>
       <c r="I207" t="inlineStr"/>
       <c r="J207" t="inlineStr">
         <is>
-          <t>13.25</t>
+          <t>2.25</t>
         </is>
       </c>
       <c r="K207" t="inlineStr"/>
@@ -10417,18 +10417,18 @@
       <c r="A208" t="inlineStr"/>
       <c r="B208" t="inlineStr">
         <is>
-          <t>Finley, Penny</t>
+          <t>Perry, Lisa</t>
         </is>
       </c>
       <c r="C208" t="inlineStr">
         <is>
-          <t>07/17/2023</t>
+          <t>07/27/2023</t>
         </is>
       </c>
       <c r="D208" t="inlineStr"/>
       <c r="E208" t="inlineStr">
         <is>
-          <t>692511</t>
+          <t>631011</t>
         </is>
       </c>
       <c r="F208" t="inlineStr">
@@ -10438,18 +10438,18 @@
       </c>
       <c r="G208" t="inlineStr">
         <is>
-          <t>07/17/2023 19:38</t>
+          <t>07/27/2023 09:00</t>
         </is>
       </c>
       <c r="H208" t="inlineStr">
         <is>
-          <t>07/17/2023 06:13</t>
+          <t>07/27/2023 19:00</t>
         </is>
       </c>
       <c r="I208" t="inlineStr"/>
       <c r="J208" t="inlineStr">
         <is>
-          <t>10.50</t>
+          <t>10.00</t>
         </is>
       </c>
       <c r="K208" t="inlineStr"/>
@@ -10465,18 +10465,18 @@
       <c r="A209" t="inlineStr"/>
       <c r="B209" t="inlineStr">
         <is>
-          <t>Finley, Penny</t>
+          <t>Perry, Lisa</t>
         </is>
       </c>
       <c r="C209" t="inlineStr">
         <is>
-          <t>07/18/2023</t>
+          <t>07/27/2023</t>
         </is>
       </c>
       <c r="D209" t="inlineStr"/>
       <c r="E209" t="inlineStr">
         <is>
-          <t>692511</t>
+          <t>631011</t>
         </is>
       </c>
       <c r="F209" t="inlineStr">
@@ -10486,18 +10486,18 @@
       </c>
       <c r="G209" t="inlineStr">
         <is>
-          <t>07/18/2023 19:53</t>
+          <t>07/27/2023 19:00</t>
         </is>
       </c>
       <c r="H209" t="inlineStr">
         <is>
-          <t>07/18/2023 06:14</t>
+          <t>07/27/2023 20:45</t>
         </is>
       </c>
       <c r="I209" t="inlineStr"/>
       <c r="J209" t="inlineStr">
         <is>
-          <t>10.25</t>
+          <t>1.75</t>
         </is>
       </c>
       <c r="K209" t="inlineStr"/>
@@ -10513,18 +10513,18 @@
       <c r="A210" t="inlineStr"/>
       <c r="B210" t="inlineStr">
         <is>
-          <t>Finley, Penny</t>
+          <t>Haynie, Nathan</t>
         </is>
       </c>
       <c r="C210" t="inlineStr">
         <is>
-          <t>07/19/2023</t>
+          <t>07/16/2023</t>
         </is>
       </c>
       <c r="D210" t="inlineStr"/>
       <c r="E210" t="inlineStr">
         <is>
-          <t>692511</t>
+          <t>694011</t>
         </is>
       </c>
       <c r="F210" t="inlineStr">
@@ -10534,18 +10534,18 @@
       </c>
       <c r="G210" t="inlineStr">
         <is>
-          <t>07/19/2023 19:53</t>
+          <t>07/16/2023 01:03</t>
         </is>
       </c>
       <c r="H210" t="inlineStr">
         <is>
-          <t>07/19/2023 05:58</t>
+          <t>07/16/2023 01:51</t>
         </is>
       </c>
       <c r="I210" t="inlineStr"/>
       <c r="J210" t="inlineStr">
         <is>
-          <t>10.00</t>
+          <t>0.75</t>
         </is>
       </c>
       <c r="K210" t="inlineStr"/>
@@ -10561,18 +10561,18 @@
       <c r="A211" t="inlineStr"/>
       <c r="B211" t="inlineStr">
         <is>
-          <t>Finley, Penny</t>
+          <t>Haynie, Nathan</t>
         </is>
       </c>
       <c r="C211" t="inlineStr">
         <is>
-          <t>07/20/2023</t>
+          <t>07/16/2023</t>
         </is>
       </c>
       <c r="D211" t="inlineStr"/>
       <c r="E211" t="inlineStr">
         <is>
-          <t>692511</t>
+          <t>694011</t>
         </is>
       </c>
       <c r="F211" t="inlineStr">
@@ -10582,18 +10582,18 @@
       </c>
       <c r="G211" t="inlineStr">
         <is>
-          <t>07/20/2023 14:54</t>
+          <t>07/16/2023 08:54</t>
         </is>
       </c>
       <c r="H211" t="inlineStr">
         <is>
-          <t>07/20/2023 01:00</t>
+          <t>07/16/2023 22:30</t>
         </is>
       </c>
       <c r="I211" t="inlineStr"/>
       <c r="J211" t="inlineStr">
         <is>
-          <t>10.00</t>
+          <t>13.50</t>
         </is>
       </c>
       <c r="K211" t="inlineStr"/>
@@ -10609,18 +10609,18 @@
       <c r="A212" t="inlineStr"/>
       <c r="B212" t="inlineStr">
         <is>
-          <t>Finley, Penny</t>
+          <t>Haynie, Nathan</t>
         </is>
       </c>
       <c r="C212" t="inlineStr">
         <is>
-          <t>07/24/2023</t>
+          <t>07/16/2023</t>
         </is>
       </c>
       <c r="D212" t="inlineStr"/>
       <c r="E212" t="inlineStr">
         <is>
-          <t>692511</t>
+          <t>694011</t>
         </is>
       </c>
       <c r="F212" t="inlineStr">
@@ -10630,18 +10630,18 @@
       </c>
       <c r="G212" t="inlineStr">
         <is>
-          <t>07/24/2023 19:55</t>
+          <t>07/16/2023 23:02</t>
         </is>
       </c>
       <c r="H212" t="inlineStr">
         <is>
-          <t>07/24/2023 06:10</t>
+          <t>07/16/2023 23:50</t>
         </is>
       </c>
       <c r="I212" t="inlineStr"/>
       <c r="J212" t="inlineStr">
         <is>
-          <t>10.25</t>
+          <t>0.75</t>
         </is>
       </c>
       <c r="K212" t="inlineStr"/>
@@ -10657,18 +10657,18 @@
       <c r="A213" t="inlineStr"/>
       <c r="B213" t="inlineStr">
         <is>
-          <t>Finley, Penny</t>
+          <t>Haynie, Nathan</t>
         </is>
       </c>
       <c r="C213" t="inlineStr">
         <is>
-          <t>07/25/2023</t>
+          <t>07/28/2023</t>
         </is>
       </c>
       <c r="D213" t="inlineStr"/>
       <c r="E213" t="inlineStr">
         <is>
-          <t>692511</t>
+          <t>694011</t>
         </is>
       </c>
       <c r="F213" t="inlineStr">
@@ -10678,18 +10678,18 @@
       </c>
       <c r="G213" t="inlineStr">
         <is>
-          <t>07/25/2023 19:53</t>
+          <t>07/28/2023 10:16</t>
         </is>
       </c>
       <c r="H213" t="inlineStr">
         <is>
-          <t>07/25/2023 06:15</t>
+          <t>07/28/2023 21:57</t>
         </is>
       </c>
       <c r="I213" t="inlineStr"/>
       <c r="J213" t="inlineStr">
         <is>
-          <t>10.25</t>
+          <t>11.75</t>
         </is>
       </c>
       <c r="K213" t="inlineStr"/>
@@ -10705,18 +10705,18 @@
       <c r="A214" t="inlineStr"/>
       <c r="B214" t="inlineStr">
         <is>
-          <t>Finley, Penny</t>
+          <t>Haynie, Nathan</t>
         </is>
       </c>
       <c r="C214" t="inlineStr">
         <is>
-          <t>07/26/2023</t>
+          <t>07/28/2023</t>
         </is>
       </c>
       <c r="D214" t="inlineStr"/>
       <c r="E214" t="inlineStr">
         <is>
-          <t>692511</t>
+          <t>694011</t>
         </is>
       </c>
       <c r="F214" t="inlineStr">
@@ -10726,18 +10726,18 @@
       </c>
       <c r="G214" t="inlineStr">
         <is>
-          <t>07/26/2023 19:51</t>
+          <t>07/28/2023 22:23</t>
         </is>
       </c>
       <c r="H214" t="inlineStr">
         <is>
-          <t>07/26/2023 06:17</t>
+          <t>07/28/2023 23:14</t>
         </is>
       </c>
       <c r="I214" t="inlineStr"/>
       <c r="J214" t="inlineStr">
         <is>
-          <t>10.50</t>
+          <t>0.75</t>
         </is>
       </c>
       <c r="K214" t="inlineStr"/>
@@ -10753,18 +10753,18 @@
       <c r="A215" t="inlineStr"/>
       <c r="B215" t="inlineStr">
         <is>
-          <t>Finley, Penny</t>
+          <t>Haynie, Nathan</t>
         </is>
       </c>
       <c r="C215" t="inlineStr">
         <is>
-          <t>07/27/2023</t>
+          <t>07/29/2023</t>
         </is>
       </c>
       <c r="D215" t="inlineStr"/>
       <c r="E215" t="inlineStr">
         <is>
-          <t>692511</t>
+          <t>694011</t>
         </is>
       </c>
       <c r="F215" t="inlineStr">
@@ -10774,18 +10774,18 @@
       </c>
       <c r="G215" t="inlineStr">
         <is>
-          <t>07/27/2023 19:53</t>
+          <t>07/29/2023 09:31</t>
         </is>
       </c>
       <c r="H215" t="inlineStr">
         <is>
-          <t>07/27/2023 05:56</t>
+          <t>07/29/2023 22:45</t>
         </is>
       </c>
       <c r="I215" t="inlineStr"/>
       <c r="J215" t="inlineStr">
         <is>
-          <t>10.00</t>
+          <t>13.25</t>
         </is>
       </c>
       <c r="K215" t="inlineStr"/>
@@ -10801,12 +10801,12 @@
       <c r="A216" t="inlineStr"/>
       <c r="B216" t="inlineStr">
         <is>
-          <t>Havens, Shane</t>
+          <t>Finley, Penny</t>
         </is>
       </c>
       <c r="C216" t="inlineStr">
         <is>
-          <t>07/18/2023</t>
+          <t>07/17/2023</t>
         </is>
       </c>
       <c r="D216" t="inlineStr"/>
@@ -10822,18 +10822,18 @@
       </c>
       <c r="G216" t="inlineStr">
         <is>
-          <t>07/18/2023 11:53</t>
+          <t>07/17/2023 19:38</t>
         </is>
       </c>
       <c r="H216" t="inlineStr">
         <is>
-          <t>07/18/2023 21:55</t>
+          <t>07/17/2023 06:13</t>
         </is>
       </c>
       <c r="I216" t="inlineStr"/>
       <c r="J216" t="inlineStr">
         <is>
-          <t>10.00</t>
+          <t>10.50</t>
         </is>
       </c>
       <c r="K216" t="inlineStr"/>
@@ -10849,12 +10849,12 @@
       <c r="A217" t="inlineStr"/>
       <c r="B217" t="inlineStr">
         <is>
-          <t>Havens, Shane</t>
+          <t>Finley, Penny</t>
         </is>
       </c>
       <c r="C217" t="inlineStr">
         <is>
-          <t>07/19/2023</t>
+          <t>07/18/2023</t>
         </is>
       </c>
       <c r="D217" t="inlineStr"/>
@@ -10870,18 +10870,18 @@
       </c>
       <c r="G217" t="inlineStr">
         <is>
-          <t>07/19/2023 11:59</t>
+          <t>07/18/2023 19:53</t>
         </is>
       </c>
       <c r="H217" t="inlineStr">
         <is>
-          <t>07/19/2023 22:07</t>
+          <t>07/18/2023 06:14</t>
         </is>
       </c>
       <c r="I217" t="inlineStr"/>
       <c r="J217" t="inlineStr">
         <is>
-          <t>10.00</t>
+          <t>10.25</t>
         </is>
       </c>
       <c r="K217" t="inlineStr"/>
@@ -10897,12 +10897,12 @@
       <c r="A218" t="inlineStr"/>
       <c r="B218" t="inlineStr">
         <is>
-          <t>Havens, Shane</t>
+          <t>Finley, Penny</t>
         </is>
       </c>
       <c r="C218" t="inlineStr">
         <is>
-          <t>07/20/2023</t>
+          <t>07/19/2023</t>
         </is>
       </c>
       <c r="D218" t="inlineStr"/>
@@ -10918,12 +10918,12 @@
       </c>
       <c r="G218" t="inlineStr">
         <is>
-          <t>07/20/2023 11:55</t>
+          <t>07/19/2023 19:53</t>
         </is>
       </c>
       <c r="H218" t="inlineStr">
         <is>
-          <t>07/20/2023 22:02</t>
+          <t>07/19/2023 05:58</t>
         </is>
       </c>
       <c r="I218" t="inlineStr"/>
@@ -10945,12 +10945,12 @@
       <c r="A219" t="inlineStr"/>
       <c r="B219" t="inlineStr">
         <is>
-          <t>Havens, Shane</t>
+          <t>Finley, Penny</t>
         </is>
       </c>
       <c r="C219" t="inlineStr">
         <is>
-          <t>07/24/2023</t>
+          <t>07/20/2023</t>
         </is>
       </c>
       <c r="D219" t="inlineStr"/>
@@ -10966,12 +10966,12 @@
       </c>
       <c r="G219" t="inlineStr">
         <is>
-          <t>07/24/2023 11:56</t>
+          <t>07/20/2023 14:54</t>
         </is>
       </c>
       <c r="H219" t="inlineStr">
         <is>
-          <t>07/24/2023 22:05</t>
+          <t>07/20/2023 01:00</t>
         </is>
       </c>
       <c r="I219" t="inlineStr"/>
@@ -10993,12 +10993,12 @@
       <c r="A220" t="inlineStr"/>
       <c r="B220" t="inlineStr">
         <is>
-          <t>Havens, Shane</t>
+          <t>Finley, Penny</t>
         </is>
       </c>
       <c r="C220" t="inlineStr">
         <is>
-          <t>07/25/2023</t>
+          <t>07/24/2023</t>
         </is>
       </c>
       <c r="D220" t="inlineStr"/>
@@ -11014,18 +11014,18 @@
       </c>
       <c r="G220" t="inlineStr">
         <is>
-          <t>07/25/2023 12:00</t>
+          <t>07/24/2023 19:55</t>
         </is>
       </c>
       <c r="H220" t="inlineStr">
         <is>
-          <t>07/25/2023 21:56</t>
+          <t>07/24/2023 06:10</t>
         </is>
       </c>
       <c r="I220" t="inlineStr"/>
       <c r="J220" t="inlineStr">
         <is>
-          <t>10.00</t>
+          <t>10.25</t>
         </is>
       </c>
       <c r="K220" t="inlineStr"/>
@@ -11041,12 +11041,12 @@
       <c r="A221" t="inlineStr"/>
       <c r="B221" t="inlineStr">
         <is>
-          <t>Havens, Shane</t>
+          <t>Finley, Penny</t>
         </is>
       </c>
       <c r="C221" t="inlineStr">
         <is>
-          <t>07/26/2023</t>
+          <t>07/25/2023</t>
         </is>
       </c>
       <c r="D221" t="inlineStr"/>
@@ -11062,18 +11062,18 @@
       </c>
       <c r="G221" t="inlineStr">
         <is>
-          <t>07/26/2023 11:56</t>
+          <t>07/25/2023 19:53</t>
         </is>
       </c>
       <c r="H221" t="inlineStr">
         <is>
-          <t>07/26/2023 21:55</t>
+          <t>07/25/2023 06:15</t>
         </is>
       </c>
       <c r="I221" t="inlineStr"/>
       <c r="J221" t="inlineStr">
         <is>
-          <t>10.00</t>
+          <t>10.25</t>
         </is>
       </c>
       <c r="K221" t="inlineStr"/>
@@ -11089,12 +11089,12 @@
       <c r="A222" t="inlineStr"/>
       <c r="B222" t="inlineStr">
         <is>
-          <t>Havens, Shane</t>
+          <t>Finley, Penny</t>
         </is>
       </c>
       <c r="C222" t="inlineStr">
         <is>
-          <t>07/27/2023</t>
+          <t>07/26/2023</t>
         </is>
       </c>
       <c r="D222" t="inlineStr"/>
@@ -11110,18 +11110,18 @@
       </c>
       <c r="G222" t="inlineStr">
         <is>
-          <t>07/27/2023 12:02</t>
+          <t>07/26/2023 19:51</t>
         </is>
       </c>
       <c r="H222" t="inlineStr">
         <is>
-          <t>07/27/2023 21:27</t>
+          <t>07/26/2023 06:17</t>
         </is>
       </c>
       <c r="I222" t="inlineStr"/>
       <c r="J222" t="inlineStr">
         <is>
-          <t>9.50</t>
+          <t>10.50</t>
         </is>
       </c>
       <c r="K222" t="inlineStr"/>
@@ -11137,18 +11137,18 @@
       <c r="A223" t="inlineStr"/>
       <c r="B223" t="inlineStr">
         <is>
-          <t>Kelly, Shane</t>
+          <t>Finley, Penny</t>
         </is>
       </c>
       <c r="C223" t="inlineStr">
         <is>
-          <t>07/16/2023</t>
+          <t>07/27/2023</t>
         </is>
       </c>
       <c r="D223" t="inlineStr"/>
       <c r="E223" t="inlineStr">
         <is>
-          <t>692011</t>
+          <t>692511</t>
         </is>
       </c>
       <c r="F223" t="inlineStr">
@@ -11158,18 +11158,18 @@
       </c>
       <c r="G223" t="inlineStr">
         <is>
-          <t>07/16/2023 10:59</t>
+          <t>07/27/2023 19:53</t>
         </is>
       </c>
       <c r="H223" t="inlineStr">
         <is>
-          <t>07/16/2023 23:28</t>
+          <t>07/27/2023 05:56</t>
         </is>
       </c>
       <c r="I223" t="inlineStr"/>
       <c r="J223" t="inlineStr">
         <is>
-          <t>12.50</t>
+          <t>10.00</t>
         </is>
       </c>
       <c r="K223" t="inlineStr"/>
@@ -11185,18 +11185,18 @@
       <c r="A224" t="inlineStr"/>
       <c r="B224" t="inlineStr">
         <is>
-          <t>Kelly, Shane</t>
+          <t>Havens, Shane</t>
         </is>
       </c>
       <c r="C224" t="inlineStr">
         <is>
-          <t>07/21/2023</t>
+          <t>07/18/2023</t>
         </is>
       </c>
       <c r="D224" t="inlineStr"/>
       <c r="E224" t="inlineStr">
         <is>
-          <t>692011</t>
+          <t>692511</t>
         </is>
       </c>
       <c r="F224" t="inlineStr">
@@ -11206,18 +11206,18 @@
       </c>
       <c r="G224" t="inlineStr">
         <is>
-          <t>07/21/2023 10:56</t>
+          <t>07/18/2023 11:53</t>
         </is>
       </c>
       <c r="H224" t="inlineStr">
         <is>
-          <t>07/21/2023 23:30</t>
+          <t>07/18/2023 21:55</t>
         </is>
       </c>
       <c r="I224" t="inlineStr"/>
       <c r="J224" t="inlineStr">
         <is>
-          <t>12.50</t>
+          <t>10.00</t>
         </is>
       </c>
       <c r="K224" t="inlineStr"/>
@@ -11233,18 +11233,18 @@
       <c r="A225" t="inlineStr"/>
       <c r="B225" t="inlineStr">
         <is>
-          <t>Kelly, Shane</t>
+          <t>Havens, Shane</t>
         </is>
       </c>
       <c r="C225" t="inlineStr">
         <is>
-          <t>07/22/2023</t>
+          <t>07/19/2023</t>
         </is>
       </c>
       <c r="D225" t="inlineStr"/>
       <c r="E225" t="inlineStr">
         <is>
-          <t>692011</t>
+          <t>692511</t>
         </is>
       </c>
       <c r="F225" t="inlineStr">
@@ -11254,18 +11254,18 @@
       </c>
       <c r="G225" t="inlineStr">
         <is>
-          <t>07/22/2023 10:57</t>
+          <t>07/19/2023 11:59</t>
         </is>
       </c>
       <c r="H225" t="inlineStr">
         <is>
-          <t>07/22/2023 23:30</t>
+          <t>07/19/2023 22:07</t>
         </is>
       </c>
       <c r="I225" t="inlineStr"/>
       <c r="J225" t="inlineStr">
         <is>
-          <t>12.50</t>
+          <t>10.00</t>
         </is>
       </c>
       <c r="K225" t="inlineStr"/>
@@ -11281,18 +11281,18 @@
       <c r="A226" t="inlineStr"/>
       <c r="B226" t="inlineStr">
         <is>
-          <t>Kelly, Shane</t>
+          <t>Havens, Shane</t>
         </is>
       </c>
       <c r="C226" t="inlineStr">
         <is>
-          <t>07/23/2023</t>
+          <t>07/20/2023</t>
         </is>
       </c>
       <c r="D226" t="inlineStr"/>
       <c r="E226" t="inlineStr">
         <is>
-          <t>692011</t>
+          <t>692511</t>
         </is>
       </c>
       <c r="F226" t="inlineStr">
@@ -11302,18 +11302,18 @@
       </c>
       <c r="G226" t="inlineStr">
         <is>
-          <t>07/23/2023 11:01</t>
+          <t>07/20/2023 11:55</t>
         </is>
       </c>
       <c r="H226" t="inlineStr">
         <is>
-          <t>07/23/2023 23:38</t>
+          <t>07/20/2023 22:02</t>
         </is>
       </c>
       <c r="I226" t="inlineStr"/>
       <c r="J226" t="inlineStr">
         <is>
-          <t>12.75</t>
+          <t>10.00</t>
         </is>
       </c>
       <c r="K226" t="inlineStr"/>
@@ -11329,18 +11329,18 @@
       <c r="A227" t="inlineStr"/>
       <c r="B227" t="inlineStr">
         <is>
-          <t>Kelly, Shane</t>
+          <t>Havens, Shane</t>
         </is>
       </c>
       <c r="C227" t="inlineStr">
         <is>
-          <t>07/28/2023</t>
+          <t>07/24/2023</t>
         </is>
       </c>
       <c r="D227" t="inlineStr"/>
       <c r="E227" t="inlineStr">
         <is>
-          <t>692011</t>
+          <t>692511</t>
         </is>
       </c>
       <c r="F227" t="inlineStr">
@@ -11350,18 +11350,18 @@
       </c>
       <c r="G227" t="inlineStr">
         <is>
-          <t>07/28/2023 10:58</t>
+          <t>07/24/2023 11:56</t>
         </is>
       </c>
       <c r="H227" t="inlineStr">
         <is>
-          <t>07/28/2023 23:35</t>
+          <t>07/24/2023 22:05</t>
         </is>
       </c>
       <c r="I227" t="inlineStr"/>
       <c r="J227" t="inlineStr">
         <is>
-          <t>12.50</t>
+          <t>10.00</t>
         </is>
       </c>
       <c r="K227" t="inlineStr"/>
@@ -11377,18 +11377,18 @@
       <c r="A228" t="inlineStr"/>
       <c r="B228" t="inlineStr">
         <is>
-          <t>Kelly, Shane</t>
+          <t>Havens, Shane</t>
         </is>
       </c>
       <c r="C228" t="inlineStr">
         <is>
-          <t>07/29/2023</t>
+          <t>07/25/2023</t>
         </is>
       </c>
       <c r="D228" t="inlineStr"/>
       <c r="E228" t="inlineStr">
         <is>
-          <t>692011</t>
+          <t>692511</t>
         </is>
       </c>
       <c r="F228" t="inlineStr">
@@ -11398,18 +11398,18 @@
       </c>
       <c r="G228" t="inlineStr">
         <is>
-          <t>07/29/2023 11:03</t>
+          <t>07/25/2023 12:00</t>
         </is>
       </c>
       <c r="H228" t="inlineStr">
         <is>
-          <t>07/29/2023 23:31</t>
+          <t>07/25/2023 21:56</t>
         </is>
       </c>
       <c r="I228" t="inlineStr"/>
       <c r="J228" t="inlineStr">
         <is>
-          <t>12.50</t>
+          <t>10.00</t>
         </is>
       </c>
       <c r="K228" t="inlineStr"/>
@@ -11425,18 +11425,18 @@
       <c r="A229" t="inlineStr"/>
       <c r="B229" t="inlineStr">
         <is>
-          <t>Coley, Sierra</t>
+          <t>Havens, Shane</t>
         </is>
       </c>
       <c r="C229" t="inlineStr">
         <is>
-          <t>07/18/2023</t>
+          <t>07/26/2023</t>
         </is>
       </c>
       <c r="D229" t="inlineStr"/>
       <c r="E229" t="inlineStr">
         <is>
-          <t>692011</t>
+          <t>692511</t>
         </is>
       </c>
       <c r="F229" t="inlineStr">
@@ -11446,18 +11446,18 @@
       </c>
       <c r="G229" t="inlineStr">
         <is>
-          <t>07/18/2023 11:00</t>
+          <t>07/26/2023 11:56</t>
         </is>
       </c>
       <c r="H229" t="inlineStr">
         <is>
-          <t>07/18/2023 00:00</t>
+          <t>07/26/2023 21:55</t>
         </is>
       </c>
       <c r="I229" t="inlineStr"/>
       <c r="J229" t="inlineStr">
         <is>
-          <t>13.00</t>
+          <t>10.00</t>
         </is>
       </c>
       <c r="K229" t="inlineStr"/>
@@ -11473,18 +11473,18 @@
       <c r="A230" t="inlineStr"/>
       <c r="B230" t="inlineStr">
         <is>
-          <t>Coley, Sierra</t>
+          <t>Havens, Shane</t>
         </is>
       </c>
       <c r="C230" t="inlineStr">
         <is>
-          <t>07/19/2023</t>
+          <t>07/27/2023</t>
         </is>
       </c>
       <c r="D230" t="inlineStr"/>
       <c r="E230" t="inlineStr">
         <is>
-          <t>692011</t>
+          <t>692511</t>
         </is>
       </c>
       <c r="F230" t="inlineStr">
@@ -11494,18 +11494,18 @@
       </c>
       <c r="G230" t="inlineStr">
         <is>
-          <t>07/19/2023 09:56</t>
+          <t>07/27/2023 12:02</t>
         </is>
       </c>
       <c r="H230" t="inlineStr">
         <is>
-          <t>07/19/2023 23:59</t>
+          <t>07/27/2023 21:27</t>
         </is>
       </c>
       <c r="I230" t="inlineStr"/>
       <c r="J230" t="inlineStr">
         <is>
-          <t>14.00</t>
+          <t>9.50</t>
         </is>
       </c>
       <c r="K230" t="inlineStr"/>
@@ -11521,12 +11521,12 @@
       <c r="A231" t="inlineStr"/>
       <c r="B231" t="inlineStr">
         <is>
-          <t>Coley, Sierra</t>
+          <t>Kelly, Shane</t>
         </is>
       </c>
       <c r="C231" t="inlineStr">
         <is>
-          <t>07/20/2023</t>
+          <t>07/16/2023</t>
         </is>
       </c>
       <c r="D231" t="inlineStr"/>
@@ -11542,18 +11542,18 @@
       </c>
       <c r="G231" t="inlineStr">
         <is>
-          <t>07/20/2023 08:52</t>
+          <t>07/16/2023 10:59</t>
         </is>
       </c>
       <c r="H231" t="inlineStr">
         <is>
-          <t>07/20/2023 22:07</t>
+          <t>07/16/2023 23:28</t>
         </is>
       </c>
       <c r="I231" t="inlineStr"/>
       <c r="J231" t="inlineStr">
         <is>
-          <t>13.25</t>
+          <t>12.50</t>
         </is>
       </c>
       <c r="K231" t="inlineStr"/>
@@ -11569,12 +11569,12 @@
       <c r="A232" t="inlineStr"/>
       <c r="B232" t="inlineStr">
         <is>
-          <t>Coley, Sierra</t>
+          <t>Kelly, Shane</t>
         </is>
       </c>
       <c r="C232" t="inlineStr">
         <is>
-          <t>07/25/2023</t>
+          <t>07/21/2023</t>
         </is>
       </c>
       <c r="D232" t="inlineStr"/>
@@ -11590,18 +11590,18 @@
       </c>
       <c r="G232" t="inlineStr">
         <is>
-          <t>07/25/2023 10:55</t>
+          <t>07/21/2023 10:56</t>
         </is>
       </c>
       <c r="H232" t="inlineStr">
         <is>
-          <t>07/25/2023 00:08</t>
+          <t>07/21/2023 23:30</t>
         </is>
       </c>
       <c r="I232" t="inlineStr"/>
       <c r="J232" t="inlineStr">
         <is>
-          <t>13.25</t>
+          <t>12.50</t>
         </is>
       </c>
       <c r="K232" t="inlineStr"/>
@@ -11617,12 +11617,12 @@
       <c r="A233" t="inlineStr"/>
       <c r="B233" t="inlineStr">
         <is>
-          <t>Coley, Sierra</t>
+          <t>Kelly, Shane</t>
         </is>
       </c>
       <c r="C233" t="inlineStr">
         <is>
-          <t>07/26/2023</t>
+          <t>07/22/2023</t>
         </is>
       </c>
       <c r="D233" t="inlineStr"/>
@@ -11638,18 +11638,18 @@
       </c>
       <c r="G233" t="inlineStr">
         <is>
-          <t>07/26/2023 10:00</t>
+          <t>07/22/2023 10:57</t>
         </is>
       </c>
       <c r="H233" t="inlineStr">
         <is>
-          <t>07/26/2023 00:00</t>
+          <t>07/22/2023 23:30</t>
         </is>
       </c>
       <c r="I233" t="inlineStr"/>
       <c r="J233" t="inlineStr">
         <is>
-          <t>14.00</t>
+          <t>12.50</t>
         </is>
       </c>
       <c r="K233" t="inlineStr"/>
@@ -11665,12 +11665,12 @@
       <c r="A234" t="inlineStr"/>
       <c r="B234" t="inlineStr">
         <is>
-          <t>Coley, Sierra</t>
+          <t>Kelly, Shane</t>
         </is>
       </c>
       <c r="C234" t="inlineStr">
         <is>
-          <t>07/27/2023</t>
+          <t>07/23/2023</t>
         </is>
       </c>
       <c r="D234" t="inlineStr"/>
@@ -11686,18 +11686,18 @@
       </c>
       <c r="G234" t="inlineStr">
         <is>
-          <t>07/27/2023 08:54</t>
+          <t>07/23/2023 11:01</t>
         </is>
       </c>
       <c r="H234" t="inlineStr">
         <is>
-          <t>07/27/2023 22:58</t>
+          <t>07/23/2023 23:38</t>
         </is>
       </c>
       <c r="I234" t="inlineStr"/>
       <c r="J234" t="inlineStr">
         <is>
-          <t>14.00</t>
+          <t>12.75</t>
         </is>
       </c>
       <c r="K234" t="inlineStr"/>
@@ -11713,18 +11713,18 @@
       <c r="A235" t="inlineStr"/>
       <c r="B235" t="inlineStr">
         <is>
-          <t>Carroll, Stacy</t>
+          <t>Kelly, Shane</t>
         </is>
       </c>
       <c r="C235" t="inlineStr">
         <is>
-          <t>07/16/2023</t>
+          <t>07/28/2023</t>
         </is>
       </c>
       <c r="D235" t="inlineStr"/>
       <c r="E235" t="inlineStr">
         <is>
-          <t>622011</t>
+          <t>692011</t>
         </is>
       </c>
       <c r="F235" t="inlineStr">
@@ -11734,18 +11734,18 @@
       </c>
       <c r="G235" t="inlineStr">
         <is>
-          <t>07/16/2023 18:15</t>
+          <t>07/28/2023 10:58</t>
         </is>
       </c>
       <c r="H235" t="inlineStr">
         <is>
-          <t>07/16/2023 19:00</t>
+          <t>07/28/2023 23:35</t>
         </is>
       </c>
       <c r="I235" t="inlineStr"/>
       <c r="J235" t="inlineStr">
         <is>
-          <t>0.75</t>
+          <t>12.50</t>
         </is>
       </c>
       <c r="K235" t="inlineStr"/>
@@ -11761,18 +11761,18 @@
       <c r="A236" t="inlineStr"/>
       <c r="B236" t="inlineStr">
         <is>
-          <t>Carroll, Stacy</t>
+          <t>Kelly, Shane</t>
         </is>
       </c>
       <c r="C236" t="inlineStr">
         <is>
-          <t>07/16/2023</t>
+          <t>07/29/2023</t>
         </is>
       </c>
       <c r="D236" t="inlineStr"/>
       <c r="E236" t="inlineStr">
         <is>
-          <t>622011</t>
+          <t>692011</t>
         </is>
       </c>
       <c r="F236" t="inlineStr">
@@ -11782,18 +11782,18 @@
       </c>
       <c r="G236" t="inlineStr">
         <is>
-          <t>07/16/2023 19:00</t>
+          <t>07/29/2023 11:03</t>
         </is>
       </c>
       <c r="H236" t="inlineStr">
         <is>
-          <t>07/16/2023 07:00</t>
+          <t>07/29/2023 23:31</t>
         </is>
       </c>
       <c r="I236" t="inlineStr"/>
       <c r="J236" t="inlineStr">
         <is>
-          <t>12.00</t>
+          <t>12.50</t>
         </is>
       </c>
       <c r="K236" t="inlineStr"/>
@@ -11809,18 +11809,18 @@
       <c r="A237" t="inlineStr"/>
       <c r="B237" t="inlineStr">
         <is>
-          <t>Carroll, Stacy</t>
+          <t>Coley, Sierra</t>
         </is>
       </c>
       <c r="C237" t="inlineStr">
         <is>
-          <t>07/16/2023</t>
+          <t>07/18/2023</t>
         </is>
       </c>
       <c r="D237" t="inlineStr"/>
       <c r="E237" t="inlineStr">
         <is>
-          <t>622011</t>
+          <t>692011</t>
         </is>
       </c>
       <c r="F237" t="inlineStr">
@@ -11830,18 +11830,18 @@
       </c>
       <c r="G237" t="inlineStr">
         <is>
-          <t>07/16/2023 07:00</t>
+          <t>07/18/2023 11:00</t>
         </is>
       </c>
       <c r="H237" t="inlineStr">
         <is>
-          <t>07/16/2023 07:15</t>
+          <t>07/18/2023 00:00</t>
         </is>
       </c>
       <c r="I237" t="inlineStr"/>
       <c r="J237" t="inlineStr">
         <is>
-          <t>0.25</t>
+          <t>13.00</t>
         </is>
       </c>
       <c r="K237" t="inlineStr"/>
@@ -11857,18 +11857,18 @@
       <c r="A238" t="inlineStr"/>
       <c r="B238" t="inlineStr">
         <is>
-          <t>Carroll, Stacy</t>
+          <t>Coley, Sierra</t>
         </is>
       </c>
       <c r="C238" t="inlineStr">
         <is>
-          <t>07/17/2023</t>
+          <t>07/19/2023</t>
         </is>
       </c>
       <c r="D238" t="inlineStr"/>
       <c r="E238" t="inlineStr">
         <is>
-          <t>622011</t>
+          <t>692011</t>
         </is>
       </c>
       <c r="F238" t="inlineStr">
@@ -11878,18 +11878,18 @@
       </c>
       <c r="G238" t="inlineStr">
         <is>
-          <t>07/17/2023 18:15</t>
+          <t>07/19/2023 09:56</t>
         </is>
       </c>
       <c r="H238" t="inlineStr">
         <is>
-          <t>07/17/2023 19:00</t>
+          <t>07/19/2023 23:59</t>
         </is>
       </c>
       <c r="I238" t="inlineStr"/>
       <c r="J238" t="inlineStr">
         <is>
-          <t>0.75</t>
+          <t>14.00</t>
         </is>
       </c>
       <c r="K238" t="inlineStr"/>
@@ -11905,18 +11905,18 @@
       <c r="A239" t="inlineStr"/>
       <c r="B239" t="inlineStr">
         <is>
-          <t>Carroll, Stacy</t>
+          <t>Coley, Sierra</t>
         </is>
       </c>
       <c r="C239" t="inlineStr">
         <is>
-          <t>07/17/2023</t>
+          <t>07/20/2023</t>
         </is>
       </c>
       <c r="D239" t="inlineStr"/>
       <c r="E239" t="inlineStr">
         <is>
-          <t>622011</t>
+          <t>692011</t>
         </is>
       </c>
       <c r="F239" t="inlineStr">
@@ -11926,18 +11926,18 @@
       </c>
       <c r="G239" t="inlineStr">
         <is>
-          <t>07/17/2023 19:00</t>
+          <t>07/20/2023 08:52</t>
         </is>
       </c>
       <c r="H239" t="inlineStr">
         <is>
-          <t>07/17/2023 07:00</t>
+          <t>07/20/2023 22:07</t>
         </is>
       </c>
       <c r="I239" t="inlineStr"/>
       <c r="J239" t="inlineStr">
         <is>
-          <t>12.00</t>
+          <t>13.25</t>
         </is>
       </c>
       <c r="K239" t="inlineStr"/>
@@ -11953,18 +11953,18 @@
       <c r="A240" t="inlineStr"/>
       <c r="B240" t="inlineStr">
         <is>
-          <t>Carroll, Stacy</t>
+          <t>Coley, Sierra</t>
         </is>
       </c>
       <c r="C240" t="inlineStr">
         <is>
-          <t>07/17/2023</t>
+          <t>07/25/2023</t>
         </is>
       </c>
       <c r="D240" t="inlineStr"/>
       <c r="E240" t="inlineStr">
         <is>
-          <t>622011</t>
+          <t>692011</t>
         </is>
       </c>
       <c r="F240" t="inlineStr">
@@ -11974,18 +11974,18 @@
       </c>
       <c r="G240" t="inlineStr">
         <is>
-          <t>07/17/2023 07:00</t>
+          <t>07/25/2023 10:55</t>
         </is>
       </c>
       <c r="H240" t="inlineStr">
         <is>
-          <t>07/17/2023 07:30</t>
+          <t>07/25/2023 00:08</t>
         </is>
       </c>
       <c r="I240" t="inlineStr"/>
       <c r="J240" t="inlineStr">
         <is>
-          <t>0.50</t>
+          <t>13.25</t>
         </is>
       </c>
       <c r="K240" t="inlineStr"/>
@@ -12001,18 +12001,18 @@
       <c r="A241" t="inlineStr"/>
       <c r="B241" t="inlineStr">
         <is>
-          <t>Carroll, Stacy</t>
+          <t>Coley, Sierra</t>
         </is>
       </c>
       <c r="C241" t="inlineStr">
         <is>
-          <t>07/18/2023</t>
+          <t>07/26/2023</t>
         </is>
       </c>
       <c r="D241" t="inlineStr"/>
       <c r="E241" t="inlineStr">
         <is>
-          <t>622011</t>
+          <t>692011</t>
         </is>
       </c>
       <c r="F241" t="inlineStr">
@@ -12022,18 +12022,18 @@
       </c>
       <c r="G241" t="inlineStr">
         <is>
-          <t>07/18/2023 18:00</t>
+          <t>07/26/2023 10:00</t>
         </is>
       </c>
       <c r="H241" t="inlineStr">
         <is>
-          <t>07/18/2023 19:00</t>
+          <t>07/26/2023 00:00</t>
         </is>
       </c>
       <c r="I241" t="inlineStr"/>
       <c r="J241" t="inlineStr">
         <is>
-          <t>1.00</t>
+          <t>14.00</t>
         </is>
       </c>
       <c r="K241" t="inlineStr"/>
@@ -12049,18 +12049,18 @@
       <c r="A242" t="inlineStr"/>
       <c r="B242" t="inlineStr">
         <is>
-          <t>Carroll, Stacy</t>
+          <t>Coley, Sierra</t>
         </is>
       </c>
       <c r="C242" t="inlineStr">
         <is>
-          <t>07/18/2023</t>
+          <t>07/27/2023</t>
         </is>
       </c>
       <c r="D242" t="inlineStr"/>
       <c r="E242" t="inlineStr">
         <is>
-          <t>622011</t>
+          <t>692011</t>
         </is>
       </c>
       <c r="F242" t="inlineStr">
@@ -12070,18 +12070,18 @@
       </c>
       <c r="G242" t="inlineStr">
         <is>
-          <t>07/18/2023 19:00</t>
+          <t>07/27/2023 08:54</t>
         </is>
       </c>
       <c r="H242" t="inlineStr">
         <is>
-          <t>07/18/2023 07:00</t>
+          <t>07/27/2023 22:58</t>
         </is>
       </c>
       <c r="I242" t="inlineStr"/>
       <c r="J242" t="inlineStr">
         <is>
-          <t>12.00</t>
+          <t>14.00</t>
         </is>
       </c>
       <c r="K242" t="inlineStr"/>
@@ -12102,7 +12102,7 @@
       </c>
       <c r="C243" t="inlineStr">
         <is>
-          <t>07/18/2023</t>
+          <t>07/16/2023</t>
         </is>
       </c>
       <c r="D243" t="inlineStr"/>
@@ -12118,18 +12118,18 @@
       </c>
       <c r="G243" t="inlineStr">
         <is>
-          <t>07/18/2023 07:00</t>
+          <t>07/16/2023 18:15</t>
         </is>
       </c>
       <c r="H243" t="inlineStr">
         <is>
-          <t>07/18/2023 07:15</t>
+          <t>07/16/2023 19:00</t>
         </is>
       </c>
       <c r="I243" t="inlineStr"/>
       <c r="J243" t="inlineStr">
         <is>
-          <t>0.25</t>
+          <t>0.75</t>
         </is>
       </c>
       <c r="K243" t="inlineStr"/>
@@ -12150,7 +12150,7 @@
       </c>
       <c r="C244" t="inlineStr">
         <is>
-          <t>07/24/2023</t>
+          <t>07/16/2023</t>
         </is>
       </c>
       <c r="D244" t="inlineStr"/>
@@ -12166,18 +12166,18 @@
       </c>
       <c r="G244" t="inlineStr">
         <is>
-          <t>07/24/2023 18:15</t>
+          <t>07/16/2023 19:00</t>
         </is>
       </c>
       <c r="H244" t="inlineStr">
         <is>
-          <t>07/24/2023 19:00</t>
+          <t>07/16/2023 07:00</t>
         </is>
       </c>
       <c r="I244" t="inlineStr"/>
       <c r="J244" t="inlineStr">
         <is>
-          <t>0.75</t>
+          <t>12.00</t>
         </is>
       </c>
       <c r="K244" t="inlineStr"/>
@@ -12198,7 +12198,7 @@
       </c>
       <c r="C245" t="inlineStr">
         <is>
-          <t>07/24/2023</t>
+          <t>07/16/2023</t>
         </is>
       </c>
       <c r="D245" t="inlineStr"/>
@@ -12214,18 +12214,18 @@
       </c>
       <c r="G245" t="inlineStr">
         <is>
-          <t>07/24/2023 19:00</t>
+          <t>07/16/2023 07:00</t>
         </is>
       </c>
       <c r="H245" t="inlineStr">
         <is>
-          <t>07/24/2023 07:00</t>
+          <t>07/16/2023 07:15</t>
         </is>
       </c>
       <c r="I245" t="inlineStr"/>
       <c r="J245" t="inlineStr">
         <is>
-          <t>12.00</t>
+          <t>0.25</t>
         </is>
       </c>
       <c r="K245" t="inlineStr"/>
@@ -12246,7 +12246,7 @@
       </c>
       <c r="C246" t="inlineStr">
         <is>
-          <t>07/24/2023</t>
+          <t>07/17/2023</t>
         </is>
       </c>
       <c r="D246" t="inlineStr"/>
@@ -12262,18 +12262,18 @@
       </c>
       <c r="G246" t="inlineStr">
         <is>
-          <t>07/24/2023 07:00</t>
+          <t>07/17/2023 18:15</t>
         </is>
       </c>
       <c r="H246" t="inlineStr">
         <is>
-          <t>07/24/2023 07:15</t>
+          <t>07/17/2023 19:00</t>
         </is>
       </c>
       <c r="I246" t="inlineStr"/>
       <c r="J246" t="inlineStr">
         <is>
-          <t>0.25</t>
+          <t>0.75</t>
         </is>
       </c>
       <c r="K246" t="inlineStr"/>
@@ -12294,7 +12294,7 @@
       </c>
       <c r="C247" t="inlineStr">
         <is>
-          <t>07/25/2023</t>
+          <t>07/17/2023</t>
         </is>
       </c>
       <c r="D247" t="inlineStr"/>
@@ -12310,18 +12310,18 @@
       </c>
       <c r="G247" t="inlineStr">
         <is>
-          <t>07/25/2023 18:15</t>
+          <t>07/17/2023 19:00</t>
         </is>
       </c>
       <c r="H247" t="inlineStr">
         <is>
-          <t>07/25/2023 19:00</t>
+          <t>07/17/2023 07:00</t>
         </is>
       </c>
       <c r="I247" t="inlineStr"/>
       <c r="J247" t="inlineStr">
         <is>
-          <t>0.75</t>
+          <t>12.00</t>
         </is>
       </c>
       <c r="K247" t="inlineStr"/>
@@ -12342,7 +12342,7 @@
       </c>
       <c r="C248" t="inlineStr">
         <is>
-          <t>07/25/2023</t>
+          <t>07/17/2023</t>
         </is>
       </c>
       <c r="D248" t="inlineStr"/>
@@ -12358,18 +12358,18 @@
       </c>
       <c r="G248" t="inlineStr">
         <is>
-          <t>07/25/2023 19:00</t>
+          <t>07/17/2023 07:00</t>
         </is>
       </c>
       <c r="H248" t="inlineStr">
         <is>
-          <t>07/25/2023 07:00</t>
+          <t>07/17/2023 07:30</t>
         </is>
       </c>
       <c r="I248" t="inlineStr"/>
       <c r="J248" t="inlineStr">
         <is>
-          <t>12.00</t>
+          <t>0.50</t>
         </is>
       </c>
       <c r="K248" t="inlineStr"/>
@@ -12390,7 +12390,7 @@
       </c>
       <c r="C249" t="inlineStr">
         <is>
-          <t>07/25/2023</t>
+          <t>07/18/2023</t>
         </is>
       </c>
       <c r="D249" t="inlineStr"/>
@@ -12406,18 +12406,18 @@
       </c>
       <c r="G249" t="inlineStr">
         <is>
-          <t>07/25/2023 07:00</t>
+          <t>07/18/2023 18:00</t>
         </is>
       </c>
       <c r="H249" t="inlineStr">
         <is>
-          <t>07/25/2023 07:15</t>
+          <t>07/18/2023 19:00</t>
         </is>
       </c>
       <c r="I249" t="inlineStr"/>
       <c r="J249" t="inlineStr">
         <is>
-          <t>0.25</t>
+          <t>1.00</t>
         </is>
       </c>
       <c r="K249" t="inlineStr"/>
@@ -12438,7 +12438,7 @@
       </c>
       <c r="C250" t="inlineStr">
         <is>
-          <t>07/26/2023</t>
+          <t>07/18/2023</t>
         </is>
       </c>
       <c r="D250" t="inlineStr"/>
@@ -12454,18 +12454,18 @@
       </c>
       <c r="G250" t="inlineStr">
         <is>
-          <t>07/26/2023 18:15</t>
+          <t>07/18/2023 19:00</t>
         </is>
       </c>
       <c r="H250" t="inlineStr">
         <is>
-          <t>07/26/2023 19:00</t>
+          <t>07/18/2023 07:00</t>
         </is>
       </c>
       <c r="I250" t="inlineStr"/>
       <c r="J250" t="inlineStr">
         <is>
-          <t>0.75</t>
+          <t>12.00</t>
         </is>
       </c>
       <c r="K250" t="inlineStr"/>
@@ -12486,7 +12486,7 @@
       </c>
       <c r="C251" t="inlineStr">
         <is>
-          <t>07/26/2023</t>
+          <t>07/18/2023</t>
         </is>
       </c>
       <c r="D251" t="inlineStr"/>
@@ -12502,18 +12502,18 @@
       </c>
       <c r="G251" t="inlineStr">
         <is>
-          <t>07/26/2023 19:00</t>
+          <t>07/18/2023 07:00</t>
         </is>
       </c>
       <c r="H251" t="inlineStr">
         <is>
-          <t>07/26/2023 07:00</t>
+          <t>07/18/2023 07:15</t>
         </is>
       </c>
       <c r="I251" t="inlineStr"/>
       <c r="J251" t="inlineStr">
         <is>
-          <t>12.00</t>
+          <t>0.25</t>
         </is>
       </c>
       <c r="K251" t="inlineStr"/>
@@ -12534,7 +12534,7 @@
       </c>
       <c r="C252" t="inlineStr">
         <is>
-          <t>07/26/2023</t>
+          <t>07/24/2023</t>
         </is>
       </c>
       <c r="D252" t="inlineStr"/>
@@ -12550,18 +12550,18 @@
       </c>
       <c r="G252" t="inlineStr">
         <is>
-          <t>07/26/2023 07:00</t>
+          <t>07/24/2023 18:15</t>
         </is>
       </c>
       <c r="H252" t="inlineStr">
         <is>
-          <t>07/26/2023 07:15</t>
+          <t>07/24/2023 19:00</t>
         </is>
       </c>
       <c r="I252" t="inlineStr"/>
       <c r="J252" t="inlineStr">
         <is>
-          <t>0.25</t>
+          <t>0.75</t>
         </is>
       </c>
       <c r="K252" t="inlineStr"/>
@@ -12577,18 +12577,18 @@
       <c r="A253" t="inlineStr"/>
       <c r="B253" t="inlineStr">
         <is>
-          <t>Engberg, Susie</t>
+          <t>Carroll, Stacy</t>
         </is>
       </c>
       <c r="C253" t="inlineStr">
         <is>
-          <t>07/18/2023</t>
+          <t>07/24/2023</t>
         </is>
       </c>
       <c r="D253" t="inlineStr"/>
       <c r="E253" t="inlineStr">
         <is>
-          <t>622511</t>
+          <t>622011</t>
         </is>
       </c>
       <c r="F253" t="inlineStr">
@@ -12598,18 +12598,18 @@
       </c>
       <c r="G253" t="inlineStr">
         <is>
-          <t>07/18/2023 18:33</t>
+          <t>07/24/2023 19:00</t>
         </is>
       </c>
       <c r="H253" t="inlineStr">
         <is>
-          <t>07/18/2023 00:51</t>
+          <t>07/24/2023 07:00</t>
         </is>
       </c>
       <c r="I253" t="inlineStr"/>
       <c r="J253" t="inlineStr">
         <is>
-          <t>6.25</t>
+          <t>12.00</t>
         </is>
       </c>
       <c r="K253" t="inlineStr"/>
@@ -12625,18 +12625,18 @@
       <c r="A254" t="inlineStr"/>
       <c r="B254" t="inlineStr">
         <is>
-          <t>Engberg, Susie</t>
+          <t>Carroll, Stacy</t>
         </is>
       </c>
       <c r="C254" t="inlineStr">
         <is>
-          <t>07/19/2023</t>
+          <t>07/24/2023</t>
         </is>
       </c>
       <c r="D254" t="inlineStr"/>
       <c r="E254" t="inlineStr">
         <is>
-          <t>622511</t>
+          <t>622011</t>
         </is>
       </c>
       <c r="F254" t="inlineStr">
@@ -12646,18 +12646,18 @@
       </c>
       <c r="G254" t="inlineStr">
         <is>
-          <t>07/19/2023 01:22</t>
+          <t>07/24/2023 07:00</t>
         </is>
       </c>
       <c r="H254" t="inlineStr">
         <is>
-          <t>07/19/2023 07:06</t>
+          <t>07/24/2023 07:15</t>
         </is>
       </c>
       <c r="I254" t="inlineStr"/>
       <c r="J254" t="inlineStr">
         <is>
-          <t>5.75</t>
+          <t>0.25</t>
         </is>
       </c>
       <c r="K254" t="inlineStr"/>
@@ -12673,18 +12673,18 @@
       <c r="A255" t="inlineStr"/>
       <c r="B255" t="inlineStr">
         <is>
-          <t>Engberg, Susie</t>
+          <t>Carroll, Stacy</t>
         </is>
       </c>
       <c r="C255" t="inlineStr">
         <is>
-          <t>07/19/2023</t>
+          <t>07/25/2023</t>
         </is>
       </c>
       <c r="D255" t="inlineStr"/>
       <c r="E255" t="inlineStr">
         <is>
-          <t>622511</t>
+          <t>622011</t>
         </is>
       </c>
       <c r="F255" t="inlineStr">
@@ -12694,18 +12694,18 @@
       </c>
       <c r="G255" t="inlineStr">
         <is>
-          <t>07/19/2023 18:32</t>
+          <t>07/25/2023 18:15</t>
         </is>
       </c>
       <c r="H255" t="inlineStr">
         <is>
-          <t>07/19/2023 02:27</t>
+          <t>07/25/2023 19:00</t>
         </is>
       </c>
       <c r="I255" t="inlineStr"/>
       <c r="J255" t="inlineStr">
         <is>
-          <t>8.00</t>
+          <t>0.75</t>
         </is>
       </c>
       <c r="K255" t="inlineStr"/>
@@ -12721,39 +12721,39 @@
       <c r="A256" t="inlineStr"/>
       <c r="B256" t="inlineStr">
         <is>
-          <t>Engberg, Susie</t>
+          <t>Carroll, Stacy</t>
         </is>
       </c>
       <c r="C256" t="inlineStr">
         <is>
-          <t>07/19/2023</t>
+          <t>07/25/2023</t>
         </is>
       </c>
       <c r="D256" t="inlineStr"/>
       <c r="E256" t="inlineStr">
         <is>
-          <t>622511</t>
+          <t>622011</t>
         </is>
       </c>
       <c r="F256" t="inlineStr">
         <is>
-          <t>Lunch</t>
+          <t>Work</t>
         </is>
       </c>
       <c r="G256" t="inlineStr">
         <is>
-          <t>07/19/2023 02:27</t>
+          <t>07/25/2023 19:00</t>
         </is>
       </c>
       <c r="H256" t="inlineStr">
         <is>
-          <t>07/19/2023 03:01</t>
+          <t>07/25/2023 07:00</t>
         </is>
       </c>
       <c r="I256" t="inlineStr"/>
       <c r="J256" t="inlineStr">
         <is>
-          <t>0.00</t>
+          <t>12.00</t>
         </is>
       </c>
       <c r="K256" t="inlineStr"/>
@@ -12769,18 +12769,18 @@
       <c r="A257" t="inlineStr"/>
       <c r="B257" t="inlineStr">
         <is>
-          <t>Engberg, Susie</t>
+          <t>Carroll, Stacy</t>
         </is>
       </c>
       <c r="C257" t="inlineStr">
         <is>
-          <t>07/19/2023</t>
+          <t>07/25/2023</t>
         </is>
       </c>
       <c r="D257" t="inlineStr"/>
       <c r="E257" t="inlineStr">
         <is>
-          <t>622511</t>
+          <t>622011</t>
         </is>
       </c>
       <c r="F257" t="inlineStr">
@@ -12790,18 +12790,18 @@
       </c>
       <c r="G257" t="inlineStr">
         <is>
-          <t>07/19/2023 03:01</t>
+          <t>07/25/2023 07:00</t>
         </is>
       </c>
       <c r="H257" t="inlineStr">
         <is>
-          <t>07/19/2023 06:51</t>
+          <t>07/25/2023 07:15</t>
         </is>
       </c>
       <c r="I257" t="inlineStr"/>
       <c r="J257" t="inlineStr">
         <is>
-          <t>3.75</t>
+          <t>0.25</t>
         </is>
       </c>
       <c r="K257" t="inlineStr"/>
@@ -12817,18 +12817,18 @@
       <c r="A258" t="inlineStr"/>
       <c r="B258" t="inlineStr">
         <is>
-          <t>Engberg, Susie</t>
+          <t>Carroll, Stacy</t>
         </is>
       </c>
       <c r="C258" t="inlineStr">
         <is>
-          <t>07/20/2023</t>
+          <t>07/26/2023</t>
         </is>
       </c>
       <c r="D258" t="inlineStr"/>
       <c r="E258" t="inlineStr">
         <is>
-          <t>622511</t>
+          <t>622011</t>
         </is>
       </c>
       <c r="F258" t="inlineStr">
@@ -12838,18 +12838,18 @@
       </c>
       <c r="G258" t="inlineStr">
         <is>
-          <t>07/20/2023 18:37</t>
+          <t>07/26/2023 18:15</t>
         </is>
       </c>
       <c r="H258" t="inlineStr">
         <is>
-          <t>07/20/2023 01:54</t>
+          <t>07/26/2023 19:00</t>
         </is>
       </c>
       <c r="I258" t="inlineStr"/>
       <c r="J258" t="inlineStr">
         <is>
-          <t>7.50</t>
+          <t>0.75</t>
         </is>
       </c>
       <c r="K258" t="inlineStr"/>
@@ -12865,39 +12865,39 @@
       <c r="A259" t="inlineStr"/>
       <c r="B259" t="inlineStr">
         <is>
-          <t>Engberg, Susie</t>
+          <t>Carroll, Stacy</t>
         </is>
       </c>
       <c r="C259" t="inlineStr">
         <is>
-          <t>07/20/2023</t>
+          <t>07/26/2023</t>
         </is>
       </c>
       <c r="D259" t="inlineStr"/>
       <c r="E259" t="inlineStr">
         <is>
-          <t>622511</t>
+          <t>622011</t>
         </is>
       </c>
       <c r="F259" t="inlineStr">
         <is>
-          <t>Lunch</t>
+          <t>Work</t>
         </is>
       </c>
       <c r="G259" t="inlineStr">
         <is>
-          <t>07/20/2023 01:54</t>
+          <t>07/26/2023 19:00</t>
         </is>
       </c>
       <c r="H259" t="inlineStr">
         <is>
-          <t>07/20/2023 02:29</t>
+          <t>07/26/2023 07:00</t>
         </is>
       </c>
       <c r="I259" t="inlineStr"/>
       <c r="J259" t="inlineStr">
         <is>
-          <t>0.00</t>
+          <t>12.00</t>
         </is>
       </c>
       <c r="K259" t="inlineStr"/>
@@ -12913,18 +12913,18 @@
       <c r="A260" t="inlineStr"/>
       <c r="B260" t="inlineStr">
         <is>
-          <t>Engberg, Susie</t>
+          <t>Carroll, Stacy</t>
         </is>
       </c>
       <c r="C260" t="inlineStr">
         <is>
-          <t>07/20/2023</t>
+          <t>07/26/2023</t>
         </is>
       </c>
       <c r="D260" t="inlineStr"/>
       <c r="E260" t="inlineStr">
         <is>
-          <t>622511</t>
+          <t>622011</t>
         </is>
       </c>
       <c r="F260" t="inlineStr">
@@ -12934,18 +12934,18 @@
       </c>
       <c r="G260" t="inlineStr">
         <is>
-          <t>07/20/2023 02:29</t>
+          <t>07/26/2023 07:00</t>
         </is>
       </c>
       <c r="H260" t="inlineStr">
         <is>
-          <t>07/20/2023 06:54</t>
+          <t>07/26/2023 07:15</t>
         </is>
       </c>
       <c r="I260" t="inlineStr"/>
       <c r="J260" t="inlineStr">
         <is>
-          <t>4.50</t>
+          <t>0.25</t>
         </is>
       </c>
       <c r="K260" t="inlineStr"/>
@@ -12966,7 +12966,7 @@
       </c>
       <c r="C261" t="inlineStr">
         <is>
-          <t>07/27/2023</t>
+          <t>07/18/2023</t>
         </is>
       </c>
       <c r="D261" t="inlineStr"/>
@@ -12982,18 +12982,18 @@
       </c>
       <c r="G261" t="inlineStr">
         <is>
-          <t>07/27/2023 18:33</t>
+          <t>07/18/2023 18:33</t>
         </is>
       </c>
       <c r="H261" t="inlineStr">
         <is>
-          <t>07/27/2023 01:11</t>
+          <t>07/18/2023 00:51</t>
         </is>
       </c>
       <c r="I261" t="inlineStr"/>
       <c r="J261" t="inlineStr">
         <is>
-          <t>6.75</t>
+          <t>6.25</t>
         </is>
       </c>
       <c r="K261" t="inlineStr"/>
@@ -13014,7 +13014,7 @@
       </c>
       <c r="C262" t="inlineStr">
         <is>
-          <t>07/27/2023</t>
+          <t>07/19/2023</t>
         </is>
       </c>
       <c r="D262" t="inlineStr"/>
@@ -13025,23 +13025,23 @@
       </c>
       <c r="F262" t="inlineStr">
         <is>
-          <t>Lunch</t>
+          <t>Work</t>
         </is>
       </c>
       <c r="G262" t="inlineStr">
         <is>
-          <t>07/27/2023 01:11</t>
+          <t>07/19/2023 01:22</t>
         </is>
       </c>
       <c r="H262" t="inlineStr">
         <is>
-          <t>07/27/2023 01:41</t>
+          <t>07/19/2023 07:06</t>
         </is>
       </c>
       <c r="I262" t="inlineStr"/>
       <c r="J262" t="inlineStr">
         <is>
-          <t>0.00</t>
+          <t>5.75</t>
         </is>
       </c>
       <c r="K262" t="inlineStr"/>
@@ -13062,7 +13062,7 @@
       </c>
       <c r="C263" t="inlineStr">
         <is>
-          <t>07/27/2023</t>
+          <t>07/19/2023</t>
         </is>
       </c>
       <c r="D263" t="inlineStr"/>
@@ -13078,18 +13078,18 @@
       </c>
       <c r="G263" t="inlineStr">
         <is>
-          <t>07/27/2023 01:41</t>
+          <t>07/19/2023 18:32</t>
         </is>
       </c>
       <c r="H263" t="inlineStr">
         <is>
-          <t>07/27/2023 07:09</t>
+          <t>07/19/2023 02:27</t>
         </is>
       </c>
       <c r="I263" t="inlineStr"/>
       <c r="J263" t="inlineStr">
         <is>
-          <t>5.50</t>
+          <t>8.00</t>
         </is>
       </c>
       <c r="K263" t="inlineStr"/>
@@ -13110,7 +13110,7 @@
       </c>
       <c r="C264" t="inlineStr">
         <is>
-          <t>07/28/2023</t>
+          <t>07/19/2023</t>
         </is>
       </c>
       <c r="D264" t="inlineStr"/>
@@ -13121,23 +13121,23 @@
       </c>
       <c r="F264" t="inlineStr">
         <is>
-          <t>Work</t>
+          <t>Lunch</t>
         </is>
       </c>
       <c r="G264" t="inlineStr">
         <is>
-          <t>07/28/2023 18:40</t>
+          <t>07/19/2023 02:27</t>
         </is>
       </c>
       <c r="H264" t="inlineStr">
         <is>
-          <t>07/28/2023 01:04</t>
+          <t>07/19/2023 03:01</t>
         </is>
       </c>
       <c r="I264" t="inlineStr"/>
       <c r="J264" t="inlineStr">
         <is>
-          <t>6.25</t>
+          <t>0.00</t>
         </is>
       </c>
       <c r="K264" t="inlineStr"/>
@@ -13158,7 +13158,7 @@
       </c>
       <c r="C265" t="inlineStr">
         <is>
-          <t>07/28/2023</t>
+          <t>07/19/2023</t>
         </is>
       </c>
       <c r="D265" t="inlineStr"/>
@@ -13169,23 +13169,23 @@
       </c>
       <c r="F265" t="inlineStr">
         <is>
-          <t>Lunch</t>
+          <t>Work</t>
         </is>
       </c>
       <c r="G265" t="inlineStr">
         <is>
-          <t>07/28/2023 01:04</t>
+          <t>07/19/2023 03:01</t>
         </is>
       </c>
       <c r="H265" t="inlineStr">
         <is>
-          <t>07/28/2023 01:34</t>
+          <t>07/19/2023 06:51</t>
         </is>
       </c>
       <c r="I265" t="inlineStr"/>
       <c r="J265" t="inlineStr">
         <is>
-          <t>0.00</t>
+          <t>3.75</t>
         </is>
       </c>
       <c r="K265" t="inlineStr"/>
@@ -13206,7 +13206,7 @@
       </c>
       <c r="C266" t="inlineStr">
         <is>
-          <t>07/28/2023</t>
+          <t>07/20/2023</t>
         </is>
       </c>
       <c r="D266" t="inlineStr"/>
@@ -13222,18 +13222,18 @@
       </c>
       <c r="G266" t="inlineStr">
         <is>
-          <t>07/28/2023 01:34</t>
+          <t>07/20/2023 18:37</t>
         </is>
       </c>
       <c r="H266" t="inlineStr">
         <is>
-          <t>07/28/2023 07:04</t>
+          <t>07/20/2023 01:54</t>
         </is>
       </c>
       <c r="I266" t="inlineStr"/>
       <c r="J266" t="inlineStr">
         <is>
-          <t>5.50</t>
+          <t>7.50</t>
         </is>
       </c>
       <c r="K266" t="inlineStr"/>
@@ -13254,7 +13254,7 @@
       </c>
       <c r="C267" t="inlineStr">
         <is>
-          <t>07/29/2023</t>
+          <t>07/20/2023</t>
         </is>
       </c>
       <c r="D267" t="inlineStr"/>
@@ -13265,23 +13265,23 @@
       </c>
       <c r="F267" t="inlineStr">
         <is>
-          <t>Work</t>
+          <t>Lunch</t>
         </is>
       </c>
       <c r="G267" t="inlineStr">
         <is>
-          <t>07/29/2023 18:45</t>
+          <t>07/20/2023 01:54</t>
         </is>
       </c>
       <c r="H267" t="inlineStr">
         <is>
-          <t>07/29/2023 01:20</t>
+          <t>07/20/2023 02:29</t>
         </is>
       </c>
       <c r="I267" t="inlineStr"/>
       <c r="J267" t="inlineStr">
         <is>
-          <t>6.50</t>
+          <t>0.00</t>
         </is>
       </c>
       <c r="K267" t="inlineStr"/>
@@ -13302,7 +13302,7 @@
       </c>
       <c r="C268" t="inlineStr">
         <is>
-          <t>07/29/2023</t>
+          <t>07/20/2023</t>
         </is>
       </c>
       <c r="D268" t="inlineStr"/>
@@ -13313,23 +13313,23 @@
       </c>
       <c r="F268" t="inlineStr">
         <is>
-          <t>Lunch</t>
+          <t>Work</t>
         </is>
       </c>
       <c r="G268" t="inlineStr">
         <is>
-          <t>07/29/2023 01:20</t>
+          <t>07/20/2023 02:29</t>
         </is>
       </c>
       <c r="H268" t="inlineStr">
         <is>
-          <t>07/29/2023 01:55</t>
+          <t>07/20/2023 06:54</t>
         </is>
       </c>
       <c r="I268" t="inlineStr"/>
       <c r="J268" t="inlineStr">
         <is>
-          <t>0.00</t>
+          <t>4.50</t>
         </is>
       </c>
       <c r="K268" t="inlineStr"/>
@@ -13350,7 +13350,7 @@
       </c>
       <c r="C269" t="inlineStr">
         <is>
-          <t>07/29/2023</t>
+          <t>07/27/2023</t>
         </is>
       </c>
       <c r="D269" t="inlineStr"/>
@@ -13366,18 +13366,18 @@
       </c>
       <c r="G269" t="inlineStr">
         <is>
-          <t>07/29/2023 01:55</t>
+          <t>07/27/2023 18:33</t>
         </is>
       </c>
       <c r="H269" t="inlineStr">
         <is>
-          <t>07/29/2023 07:09</t>
+          <t>07/27/2023 01:11</t>
         </is>
       </c>
       <c r="I269" t="inlineStr"/>
       <c r="J269" t="inlineStr">
         <is>
-          <t>5.25</t>
+          <t>6.75</t>
         </is>
       </c>
       <c r="K269" t="inlineStr"/>
@@ -13393,39 +13393,39 @@
       <c r="A270" t="inlineStr"/>
       <c r="B270" t="inlineStr">
         <is>
-          <t>Monroe, Temple</t>
+          <t>Engberg, Susie</t>
         </is>
       </c>
       <c r="C270" t="inlineStr">
         <is>
-          <t>07/16/2023</t>
+          <t>07/27/2023</t>
         </is>
       </c>
       <c r="D270" t="inlineStr"/>
       <c r="E270" t="inlineStr">
         <is>
-          <t>631011</t>
+          <t>622511</t>
         </is>
       </c>
       <c r="F270" t="inlineStr">
         <is>
-          <t>Work</t>
+          <t>Lunch</t>
         </is>
       </c>
       <c r="G270" t="inlineStr">
         <is>
-          <t>07/16/2023 12:45</t>
+          <t>07/27/2023 01:11</t>
         </is>
       </c>
       <c r="H270" t="inlineStr">
         <is>
-          <t>07/16/2023 19:00</t>
+          <t>07/27/2023 01:41</t>
         </is>
       </c>
       <c r="I270" t="inlineStr"/>
       <c r="J270" t="inlineStr">
         <is>
-          <t>6.25</t>
+          <t>0.00</t>
         </is>
       </c>
       <c r="K270" t="inlineStr"/>
@@ -13441,18 +13441,18 @@
       <c r="A271" t="inlineStr"/>
       <c r="B271" t="inlineStr">
         <is>
-          <t>Monroe, Temple</t>
+          <t>Engberg, Susie</t>
         </is>
       </c>
       <c r="C271" t="inlineStr">
         <is>
-          <t>07/16/2023</t>
+          <t>07/27/2023</t>
         </is>
       </c>
       <c r="D271" t="inlineStr"/>
       <c r="E271" t="inlineStr">
         <is>
-          <t>631011</t>
+          <t>622511</t>
         </is>
       </c>
       <c r="F271" t="inlineStr">
@@ -13462,18 +13462,18 @@
       </c>
       <c r="G271" t="inlineStr">
         <is>
-          <t>07/16/2023 19:00</t>
+          <t>07/27/2023 01:41</t>
         </is>
       </c>
       <c r="H271" t="inlineStr">
         <is>
-          <t>07/16/2023 01:30</t>
+          <t>07/27/2023 07:09</t>
         </is>
       </c>
       <c r="I271" t="inlineStr"/>
       <c r="J271" t="inlineStr">
         <is>
-          <t>6.50</t>
+          <t>5.50</t>
         </is>
       </c>
       <c r="K271" t="inlineStr"/>
@@ -13489,18 +13489,18 @@
       <c r="A272" t="inlineStr"/>
       <c r="B272" t="inlineStr">
         <is>
-          <t>Monroe, Temple</t>
+          <t>Engberg, Susie</t>
         </is>
       </c>
       <c r="C272" t="inlineStr">
         <is>
-          <t>07/17/2023</t>
+          <t>07/28/2023</t>
         </is>
       </c>
       <c r="D272" t="inlineStr"/>
       <c r="E272" t="inlineStr">
         <is>
-          <t>631011</t>
+          <t>622511</t>
         </is>
       </c>
       <c r="F272" t="inlineStr">
@@ -13510,18 +13510,18 @@
       </c>
       <c r="G272" t="inlineStr">
         <is>
-          <t>07/17/2023 12:30</t>
+          <t>07/28/2023 18:40</t>
         </is>
       </c>
       <c r="H272" t="inlineStr">
         <is>
-          <t>07/17/2023 19:00</t>
+          <t>07/28/2023 01:04</t>
         </is>
       </c>
       <c r="I272" t="inlineStr"/>
       <c r="J272" t="inlineStr">
         <is>
-          <t>6.50</t>
+          <t>6.25</t>
         </is>
       </c>
       <c r="K272" t="inlineStr"/>
@@ -13537,39 +13537,39 @@
       <c r="A273" t="inlineStr"/>
       <c r="B273" t="inlineStr">
         <is>
-          <t>Monroe, Temple</t>
+          <t>Engberg, Susie</t>
         </is>
       </c>
       <c r="C273" t="inlineStr">
         <is>
-          <t>07/17/2023</t>
+          <t>07/28/2023</t>
         </is>
       </c>
       <c r="D273" t="inlineStr"/>
       <c r="E273" t="inlineStr">
         <is>
-          <t>631011</t>
+          <t>622511</t>
         </is>
       </c>
       <c r="F273" t="inlineStr">
         <is>
-          <t>Work</t>
+          <t>Lunch</t>
         </is>
       </c>
       <c r="G273" t="inlineStr">
         <is>
-          <t>07/17/2023 19:00</t>
+          <t>07/28/2023 01:04</t>
         </is>
       </c>
       <c r="H273" t="inlineStr">
         <is>
-          <t>07/17/2023 00:15</t>
+          <t>07/28/2023 01:34</t>
         </is>
       </c>
       <c r="I273" t="inlineStr"/>
       <c r="J273" t="inlineStr">
         <is>
-          <t>5.25</t>
+          <t>0.00</t>
         </is>
       </c>
       <c r="K273" t="inlineStr"/>
@@ -13585,18 +13585,18 @@
       <c r="A274" t="inlineStr"/>
       <c r="B274" t="inlineStr">
         <is>
-          <t>Monroe, Temple</t>
+          <t>Engberg, Susie</t>
         </is>
       </c>
       <c r="C274" t="inlineStr">
         <is>
-          <t>07/18/2023</t>
+          <t>07/28/2023</t>
         </is>
       </c>
       <c r="D274" t="inlineStr"/>
       <c r="E274" t="inlineStr">
         <is>
-          <t>631011</t>
+          <t>622511</t>
         </is>
       </c>
       <c r="F274" t="inlineStr">
@@ -13606,18 +13606,18 @@
       </c>
       <c r="G274" t="inlineStr">
         <is>
-          <t>07/18/2023 12:30</t>
+          <t>07/28/2023 01:34</t>
         </is>
       </c>
       <c r="H274" t="inlineStr">
         <is>
-          <t>07/18/2023 19:00</t>
+          <t>07/28/2023 07:04</t>
         </is>
       </c>
       <c r="I274" t="inlineStr"/>
       <c r="J274" t="inlineStr">
         <is>
-          <t>6.50</t>
+          <t>5.50</t>
         </is>
       </c>
       <c r="K274" t="inlineStr"/>
@@ -13633,18 +13633,18 @@
       <c r="A275" t="inlineStr"/>
       <c r="B275" t="inlineStr">
         <is>
-          <t>Monroe, Temple</t>
+          <t>Engberg, Susie</t>
         </is>
       </c>
       <c r="C275" t="inlineStr">
         <is>
-          <t>07/18/2023</t>
+          <t>07/29/2023</t>
         </is>
       </c>
       <c r="D275" t="inlineStr"/>
       <c r="E275" t="inlineStr">
         <is>
-          <t>631011</t>
+          <t>622511</t>
         </is>
       </c>
       <c r="F275" t="inlineStr">
@@ -13654,18 +13654,18 @@
       </c>
       <c r="G275" t="inlineStr">
         <is>
-          <t>07/18/2023 19:00</t>
+          <t>07/29/2023 18:45</t>
         </is>
       </c>
       <c r="H275" t="inlineStr">
         <is>
-          <t>07/18/2023 23:00</t>
+          <t>07/29/2023 01:20</t>
         </is>
       </c>
       <c r="I275" t="inlineStr"/>
       <c r="J275" t="inlineStr">
         <is>
-          <t>4.00</t>
+          <t>6.50</t>
         </is>
       </c>
       <c r="K275" t="inlineStr"/>
@@ -13681,39 +13681,39 @@
       <c r="A276" t="inlineStr"/>
       <c r="B276" t="inlineStr">
         <is>
-          <t>Monroe, Temple</t>
+          <t>Engberg, Susie</t>
         </is>
       </c>
       <c r="C276" t="inlineStr">
         <is>
-          <t>07/23/2023</t>
+          <t>07/29/2023</t>
         </is>
       </c>
       <c r="D276" t="inlineStr"/>
       <c r="E276" t="inlineStr">
         <is>
-          <t>631011</t>
+          <t>622511</t>
         </is>
       </c>
       <c r="F276" t="inlineStr">
         <is>
-          <t>Work</t>
+          <t>Lunch</t>
         </is>
       </c>
       <c r="G276" t="inlineStr">
         <is>
-          <t>07/23/2023 12:30</t>
+          <t>07/29/2023 01:20</t>
         </is>
       </c>
       <c r="H276" t="inlineStr">
         <is>
-          <t>07/23/2023 19:00</t>
+          <t>07/29/2023 01:55</t>
         </is>
       </c>
       <c r="I276" t="inlineStr"/>
       <c r="J276" t="inlineStr">
         <is>
-          <t>6.50</t>
+          <t>0.00</t>
         </is>
       </c>
       <c r="K276" t="inlineStr"/>
@@ -13729,18 +13729,18 @@
       <c r="A277" t="inlineStr"/>
       <c r="B277" t="inlineStr">
         <is>
-          <t>Monroe, Temple</t>
+          <t>Engberg, Susie</t>
         </is>
       </c>
       <c r="C277" t="inlineStr">
         <is>
-          <t>07/23/2023</t>
+          <t>07/29/2023</t>
         </is>
       </c>
       <c r="D277" t="inlineStr"/>
       <c r="E277" t="inlineStr">
         <is>
-          <t>631011</t>
+          <t>622511</t>
         </is>
       </c>
       <c r="F277" t="inlineStr">
@@ -13750,18 +13750,18 @@
       </c>
       <c r="G277" t="inlineStr">
         <is>
-          <t>07/23/2023 19:00</t>
+          <t>07/29/2023 01:55</t>
         </is>
       </c>
       <c r="H277" t="inlineStr">
         <is>
-          <t>07/23/2023 01:15</t>
+          <t>07/29/2023 07:09</t>
         </is>
       </c>
       <c r="I277" t="inlineStr"/>
       <c r="J277" t="inlineStr">
         <is>
-          <t>6.25</t>
+          <t>5.25</t>
         </is>
       </c>
       <c r="K277" t="inlineStr"/>
@@ -13782,7 +13782,7 @@
       </c>
       <c r="C278" t="inlineStr">
         <is>
-          <t>07/24/2023</t>
+          <t>07/16/2023</t>
         </is>
       </c>
       <c r="D278" t="inlineStr"/>
@@ -13798,18 +13798,18 @@
       </c>
       <c r="G278" t="inlineStr">
         <is>
-          <t>07/24/2023 12:30</t>
+          <t>07/16/2023 12:45</t>
         </is>
       </c>
       <c r="H278" t="inlineStr">
         <is>
-          <t>07/24/2023 19:00</t>
+          <t>07/16/2023 19:00</t>
         </is>
       </c>
       <c r="I278" t="inlineStr"/>
       <c r="J278" t="inlineStr">
         <is>
-          <t>6.50</t>
+          <t>6.25</t>
         </is>
       </c>
       <c r="K278" t="inlineStr"/>
@@ -13830,7 +13830,7 @@
       </c>
       <c r="C279" t="inlineStr">
         <is>
-          <t>07/24/2023</t>
+          <t>07/16/2023</t>
         </is>
       </c>
       <c r="D279" t="inlineStr"/>
@@ -13846,18 +13846,18 @@
       </c>
       <c r="G279" t="inlineStr">
         <is>
-          <t>07/24/2023 19:00</t>
+          <t>07/16/2023 19:00</t>
         </is>
       </c>
       <c r="H279" t="inlineStr">
         <is>
-          <t>07/24/2023 01:00</t>
+          <t>07/16/2023 01:30</t>
         </is>
       </c>
       <c r="I279" t="inlineStr"/>
       <c r="J279" t="inlineStr">
         <is>
-          <t>6.00</t>
+          <t>6.50</t>
         </is>
       </c>
       <c r="K279" t="inlineStr"/>
@@ -13878,7 +13878,7 @@
       </c>
       <c r="C280" t="inlineStr">
         <is>
-          <t>07/25/2023</t>
+          <t>07/17/2023</t>
         </is>
       </c>
       <c r="D280" t="inlineStr"/>
@@ -13894,12 +13894,12 @@
       </c>
       <c r="G280" t="inlineStr">
         <is>
-          <t>07/25/2023 12:30</t>
+          <t>07/17/2023 12:30</t>
         </is>
       </c>
       <c r="H280" t="inlineStr">
         <is>
-          <t>07/25/2023 19:00</t>
+          <t>07/17/2023 19:00</t>
         </is>
       </c>
       <c r="I280" t="inlineStr"/>
@@ -13926,7 +13926,7 @@
       </c>
       <c r="C281" t="inlineStr">
         <is>
-          <t>07/25/2023</t>
+          <t>07/17/2023</t>
         </is>
       </c>
       <c r="D281" t="inlineStr"/>
@@ -13942,18 +13942,18 @@
       </c>
       <c r="G281" t="inlineStr">
         <is>
-          <t>07/25/2023 19:00</t>
+          <t>07/17/2023 19:00</t>
         </is>
       </c>
       <c r="H281" t="inlineStr">
         <is>
-          <t>07/25/2023 00:45</t>
+          <t>07/17/2023 00:15</t>
         </is>
       </c>
       <c r="I281" t="inlineStr"/>
       <c r="J281" t="inlineStr">
         <is>
-          <t>5.75</t>
+          <t>5.25</t>
         </is>
       </c>
       <c r="K281" t="inlineStr"/>
@@ -13969,18 +13969,18 @@
       <c r="A282" t="inlineStr"/>
       <c r="B282" t="inlineStr">
         <is>
-          <t>Alexander, Wendy</t>
+          <t>Monroe, Temple</t>
         </is>
       </c>
       <c r="C282" t="inlineStr">
         <is>
-          <t>07/20/2023</t>
+          <t>07/18/2023</t>
         </is>
       </c>
       <c r="D282" t="inlineStr"/>
       <c r="E282" t="inlineStr">
         <is>
-          <t>665211</t>
+          <t>631011</t>
         </is>
       </c>
       <c r="F282" t="inlineStr">
@@ -13990,18 +13990,18 @@
       </c>
       <c r="G282" t="inlineStr">
         <is>
-          <t>07/20/2023 18:38</t>
+          <t>07/18/2023 12:30</t>
         </is>
       </c>
       <c r="H282" t="inlineStr">
         <is>
-          <t>07/20/2023 05:06</t>
+          <t>07/18/2023 19:00</t>
         </is>
       </c>
       <c r="I282" t="inlineStr"/>
       <c r="J282" t="inlineStr">
         <is>
-          <t>10.25</t>
+          <t>6.50</t>
         </is>
       </c>
       <c r="K282" t="inlineStr"/>
@@ -14017,39 +14017,39 @@
       <c r="A283" t="inlineStr"/>
       <c r="B283" t="inlineStr">
         <is>
-          <t>Alexander, Wendy</t>
+          <t>Monroe, Temple</t>
         </is>
       </c>
       <c r="C283" t="inlineStr">
         <is>
-          <t>07/20/2023</t>
+          <t>07/18/2023</t>
         </is>
       </c>
       <c r="D283" t="inlineStr"/>
       <c r="E283" t="inlineStr">
         <is>
-          <t>665211</t>
+          <t>631011</t>
         </is>
       </c>
       <c r="F283" t="inlineStr">
         <is>
-          <t>Lunch</t>
+          <t>Work</t>
         </is>
       </c>
       <c r="G283" t="inlineStr">
         <is>
-          <t>07/20/2023 05:06</t>
+          <t>07/18/2023 19:00</t>
         </is>
       </c>
       <c r="H283" t="inlineStr">
         <is>
-          <t>07/20/2023 05:37</t>
+          <t>07/18/2023 23:00</t>
         </is>
       </c>
       <c r="I283" t="inlineStr"/>
       <c r="J283" t="inlineStr">
         <is>
-          <t>0.00</t>
+          <t>4.00</t>
         </is>
       </c>
       <c r="K283" t="inlineStr"/>
@@ -14065,18 +14065,18 @@
       <c r="A284" t="inlineStr"/>
       <c r="B284" t="inlineStr">
         <is>
-          <t>Alexander, Wendy</t>
+          <t>Monroe, Temple</t>
         </is>
       </c>
       <c r="C284" t="inlineStr">
         <is>
-          <t>07/20/2023</t>
+          <t>07/23/2023</t>
         </is>
       </c>
       <c r="D284" t="inlineStr"/>
       <c r="E284" t="inlineStr">
         <is>
-          <t>665211</t>
+          <t>631011</t>
         </is>
       </c>
       <c r="F284" t="inlineStr">
@@ -14086,18 +14086,18 @@
       </c>
       <c r="G284" t="inlineStr">
         <is>
-          <t>07/20/2023 05:37</t>
+          <t>07/23/2023 12:30</t>
         </is>
       </c>
       <c r="H284" t="inlineStr">
         <is>
-          <t>07/20/2023 07:01</t>
+          <t>07/23/2023 19:00</t>
         </is>
       </c>
       <c r="I284" t="inlineStr"/>
       <c r="J284" t="inlineStr">
         <is>
-          <t>1.50</t>
+          <t>6.50</t>
         </is>
       </c>
       <c r="K284" t="inlineStr"/>
@@ -14113,18 +14113,18 @@
       <c r="A285" t="inlineStr"/>
       <c r="B285" t="inlineStr">
         <is>
-          <t>Alexander, Wendy</t>
+          <t>Monroe, Temple</t>
         </is>
       </c>
       <c r="C285" t="inlineStr">
         <is>
-          <t>07/21/2023</t>
+          <t>07/23/2023</t>
         </is>
       </c>
       <c r="D285" t="inlineStr"/>
       <c r="E285" t="inlineStr">
         <is>
-          <t>665211</t>
+          <t>631011</t>
         </is>
       </c>
       <c r="F285" t="inlineStr">
@@ -14134,18 +14134,18 @@
       </c>
       <c r="G285" t="inlineStr">
         <is>
-          <t>07/21/2023 18:44</t>
+          <t>07/23/2023 19:00</t>
         </is>
       </c>
       <c r="H285" t="inlineStr">
         <is>
-          <t>07/21/2023 04:22</t>
+          <t>07/23/2023 01:15</t>
         </is>
       </c>
       <c r="I285" t="inlineStr"/>
       <c r="J285" t="inlineStr">
         <is>
-          <t>9.50</t>
+          <t>6.25</t>
         </is>
       </c>
       <c r="K285" t="inlineStr"/>
@@ -14161,39 +14161,39 @@
       <c r="A286" t="inlineStr"/>
       <c r="B286" t="inlineStr">
         <is>
-          <t>Alexander, Wendy</t>
+          <t>Monroe, Temple</t>
         </is>
       </c>
       <c r="C286" t="inlineStr">
         <is>
-          <t>07/21/2023</t>
+          <t>07/24/2023</t>
         </is>
       </c>
       <c r="D286" t="inlineStr"/>
       <c r="E286" t="inlineStr">
         <is>
-          <t>665211</t>
+          <t>631011</t>
         </is>
       </c>
       <c r="F286" t="inlineStr">
         <is>
-          <t>Lunch</t>
+          <t>Work</t>
         </is>
       </c>
       <c r="G286" t="inlineStr">
         <is>
-          <t>07/21/2023 04:22</t>
+          <t>07/24/2023 12:30</t>
         </is>
       </c>
       <c r="H286" t="inlineStr">
         <is>
-          <t>07/21/2023 04:53</t>
+          <t>07/24/2023 19:00</t>
         </is>
       </c>
       <c r="I286" t="inlineStr"/>
       <c r="J286" t="inlineStr">
         <is>
-          <t>0.00</t>
+          <t>6.50</t>
         </is>
       </c>
       <c r="K286" t="inlineStr"/>
@@ -14209,18 +14209,18 @@
       <c r="A287" t="inlineStr"/>
       <c r="B287" t="inlineStr">
         <is>
-          <t>Alexander, Wendy</t>
+          <t>Monroe, Temple</t>
         </is>
       </c>
       <c r="C287" t="inlineStr">
         <is>
-          <t>07/21/2023</t>
+          <t>07/24/2023</t>
         </is>
       </c>
       <c r="D287" t="inlineStr"/>
       <c r="E287" t="inlineStr">
         <is>
-          <t>665211</t>
+          <t>631011</t>
         </is>
       </c>
       <c r="F287" t="inlineStr">
@@ -14230,18 +14230,18 @@
       </c>
       <c r="G287" t="inlineStr">
         <is>
-          <t>07/21/2023 04:53</t>
+          <t>07/24/2023 19:00</t>
         </is>
       </c>
       <c r="H287" t="inlineStr">
         <is>
-          <t>07/21/2023 06:53</t>
+          <t>07/24/2023 01:00</t>
         </is>
       </c>
       <c r="I287" t="inlineStr"/>
       <c r="J287" t="inlineStr">
         <is>
-          <t>2.00</t>
+          <t>6.00</t>
         </is>
       </c>
       <c r="K287" t="inlineStr"/>
@@ -14257,18 +14257,18 @@
       <c r="A288" t="inlineStr"/>
       <c r="B288" t="inlineStr">
         <is>
-          <t>Alexander, Wendy</t>
+          <t>Monroe, Temple</t>
         </is>
       </c>
       <c r="C288" t="inlineStr">
         <is>
-          <t>07/22/2023</t>
+          <t>07/25/2023</t>
         </is>
       </c>
       <c r="D288" t="inlineStr"/>
       <c r="E288" t="inlineStr">
         <is>
-          <t>665211</t>
+          <t>631011</t>
         </is>
       </c>
       <c r="F288" t="inlineStr">
@@ -14278,18 +14278,18 @@
       </c>
       <c r="G288" t="inlineStr">
         <is>
-          <t>07/22/2023 18:32</t>
+          <t>07/25/2023 12:30</t>
         </is>
       </c>
       <c r="H288" t="inlineStr">
         <is>
-          <t>07/22/2023 07:02</t>
+          <t>07/25/2023 19:00</t>
         </is>
       </c>
       <c r="I288" t="inlineStr"/>
       <c r="J288" t="inlineStr">
         <is>
-          <t>12.50</t>
+          <t>6.50</t>
         </is>
       </c>
       <c r="K288" t="inlineStr"/>
@@ -14305,18 +14305,18 @@
       <c r="A289" t="inlineStr"/>
       <c r="B289" t="inlineStr">
         <is>
-          <t>Alexander, Wendy</t>
+          <t>Monroe, Temple</t>
         </is>
       </c>
       <c r="C289" t="inlineStr">
         <is>
-          <t>07/23/2023</t>
+          <t>07/25/2023</t>
         </is>
       </c>
       <c r="D289" t="inlineStr"/>
       <c r="E289" t="inlineStr">
         <is>
-          <t>665211</t>
+          <t>631011</t>
         </is>
       </c>
       <c r="F289" t="inlineStr">
@@ -14326,18 +14326,18 @@
       </c>
       <c r="G289" t="inlineStr">
         <is>
-          <t>07/23/2023 18:41</t>
+          <t>07/25/2023 19:00</t>
         </is>
       </c>
       <c r="H289" t="inlineStr">
         <is>
-          <t>07/23/2023 07:04</t>
+          <t>07/25/2023 00:45</t>
         </is>
       </c>
       <c r="I289" t="inlineStr"/>
       <c r="J289" t="inlineStr">
         <is>
-          <t>12.25</t>
+          <t>5.75</t>
         </is>
       </c>
       <c r="K289" t="inlineStr"/>
@@ -14358,7 +14358,7 @@
       </c>
       <c r="C290" t="inlineStr">
         <is>
-          <t>07/24/2023</t>
+          <t>07/20/2023</t>
         </is>
       </c>
       <c r="D290" t="inlineStr"/>
@@ -14374,18 +14374,18 @@
       </c>
       <c r="G290" t="inlineStr">
         <is>
-          <t>07/24/2023 18:41</t>
+          <t>07/20/2023 18:38</t>
         </is>
       </c>
       <c r="H290" t="inlineStr">
         <is>
-          <t>07/24/2023 07:04</t>
+          <t>07/20/2023 05:06</t>
         </is>
       </c>
       <c r="I290" t="inlineStr"/>
       <c r="J290" t="inlineStr">
         <is>
-          <t>12.25</t>
+          <t>10.25</t>
         </is>
       </c>
       <c r="K290" t="inlineStr"/>
@@ -14406,7 +14406,7 @@
       </c>
       <c r="C291" t="inlineStr">
         <is>
-          <t>07/25/2023</t>
+          <t>07/20/2023</t>
         </is>
       </c>
       <c r="D291" t="inlineStr"/>
@@ -14417,23 +14417,23 @@
       </c>
       <c r="F291" t="inlineStr">
         <is>
-          <t>Work</t>
+          <t>Lunch</t>
         </is>
       </c>
       <c r="G291" t="inlineStr">
         <is>
-          <t>07/25/2023 18:36</t>
+          <t>07/20/2023 05:06</t>
         </is>
       </c>
       <c r="H291" t="inlineStr">
         <is>
-          <t>07/25/2023 07:07</t>
+          <t>07/20/2023 05:37</t>
         </is>
       </c>
       <c r="I291" t="inlineStr"/>
       <c r="J291" t="inlineStr">
         <is>
-          <t>12.50</t>
+          <t>0.00</t>
         </is>
       </c>
       <c r="K291" t="inlineStr"/>
@@ -14445,6 +14445,390 @@
       <c r="Q291" t="inlineStr"/>
       <c r="R291" t="inlineStr"/>
     </row>
+    <row r="292">
+      <c r="A292" t="inlineStr"/>
+      <c r="B292" t="inlineStr">
+        <is>
+          <t>Alexander, Wendy</t>
+        </is>
+      </c>
+      <c r="C292" t="inlineStr">
+        <is>
+          <t>07/20/2023</t>
+        </is>
+      </c>
+      <c r="D292" t="inlineStr"/>
+      <c r="E292" t="inlineStr">
+        <is>
+          <t>665211</t>
+        </is>
+      </c>
+      <c r="F292" t="inlineStr">
+        <is>
+          <t>Work</t>
+        </is>
+      </c>
+      <c r="G292" t="inlineStr">
+        <is>
+          <t>07/20/2023 05:37</t>
+        </is>
+      </c>
+      <c r="H292" t="inlineStr">
+        <is>
+          <t>07/20/2023 07:01</t>
+        </is>
+      </c>
+      <c r="I292" t="inlineStr"/>
+      <c r="J292" t="inlineStr">
+        <is>
+          <t>1.50</t>
+        </is>
+      </c>
+      <c r="K292" t="inlineStr"/>
+      <c r="L292" t="inlineStr"/>
+      <c r="M292" t="inlineStr"/>
+      <c r="N292" t="inlineStr"/>
+      <c r="O292" t="inlineStr"/>
+      <c r="P292" t="inlineStr"/>
+      <c r="Q292" t="inlineStr"/>
+      <c r="R292" t="inlineStr"/>
+    </row>
+    <row r="293">
+      <c r="A293" t="inlineStr"/>
+      <c r="B293" t="inlineStr">
+        <is>
+          <t>Alexander, Wendy</t>
+        </is>
+      </c>
+      <c r="C293" t="inlineStr">
+        <is>
+          <t>07/21/2023</t>
+        </is>
+      </c>
+      <c r="D293" t="inlineStr"/>
+      <c r="E293" t="inlineStr">
+        <is>
+          <t>665211</t>
+        </is>
+      </c>
+      <c r="F293" t="inlineStr">
+        <is>
+          <t>Work</t>
+        </is>
+      </c>
+      <c r="G293" t="inlineStr">
+        <is>
+          <t>07/21/2023 18:44</t>
+        </is>
+      </c>
+      <c r="H293" t="inlineStr">
+        <is>
+          <t>07/21/2023 04:22</t>
+        </is>
+      </c>
+      <c r="I293" t="inlineStr"/>
+      <c r="J293" t="inlineStr">
+        <is>
+          <t>9.50</t>
+        </is>
+      </c>
+      <c r="K293" t="inlineStr"/>
+      <c r="L293" t="inlineStr"/>
+      <c r="M293" t="inlineStr"/>
+      <c r="N293" t="inlineStr"/>
+      <c r="O293" t="inlineStr"/>
+      <c r="P293" t="inlineStr"/>
+      <c r="Q293" t="inlineStr"/>
+      <c r="R293" t="inlineStr"/>
+    </row>
+    <row r="294">
+      <c r="A294" t="inlineStr"/>
+      <c r="B294" t="inlineStr">
+        <is>
+          <t>Alexander, Wendy</t>
+        </is>
+      </c>
+      <c r="C294" t="inlineStr">
+        <is>
+          <t>07/21/2023</t>
+        </is>
+      </c>
+      <c r="D294" t="inlineStr"/>
+      <c r="E294" t="inlineStr">
+        <is>
+          <t>665211</t>
+        </is>
+      </c>
+      <c r="F294" t="inlineStr">
+        <is>
+          <t>Lunch</t>
+        </is>
+      </c>
+      <c r="G294" t="inlineStr">
+        <is>
+          <t>07/21/2023 04:22</t>
+        </is>
+      </c>
+      <c r="H294" t="inlineStr">
+        <is>
+          <t>07/21/2023 04:53</t>
+        </is>
+      </c>
+      <c r="I294" t="inlineStr"/>
+      <c r="J294" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="K294" t="inlineStr"/>
+      <c r="L294" t="inlineStr"/>
+      <c r="M294" t="inlineStr"/>
+      <c r="N294" t="inlineStr"/>
+      <c r="O294" t="inlineStr"/>
+      <c r="P294" t="inlineStr"/>
+      <c r="Q294" t="inlineStr"/>
+      <c r="R294" t="inlineStr"/>
+    </row>
+    <row r="295">
+      <c r="A295" t="inlineStr"/>
+      <c r="B295" t="inlineStr">
+        <is>
+          <t>Alexander, Wendy</t>
+        </is>
+      </c>
+      <c r="C295" t="inlineStr">
+        <is>
+          <t>07/21/2023</t>
+        </is>
+      </c>
+      <c r="D295" t="inlineStr"/>
+      <c r="E295" t="inlineStr">
+        <is>
+          <t>665211</t>
+        </is>
+      </c>
+      <c r="F295" t="inlineStr">
+        <is>
+          <t>Work</t>
+        </is>
+      </c>
+      <c r="G295" t="inlineStr">
+        <is>
+          <t>07/21/2023 04:53</t>
+        </is>
+      </c>
+      <c r="H295" t="inlineStr">
+        <is>
+          <t>07/21/2023 06:53</t>
+        </is>
+      </c>
+      <c r="I295" t="inlineStr"/>
+      <c r="J295" t="inlineStr">
+        <is>
+          <t>2.00</t>
+        </is>
+      </c>
+      <c r="K295" t="inlineStr"/>
+      <c r="L295" t="inlineStr"/>
+      <c r="M295" t="inlineStr"/>
+      <c r="N295" t="inlineStr"/>
+      <c r="O295" t="inlineStr"/>
+      <c r="P295" t="inlineStr"/>
+      <c r="Q295" t="inlineStr"/>
+      <c r="R295" t="inlineStr"/>
+    </row>
+    <row r="296">
+      <c r="A296" t="inlineStr"/>
+      <c r="B296" t="inlineStr">
+        <is>
+          <t>Alexander, Wendy</t>
+        </is>
+      </c>
+      <c r="C296" t="inlineStr">
+        <is>
+          <t>07/22/2023</t>
+        </is>
+      </c>
+      <c r="D296" t="inlineStr"/>
+      <c r="E296" t="inlineStr">
+        <is>
+          <t>665211</t>
+        </is>
+      </c>
+      <c r="F296" t="inlineStr">
+        <is>
+          <t>Work</t>
+        </is>
+      </c>
+      <c r="G296" t="inlineStr">
+        <is>
+          <t>07/22/2023 18:32</t>
+        </is>
+      </c>
+      <c r="H296" t="inlineStr">
+        <is>
+          <t>07/22/2023 07:02</t>
+        </is>
+      </c>
+      <c r="I296" t="inlineStr"/>
+      <c r="J296" t="inlineStr">
+        <is>
+          <t>12.50</t>
+        </is>
+      </c>
+      <c r="K296" t="inlineStr"/>
+      <c r="L296" t="inlineStr"/>
+      <c r="M296" t="inlineStr"/>
+      <c r="N296" t="inlineStr"/>
+      <c r="O296" t="inlineStr"/>
+      <c r="P296" t="inlineStr"/>
+      <c r="Q296" t="inlineStr"/>
+      <c r="R296" t="inlineStr"/>
+    </row>
+    <row r="297">
+      <c r="A297" t="inlineStr"/>
+      <c r="B297" t="inlineStr">
+        <is>
+          <t>Alexander, Wendy</t>
+        </is>
+      </c>
+      <c r="C297" t="inlineStr">
+        <is>
+          <t>07/23/2023</t>
+        </is>
+      </c>
+      <c r="D297" t="inlineStr"/>
+      <c r="E297" t="inlineStr">
+        <is>
+          <t>665211</t>
+        </is>
+      </c>
+      <c r="F297" t="inlineStr">
+        <is>
+          <t>Work</t>
+        </is>
+      </c>
+      <c r="G297" t="inlineStr">
+        <is>
+          <t>07/23/2023 18:41</t>
+        </is>
+      </c>
+      <c r="H297" t="inlineStr">
+        <is>
+          <t>07/23/2023 07:04</t>
+        </is>
+      </c>
+      <c r="I297" t="inlineStr"/>
+      <c r="J297" t="inlineStr">
+        <is>
+          <t>12.25</t>
+        </is>
+      </c>
+      <c r="K297" t="inlineStr"/>
+      <c r="L297" t="inlineStr"/>
+      <c r="M297" t="inlineStr"/>
+      <c r="N297" t="inlineStr"/>
+      <c r="O297" t="inlineStr"/>
+      <c r="P297" t="inlineStr"/>
+      <c r="Q297" t="inlineStr"/>
+      <c r="R297" t="inlineStr"/>
+    </row>
+    <row r="298">
+      <c r="A298" t="inlineStr"/>
+      <c r="B298" t="inlineStr">
+        <is>
+          <t>Alexander, Wendy</t>
+        </is>
+      </c>
+      <c r="C298" t="inlineStr">
+        <is>
+          <t>07/24/2023</t>
+        </is>
+      </c>
+      <c r="D298" t="inlineStr"/>
+      <c r="E298" t="inlineStr">
+        <is>
+          <t>665211</t>
+        </is>
+      </c>
+      <c r="F298" t="inlineStr">
+        <is>
+          <t>Work</t>
+        </is>
+      </c>
+      <c r="G298" t="inlineStr">
+        <is>
+          <t>07/24/2023 18:41</t>
+        </is>
+      </c>
+      <c r="H298" t="inlineStr">
+        <is>
+          <t>07/24/2023 07:04</t>
+        </is>
+      </c>
+      <c r="I298" t="inlineStr"/>
+      <c r="J298" t="inlineStr">
+        <is>
+          <t>12.25</t>
+        </is>
+      </c>
+      <c r="K298" t="inlineStr"/>
+      <c r="L298" t="inlineStr"/>
+      <c r="M298" t="inlineStr"/>
+      <c r="N298" t="inlineStr"/>
+      <c r="O298" t="inlineStr"/>
+      <c r="P298" t="inlineStr"/>
+      <c r="Q298" t="inlineStr"/>
+      <c r="R298" t="inlineStr"/>
+    </row>
+    <row r="299">
+      <c r="A299" t="inlineStr"/>
+      <c r="B299" t="inlineStr">
+        <is>
+          <t>Alexander, Wendy</t>
+        </is>
+      </c>
+      <c r="C299" t="inlineStr">
+        <is>
+          <t>07/25/2023</t>
+        </is>
+      </c>
+      <c r="D299" t="inlineStr"/>
+      <c r="E299" t="inlineStr">
+        <is>
+          <t>665211</t>
+        </is>
+      </c>
+      <c r="F299" t="inlineStr">
+        <is>
+          <t>Work</t>
+        </is>
+      </c>
+      <c r="G299" t="inlineStr">
+        <is>
+          <t>07/25/2023 18:36</t>
+        </is>
+      </c>
+      <c r="H299" t="inlineStr">
+        <is>
+          <t>07/25/2023 07:07</t>
+        </is>
+      </c>
+      <c r="I299" t="inlineStr"/>
+      <c r="J299" t="inlineStr">
+        <is>
+          <t>12.50</t>
+        </is>
+      </c>
+      <c r="K299" t="inlineStr"/>
+      <c r="L299" t="inlineStr"/>
+      <c r="M299" t="inlineStr"/>
+      <c r="N299" t="inlineStr"/>
+      <c r="O299" t="inlineStr"/>
+      <c r="P299" t="inlineStr"/>
+      <c r="Q299" t="inlineStr"/>
+      <c r="R299" t="inlineStr"/>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
